--- a/tests/Feature/config/salary_tenpercent.xlsx
+++ b/tests/Feature/config/salary_tenpercent.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>Sum total</t>
   </si>
@@ -180,10 +180,109 @@
     <t>private</t>
   </si>
   <si>
-    <t>income</t>
+    <t>salary</t>
   </si>
   <si>
-    <t>Income</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 0 skatt, Trygdeavgift 7.8% gir 0 skatt  Trinnskatt:0 snitt 0%,  Bracket0 (0&lt;)208050)0%=0</t>
+  </si>
+  <si>
+    <t>Income Fellesskatt: 22% gir 368554 skatt, Trygdeavgift 7.7% gir 139755 skatt  Trinnskatt:200516 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=71552</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 405409 skatt, Trygdeavgift 7.7% gir 153731 skatt  Trinnskatt:232642 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=103678</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 445950 skatt, Trygdeavgift 7.7% gir 169104 skatt  Trinnskatt:267980 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=139016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 490545 skatt, Trygdeavgift 7.7% gir 186014 skatt  Trinnskatt:306852 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=177888</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 539600 skatt, Trygdeavgift 7.7% gir 204615 skatt  Trinnskatt:349611 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=220647</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 593560 skatt, Trygdeavgift 7.7% gir 225077 skatt  Trinnskatt:396646 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=267682</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 652916 skatt, Trygdeavgift 7.7% gir 247584 skatt  Trinnskatt:448384 snitt 10%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=319420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 718207 skatt, Trygdeavgift 7.7% gir 272343 skatt  Trinnskatt:505296 snitt 11%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=376332</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 790028 skatt, Trygdeavgift 7.7% gir 299577 skatt  Trinnskatt:567900 snitt 11%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=438936</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 869031 skatt, Trygdeavgift 7.7% gir 329535 skatt  Trinnskatt:636764 snitt 12%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=507800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 955934 skatt, Trygdeavgift 7.7% gir 362488 skatt  Trinnskatt:712514 snitt 12%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=583550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1051527 skatt, Trygdeavgift 7.7% gir 398737 skatt  Trinnskatt:795839 snitt 13%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=666875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1156680 skatt, Trygdeavgift 7.7% gir 438611 skatt  Trinnskatt:887497 snitt 13%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=758533</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1272348 skatt, Trygdeavgift 7.7% gir 482472 skatt  Trinnskatt:988321 snitt 14%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=859357</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1399583 skatt, Trygdeavgift 7.7% gir 530719 skatt  Trinnskatt:1099227 snitt 14%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=970263</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1539541 skatt, Trygdeavgift 7.7% gir 583791 skatt  Trinnskatt:1221223 snitt 14%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1092259</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1693495 skatt, Trygdeavgift 7.7% gir 642170 skatt  Trinnskatt:1355419 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1226455</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1862845 skatt, Trygdeavgift 7.7% gir 706388 skatt  Trinnskatt:1503035 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1374071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 2049130 skatt, Trygdeavgift 7.7% gir 777026 skatt  Trinnskatt:1665413 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1536449</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 2254043 skatt, Trygdeavgift 7.7% gir 854729 skatt  Trinnskatt:1844028 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1715064</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 2479447 skatt, Trygdeavgift 7.7% gir 940202 skatt  Trinnskatt:2040505 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1911541</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 2727391 skatt, Trygdeavgift 7.7% gir 1034222 skatt  Trinnskatt:2256629 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2127665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 3000131 skatt, Trygdeavgift 7.7% gir 1137644 skatt  Trinnskatt:2494366 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2365402</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 3300144 skatt, Trygdeavgift 7.7% gir 1251409 skatt  Trinnskatt:2755876 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2626912</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 3630158 skatt, Trygdeavgift 7.7% gir 1376550 skatt  Trinnskatt:3043538 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2914574</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 3993174 skatt, Trygdeavgift 7.7% gir 1514205 skatt  Trinnskatt:3359965 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=3231001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 4392491 skatt, Trygdeavgift 7.7% gir 1665625 skatt  Trinnskatt:3708036 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=3579072</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 4831741 skatt, Trygdeavgift 7.7% gir 1832188 skatt  Trinnskatt:4090913 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=3961949</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 5314915 skatt, Trygdeavgift 7.7% gir 2015406 skatt  Trinnskatt:4512079 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=4383115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 5846407 skatt, Trygdeavgift 7.7% gir 2216947 skatt  Trinnskatt:4975361 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=4846397</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 6431047 skatt, Trygdeavgift 7.7% gir 2438642 skatt  Trinnskatt:5484971 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=5356007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 7074152 skatt, Trygdeavgift 7.7% gir 2682506 skatt  Trinnskatt:6045541 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=5916577</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 7781567 skatt, Trygdeavgift 7.7% gir 2950757 skatt  Trinnskatt:6662169 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=6533205</t>
   </si>
 </sst>
 </file>
@@ -638,7 +737,7 @@
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -992,9 +1091,11 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>708825.0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.39053719008264</v>
+      </c>
       <c r="I7" s="9">
         <v>0</v>
       </c>
@@ -1054,10 +1155,10 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1815000.0</v>
+        <v>1106175.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1815000.0</v>
+        <v>1106175.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
@@ -1091,9 +1192,11 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>791782.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.39658502379164</v>
+      </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
@@ -1153,10 +1256,10 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1996500.0</v>
+        <v>1204718.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>3811500.0</v>
+        <v>2310893.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
@@ -1190,9 +1293,11 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>883034.0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.40208273569656</v>
+      </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
@@ -1252,10 +1357,10 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>2196150.0</v>
+        <v>1313116.0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>6007650.0</v>
+        <v>3624009.0</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
@@ -1289,9 +1394,11 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>983411.0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.40708057282062</v>
+      </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
@@ -1351,10 +1458,10 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>2415765.0</v>
+        <v>1432354.0</v>
       </c>
       <c r="AJ10" s="2">
-        <v>8423415.0</v>
+        <v>5056363.0</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
@@ -1388,9 +1495,11 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>1093826.0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.41162417401</v>
+      </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
@@ -1450,10 +1559,10 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>2657341.5</v>
+        <v>1563515.5</v>
       </c>
       <c r="AJ11" s="2">
-        <v>11080756.5</v>
+        <v>6619878.5</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
@@ -1487,9 +1596,11 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>1215283.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.41575481337093</v>
+      </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
@@ -1549,10 +1660,10 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>2923076.2</v>
+        <v>1707793.2</v>
       </c>
       <c r="AJ12" s="2">
-        <v>14003832.7</v>
+        <v>8327671.7</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
@@ -1586,9 +1697,11 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>1348884.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.41950951046712</v>
+      </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
@@ -1648,10 +1761,10 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>3215383.6</v>
+        <v>1866499.6</v>
       </c>
       <c r="AJ13" s="2">
-        <v>17219216.3</v>
+        <v>10194171.3</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
@@ -1685,9 +1798,11 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>1495846.0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.42292304744939</v>
+      </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
@@ -1747,10 +1862,10 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>3536922.4</v>
+        <v>2041076.4</v>
       </c>
       <c r="AJ14" s="2">
-        <v>20756138.7</v>
+        <v>12235247.7</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
@@ -1784,9 +1899,11 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>1657505.0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.42602656413478</v>
+      </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
@@ -1846,10 +1963,10 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>3890614.2</v>
+        <v>2233109.2</v>
       </c>
       <c r="AJ15" s="2">
-        <v>24646752.9</v>
+        <v>14468356.9</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
@@ -1883,9 +2000,11 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>1835330.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.42884794486984</v>
+      </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
@@ -1945,10 +2064,10 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>4279675.4</v>
+        <v>2444345.4</v>
       </c>
       <c r="AJ16" s="2">
-        <v>28926428.3</v>
+        <v>16912702.3</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
@@ -1982,9 +2101,11 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>2030936.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.43141253822906</v>
+      </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
@@ -2044,10 +2165,10 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>4707642.5</v>
+        <v>2676706.5</v>
       </c>
       <c r="AJ17" s="2">
-        <v>33634070.8</v>
+        <v>19589408.8</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
@@ -2081,9 +2202,11 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>2246103.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.43374398147477</v>
+      </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
@@ -2143,10 +2266,10 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>5178407.3</v>
+        <v>2932304.3</v>
       </c>
       <c r="AJ18" s="2">
-        <v>38812478.1</v>
+        <v>22521713.1</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
@@ -2180,9 +2303,11 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>2482788.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.43586377046068</v>
+      </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
@@ -2242,10 +2367,10 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>5696247.7</v>
+        <v>3213459.7</v>
       </c>
       <c r="AJ19" s="2">
-        <v>44508725.8</v>
+        <v>25735172.8</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
@@ -2279,9 +2404,11 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>2743141.0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.43779072565916</v>
+      </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
@@ -2341,10 +2468,10 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>6265872.8</v>
+        <v>3522731.8</v>
       </c>
       <c r="AJ20" s="2">
-        <v>50774598.6</v>
+        <v>29257904.6</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
@@ -2378,9 +2505,11 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>3029529.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.43954246642523</v>
+      </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
@@ -2440,10 +2569,10 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>6892460.3</v>
+        <v>3862931.3</v>
       </c>
       <c r="AJ21" s="2">
-        <v>57667058.9</v>
+        <v>33120835.9</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
@@ -2477,9 +2606,11 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="14"/>
+        <v>3344555.0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.44113488441783</v>
+      </c>
       <c r="I22" s="13">
         <v>0</v>
       </c>
@@ -2539,10 +2670,10 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>7581706.0</v>
+        <v>4237151.0</v>
       </c>
       <c r="AJ22" s="13">
-        <v>65248764.9</v>
+        <v>37357986.9</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
@@ -2576,9 +2707,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="3"/>
+        <v>3691084.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.4425825677085</v>
+      </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
@@ -2638,10 +2771,10 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>8339876.6</v>
+        <v>4648792.6</v>
       </c>
       <c r="AJ23" s="2">
-        <v>73588641.5</v>
+        <v>42006779.5</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
@@ -2675,9 +2808,11 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>4072268.0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.44389885104802</v>
+      </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
@@ -2737,10 +2872,10 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>9173864.7</v>
+        <v>5101596.7</v>
       </c>
       <c r="AJ24" s="2">
-        <v>82762506.2</v>
+        <v>47108376.2</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
@@ -2774,9 +2909,11 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>4491569.0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.44509533827395</v>
+      </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
@@ -2836,10 +2973,10 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>10091251.5</v>
+        <v>5599682.5</v>
       </c>
       <c r="AJ25" s="2">
-        <v>92853757.7</v>
+        <v>52708058.7</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
@@ -2873,9 +3010,11 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>4952800.0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.44618303601431</v>
+      </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
@@ -2935,10 +3074,10 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>11100377.2</v>
+        <v>6147577.2</v>
       </c>
       <c r="AJ26" s="2">
-        <v>103954134.9</v>
+        <v>58855635.9</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
@@ -2972,9 +3111,11 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>5460154.0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.44717187205771</v>
+      </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
@@ -3034,10 +3175,10 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>12210414.7</v>
+        <v>6750260.7</v>
       </c>
       <c r="AJ27" s="2">
-        <v>116164549.6</v>
+        <v>65605896.6</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
@@ -3071,9 +3212,11 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>6018242.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.44807069136545</v>
+      </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
@@ -3133,10 +3276,10 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>13431456.5</v>
+        <v>7413214.5</v>
       </c>
       <c r="AJ28" s="2">
-        <v>129596006.1</v>
+        <v>73019111.1</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
@@ -3170,9 +3313,11 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>6632141.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.44888794200876</v>
+      </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
@@ -3232,10 +3377,10 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>14774602.7</v>
+        <v>8142461.7</v>
       </c>
       <c r="AJ29" s="2">
-        <v>144370608.8</v>
+        <v>81161572.8</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
@@ -3269,9 +3414,11 @@
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="18"/>
+        <v>7307429.0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0.44963084779518</v>
+      </c>
       <c r="I30" s="17">
         <v>0</v>
       </c>
@@ -3331,10 +3478,10 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>16252063.3</v>
+        <v>8944634.3</v>
       </c>
       <c r="AJ30" s="17">
-        <v>160622672.1</v>
+        <v>90106207.1</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
@@ -3368,9 +3515,11 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>8050246.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.45030624447773</v>
+      </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
@@ -3430,10 +3579,10 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>17877269.3</v>
+        <v>9827023.3</v>
       </c>
       <c r="AJ31" s="2">
-        <v>178499941.4</v>
+        <v>99933230.4</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
@@ -3467,9 +3616,11 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>8867344.0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.45092020588725</v>
+      </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
@@ -3529,10 +3680,10 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>19664995.9</v>
+        <v>10797651.9</v>
       </c>
       <c r="AJ32" s="2">
-        <v>198164937.3</v>
+        <v>110730882.3</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
@@ -3566,9 +3717,11 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>9766152.0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.45147835270345</v>
+      </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
@@ -3628,10 +3781,10 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>21631495.6</v>
+        <v>11865343.6</v>
       </c>
       <c r="AJ33" s="2">
-        <v>219796432.9</v>
+        <v>122596225.9</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
@@ -3665,9 +3818,11 @@
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H34" s="18"/>
+        <v>10754842.0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.45198580305815</v>
+      </c>
       <c r="I34" s="17">
         <v>0</v>
       </c>
@@ -3727,10 +3882,10 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>23794645.6</v>
+        <v>13039803.6</v>
       </c>
       <c r="AJ34" s="17">
-        <v>243591078.5</v>
+        <v>135636029.5</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
@@ -3764,9 +3919,11 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>11842400.0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.45244708334044</v>
+      </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
@@ -3826,10 +3983,10 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>26174110.6</v>
+        <v>14331710.6</v>
       </c>
       <c r="AJ35" s="2">
-        <v>269765189.1</v>
+        <v>149967740.1</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
@@ -3863,9 +4020,11 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H36" s="3"/>
+        <v>13038715.0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.45286647071709</v>
+      </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
@@ -3925,10 +4084,10 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>28791522.1</v>
+        <v>15752807.1</v>
       </c>
       <c r="AJ36" s="2">
-        <v>298556711.2</v>
+        <v>165720547.2</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
@@ -3962,9 +4121,11 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="3"/>
+        <v>14354660.0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.45324769246624</v>
+      </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
@@ -4024,10 +4185,10 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>31670674.2</v>
+        <v>17316014.2</v>
       </c>
       <c r="AJ37" s="2">
-        <v>330227385.4</v>
+        <v>183036561.4</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
@@ -4061,9 +4222,11 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="3"/>
+        <v>15802199.0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.45359424477501</v>
+      </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
@@ -4123,10 +4286,10 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>34837741.4</v>
+        <v>19035542.4</v>
       </c>
       <c r="AJ38" s="2">
-        <v>365065126.8</v>
+        <v>202072103.8</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
@@ -4160,9 +4323,11 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H39" s="3"/>
+        <v>17394493.0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.45390932364258</v>
+      </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
@@ -4222,10 +4387,10 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>38321515.1</v>
+        <v>20927022.1</v>
       </c>
       <c r="AJ39" s="2">
-        <v>403386641.9</v>
+        <v>222999125.9</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
@@ -4402,7 +4567,7 @@
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -4756,9 +4921,11 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>708825.0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.39053719008264</v>
+      </c>
       <c r="I7" s="9">
         <v>0</v>
       </c>
@@ -4818,10 +4985,10 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1815000.0</v>
+        <v>1106175.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1815000.0</v>
+        <v>1106175.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
@@ -4855,9 +5022,11 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>791782.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.39658502379164</v>
+      </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
@@ -4917,10 +5086,10 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1996500.0</v>
+        <v>1204718.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>3811500.0</v>
+        <v>2310893.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
@@ -4954,9 +5123,11 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>883034.0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.40208273569656</v>
+      </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
@@ -5016,10 +5187,10 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>2196150.0</v>
+        <v>1313116.0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>6007650.0</v>
+        <v>3624009.0</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
@@ -5053,9 +5224,11 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>983411.0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.40708057282062</v>
+      </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
@@ -5115,10 +5288,10 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>2415765.0</v>
+        <v>1432354.0</v>
       </c>
       <c r="AJ10" s="2">
-        <v>8423415.0</v>
+        <v>5056363.0</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
@@ -5152,9 +5325,11 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>1093826.0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.41162417401</v>
+      </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
@@ -5214,10 +5389,10 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>2657341.5</v>
+        <v>1563515.5</v>
       </c>
       <c r="AJ11" s="2">
-        <v>11080756.5</v>
+        <v>6619878.5</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
@@ -5251,9 +5426,11 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>1215283.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.41575481337093</v>
+      </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
@@ -5313,10 +5490,10 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>2923076.2</v>
+        <v>1707793.2</v>
       </c>
       <c r="AJ12" s="2">
-        <v>14003832.7</v>
+        <v>8327671.7</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
@@ -5350,9 +5527,11 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>1348884.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.41950951046712</v>
+      </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
@@ -5412,10 +5591,10 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>3215383.6</v>
+        <v>1866499.6</v>
       </c>
       <c r="AJ13" s="2">
-        <v>17219216.3</v>
+        <v>10194171.3</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
@@ -5449,9 +5628,11 @@
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>1495846.0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.42292304744939</v>
+      </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
@@ -5511,10 +5692,10 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>3536922.4</v>
+        <v>2041076.4</v>
       </c>
       <c r="AJ14" s="2">
-        <v>20756138.7</v>
+        <v>12235247.7</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
@@ -5548,9 +5729,11 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>1657505.0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.42602656413478</v>
+      </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
@@ -5610,10 +5793,10 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>3890614.2</v>
+        <v>2233109.2</v>
       </c>
       <c r="AJ15" s="2">
-        <v>24646752.9</v>
+        <v>14468356.9</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
@@ -5647,9 +5830,11 @@
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>1835330.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.42884794486984</v>
+      </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
@@ -5709,10 +5894,10 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>4279675.4</v>
+        <v>2444345.4</v>
       </c>
       <c r="AJ16" s="2">
-        <v>28926428.3</v>
+        <v>16912702.3</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
@@ -5746,9 +5931,11 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>2030936.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.43141253822906</v>
+      </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
@@ -5808,10 +5995,10 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>4707642.5</v>
+        <v>2676706.5</v>
       </c>
       <c r="AJ17" s="2">
-        <v>33634070.8</v>
+        <v>19589408.8</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
@@ -5845,9 +6032,11 @@
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>2246103.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.43374398147477</v>
+      </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
@@ -5907,10 +6096,10 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>5178407.3</v>
+        <v>2932304.3</v>
       </c>
       <c r="AJ18" s="2">
-        <v>38812478.1</v>
+        <v>22521713.1</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
@@ -5944,9 +6133,11 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>2482788.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.43586377046068</v>
+      </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
@@ -6006,10 +6197,10 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>5696247.7</v>
+        <v>3213459.7</v>
       </c>
       <c r="AJ19" s="2">
-        <v>44508725.8</v>
+        <v>25735172.8</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
@@ -6043,9 +6234,11 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>2743141.0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.43779072565916</v>
+      </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
@@ -6105,10 +6298,10 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>6265872.8</v>
+        <v>3522731.8</v>
       </c>
       <c r="AJ20" s="2">
-        <v>50774598.6</v>
+        <v>29257904.6</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
@@ -6142,9 +6335,11 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>3029529.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.43954246642523</v>
+      </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
@@ -6204,10 +6399,10 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>6892460.3</v>
+        <v>3862931.3</v>
       </c>
       <c r="AJ21" s="2">
-        <v>57667058.9</v>
+        <v>33120835.9</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
@@ -6241,9 +6436,11 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="14"/>
+        <v>3344555.0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.44113488441783</v>
+      </c>
       <c r="I22" s="13">
         <v>0</v>
       </c>
@@ -6303,10 +6500,10 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>7581706.0</v>
+        <v>4237151.0</v>
       </c>
       <c r="AJ22" s="13">
-        <v>65248764.9</v>
+        <v>37357986.9</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
@@ -6340,9 +6537,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="3"/>
+        <v>3691084.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.4425825677085</v>
+      </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
@@ -6402,10 +6601,10 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>8339876.6</v>
+        <v>4648792.6</v>
       </c>
       <c r="AJ23" s="2">
-        <v>73588641.5</v>
+        <v>42006779.5</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
@@ -6439,9 +6638,11 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>4072268.0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.44389885104802</v>
+      </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
@@ -6501,10 +6702,10 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>9173864.7</v>
+        <v>5101596.7</v>
       </c>
       <c r="AJ24" s="2">
-        <v>82762506.2</v>
+        <v>47108376.2</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
@@ -6538,9 +6739,11 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>4491569.0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.44509533827395</v>
+      </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
@@ -6600,10 +6803,10 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>10091251.5</v>
+        <v>5599682.5</v>
       </c>
       <c r="AJ25" s="2">
-        <v>92853757.7</v>
+        <v>52708058.7</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
@@ -6637,9 +6840,11 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>4952800.0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.44618303601431</v>
+      </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
@@ -6699,10 +6904,10 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>11100377.2</v>
+        <v>6147577.2</v>
       </c>
       <c r="AJ26" s="2">
-        <v>103954134.9</v>
+        <v>58855635.9</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
@@ -6736,9 +6941,11 @@
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>5460154.0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.44717187205771</v>
+      </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
@@ -6798,10 +7005,10 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>12210414.7</v>
+        <v>6750260.7</v>
       </c>
       <c r="AJ27" s="2">
-        <v>116164549.6</v>
+        <v>65605896.6</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
@@ -6835,9 +7042,11 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>6018242.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.44807069136545</v>
+      </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
@@ -6897,10 +7106,10 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>13431456.5</v>
+        <v>7413214.5</v>
       </c>
       <c r="AJ28" s="2">
-        <v>129596006.1</v>
+        <v>73019111.1</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
@@ -6934,9 +7143,11 @@
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>6632141.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.44888794200876</v>
+      </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
@@ -6996,10 +7207,10 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>14774602.7</v>
+        <v>8142461.7</v>
       </c>
       <c r="AJ29" s="2">
-        <v>144370608.8</v>
+        <v>81161572.8</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
@@ -7033,9 +7244,11 @@
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="18"/>
+        <v>7307429.0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0.44963084779518</v>
+      </c>
       <c r="I30" s="17">
         <v>0</v>
       </c>
@@ -7095,10 +7308,10 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>16252063.3</v>
+        <v>8944634.3</v>
       </c>
       <c r="AJ30" s="17">
-        <v>160622672.1</v>
+        <v>90106207.1</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
@@ -7132,9 +7345,11 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>8050246.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.45030624447773</v>
+      </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
@@ -7194,10 +7409,10 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>17877269.3</v>
+        <v>9827023.3</v>
       </c>
       <c r="AJ31" s="2">
-        <v>178499941.4</v>
+        <v>99933230.4</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
@@ -7231,9 +7446,11 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>8867344.0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.45092020588725</v>
+      </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
@@ -7293,10 +7510,10 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>19664995.9</v>
+        <v>10797651.9</v>
       </c>
       <c r="AJ32" s="2">
-        <v>198164937.3</v>
+        <v>110730882.3</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
@@ -7330,9 +7547,11 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>9766152.0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.45147835270345</v>
+      </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
@@ -7392,10 +7611,10 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>21631495.6</v>
+        <v>11865343.6</v>
       </c>
       <c r="AJ33" s="2">
-        <v>219796432.9</v>
+        <v>122596225.9</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
@@ -7429,9 +7648,11 @@
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H34" s="18"/>
+        <v>10754842.0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.45198580305815</v>
+      </c>
       <c r="I34" s="17">
         <v>0</v>
       </c>
@@ -7491,10 +7712,10 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>23794645.6</v>
+        <v>13039803.6</v>
       </c>
       <c r="AJ34" s="17">
-        <v>243591078.5</v>
+        <v>135636029.5</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
@@ -7528,9 +7749,11 @@
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>11842400.0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.45244708334044</v>
+      </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
@@ -7590,10 +7813,10 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>26174110.6</v>
+        <v>14331710.6</v>
       </c>
       <c r="AJ35" s="2">
-        <v>269765189.1</v>
+        <v>149967740.1</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
@@ -7627,9 +7850,11 @@
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H36" s="3"/>
+        <v>13038715.0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.45286647071709</v>
+      </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
@@ -7689,10 +7914,10 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>28791522.1</v>
+        <v>15752807.1</v>
       </c>
       <c r="AJ36" s="2">
-        <v>298556711.2</v>
+        <v>165720547.2</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
@@ -7726,9 +7951,11 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="3"/>
+        <v>14354660.0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.45324769246624</v>
+      </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
@@ -7788,10 +8015,10 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>31670674.2</v>
+        <v>17316014.2</v>
       </c>
       <c r="AJ37" s="2">
-        <v>330227385.4</v>
+        <v>183036561.4</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
@@ -7825,9 +8052,11 @@
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="3"/>
+        <v>15802199.0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.45359424477501</v>
+      </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
@@ -7887,10 +8116,10 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>34837741.4</v>
+        <v>19035542.4</v>
       </c>
       <c r="AJ38" s="2">
-        <v>365065126.8</v>
+        <v>202072103.8</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
@@ -7924,9 +8153,11 @@
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H39" s="3"/>
+        <v>17394493.0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.45390932364258</v>
+      </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
@@ -7986,10 +8217,10 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>38321515.1</v>
+        <v>20927022.1</v>
       </c>
       <c r="AJ39" s="2">
-        <v>403386641.9</v>
+        <v>222999125.9</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
@@ -10574,7 +10805,7 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -10886,7 +11117,9 @@
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="3"/>
-      <c r="AQ6" s="2"/>
+      <c r="AQ6" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="8">
@@ -10904,9 +11137,11 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>708825.0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.39</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="9"/>
@@ -10944,10 +11179,10 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1815000.0</v>
+        <v>1106175.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1815000.0</v>
+        <v>1106175.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
@@ -10962,7 +11197,7 @@
       <c r="AO7" s="9"/>
       <c r="AP7" s="10"/>
       <c r="AQ7" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -10981,9 +11216,11 @@
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>791782.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.4</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
@@ -11021,10 +11258,10 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1996500.0</v>
+        <v>1204718.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>3811500.0</v>
+        <v>2310893.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
@@ -11038,7 +11275,9 @@
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="3"/>
-      <c r="AQ8" s="2"/>
+      <c r="AQ8" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9">
@@ -11056,9 +11295,11 @@
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>883034.0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.4</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
@@ -11096,10 +11337,10 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>2196150.0</v>
+        <v>1313116.0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>6007650.0</v>
+        <v>3624009.0</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
@@ -11113,7 +11354,9 @@
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="3"/>
-      <c r="AQ9" s="2"/>
+      <c r="AQ9" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10">
@@ -11131,9 +11374,11 @@
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
       <c r="G10" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>983411.0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.41</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
@@ -11171,10 +11416,10 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>2415765.0</v>
+        <v>1432354.0</v>
       </c>
       <c r="AJ10" s="2">
-        <v>8423415.0</v>
+        <v>5056363.0</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
@@ -11188,7 +11433,9 @@
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="3"/>
-      <c r="AQ10" s="2"/>
+      <c r="AQ10" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11">
@@ -11206,9 +11453,11 @@
       <c r="E11" s="6"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>1093826.0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.41</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
@@ -11246,10 +11495,10 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>2657341.5</v>
+        <v>1563515.5</v>
       </c>
       <c r="AJ11" s="2">
-        <v>11080756.5</v>
+        <v>6619878.5</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
@@ -11263,7 +11512,9 @@
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="3"/>
-      <c r="AQ11" s="2"/>
+      <c r="AQ11" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12">
@@ -11281,9 +11532,11 @@
       <c r="E12" s="6"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>1215283.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.42</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
@@ -11321,10 +11574,10 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>2923076.2</v>
+        <v>1707793.2</v>
       </c>
       <c r="AJ12" s="2">
-        <v>14003832.7</v>
+        <v>8327671.7</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
@@ -11338,7 +11591,9 @@
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="3"/>
-      <c r="AQ12" s="2"/>
+      <c r="AQ12" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13">
@@ -11356,9 +11611,11 @@
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>1348884.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.42</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
@@ -11396,10 +11653,10 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>3215383.6</v>
+        <v>1866499.6</v>
       </c>
       <c r="AJ13" s="2">
-        <v>17219216.3</v>
+        <v>10194171.3</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
@@ -11413,7 +11670,9 @@
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="3"/>
-      <c r="AQ13" s="2"/>
+      <c r="AQ13" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14">
@@ -11431,9 +11690,11 @@
       <c r="E14" s="6"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>1495846.0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.42</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
@@ -11471,10 +11732,10 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>3536922.4</v>
+        <v>2041076.4</v>
       </c>
       <c r="AJ14" s="2">
-        <v>20756138.7</v>
+        <v>12235247.7</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
@@ -11488,7 +11749,9 @@
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="3"/>
-      <c r="AQ14" s="2"/>
+      <c r="AQ14" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15">
@@ -11506,9 +11769,11 @@
       <c r="E15" s="6"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>1657505.0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.43</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
@@ -11546,10 +11811,10 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>3890614.2</v>
+        <v>2233109.2</v>
       </c>
       <c r="AJ15" s="2">
-        <v>24646752.9</v>
+        <v>14468356.9</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
@@ -11563,7 +11828,9 @@
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="3"/>
-      <c r="AQ15" s="2"/>
+      <c r="AQ15" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16">
@@ -11581,9 +11848,11 @@
       <c r="E16" s="6"/>
       <c r="F16" s="3"/>
       <c r="G16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>1835330.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.43</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
@@ -11621,10 +11890,10 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>4279675.4</v>
+        <v>2444345.4</v>
       </c>
       <c r="AJ16" s="2">
-        <v>28926428.3</v>
+        <v>16912702.3</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
@@ -11638,7 +11907,9 @@
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="3"/>
-      <c r="AQ16" s="2"/>
+      <c r="AQ16" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17">
@@ -11656,9 +11927,11 @@
       <c r="E17" s="6"/>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>2030936.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.43</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
@@ -11696,10 +11969,10 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>4707642.5</v>
+        <v>2676706.5</v>
       </c>
       <c r="AJ17" s="2">
-        <v>33634070.8</v>
+        <v>19589408.8</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
@@ -11713,7 +11986,9 @@
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="3"/>
-      <c r="AQ17" s="2"/>
+      <c r="AQ17" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18">
@@ -11731,9 +12006,11 @@
       <c r="E18" s="6"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>2246103.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.43</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
@@ -11771,10 +12048,10 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>5178407.3</v>
+        <v>2932304.3</v>
       </c>
       <c r="AJ18" s="2">
-        <v>38812478.1</v>
+        <v>22521713.1</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
@@ -11788,7 +12065,9 @@
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="3"/>
-      <c r="AQ18" s="2"/>
+      <c r="AQ18" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19">
@@ -11806,9 +12085,11 @@
       <c r="E19" s="6"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>2482788.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.44</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
@@ -11846,10 +12127,10 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>5696247.7</v>
+        <v>3213459.7</v>
       </c>
       <c r="AJ19" s="2">
-        <v>44508725.8</v>
+        <v>25735172.8</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
@@ -11863,7 +12144,9 @@
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="3"/>
-      <c r="AQ19" s="2"/>
+      <c r="AQ19" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20">
@@ -11881,9 +12164,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>2743141.0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.44</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
@@ -11921,10 +12206,10 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>6265872.8</v>
+        <v>3522731.8</v>
       </c>
       <c r="AJ20" s="2">
-        <v>50774598.6</v>
+        <v>29257904.6</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
@@ -11938,7 +12223,9 @@
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="3"/>
-      <c r="AQ20" s="2"/>
+      <c r="AQ20" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21">
@@ -11956,9 +12243,11 @@
       <c r="E21" s="6"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>3029529.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.44</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
@@ -11996,10 +12285,10 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>6892460.3</v>
+        <v>3862931.3</v>
       </c>
       <c r="AJ21" s="2">
-        <v>57667058.9</v>
+        <v>33120835.9</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
@@ -12013,7 +12302,9 @@
       </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="3"/>
-      <c r="AQ21" s="2"/>
+      <c r="AQ21" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" s="12">
@@ -12031,9 +12322,11 @@
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
       <c r="G22" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="14"/>
+        <v>3344555.0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.44</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="14"/>
       <c r="K22" s="13"/>
@@ -12071,10 +12364,10 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>7581706.0</v>
+        <v>4237151.0</v>
       </c>
       <c r="AJ22" s="13">
-        <v>65248764.9</v>
+        <v>37357986.9</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
@@ -12088,7 +12381,9 @@
       </c>
       <c r="AO22" s="13"/>
       <c r="AP22" s="14"/>
-      <c r="AQ22" s="13"/>
+      <c r="AQ22" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23">
@@ -12106,9 +12401,11 @@
       <c r="E23" s="6"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="3"/>
+        <v>3691084.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.44</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2"/>
@@ -12146,10 +12443,10 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>8339876.6</v>
+        <v>4648792.6</v>
       </c>
       <c r="AJ23" s="2">
-        <v>73588641.5</v>
+        <v>42006779.5</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
@@ -12163,7 +12460,9 @@
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="3"/>
-      <c r="AQ23" s="2"/>
+      <c r="AQ23" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24">
@@ -12181,9 +12480,11 @@
       <c r="E24" s="6"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>4072268.0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.44</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="2"/>
@@ -12221,10 +12522,10 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>9173864.7</v>
+        <v>5101596.7</v>
       </c>
       <c r="AJ24" s="2">
-        <v>82762506.2</v>
+        <v>47108376.2</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
@@ -12238,7 +12539,9 @@
       </c>
       <c r="AO24" s="2"/>
       <c r="AP24" s="3"/>
-      <c r="AQ24" s="2"/>
+      <c r="AQ24" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25">
@@ -12256,9 +12559,11 @@
       <c r="E25" s="6"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>4491569.0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
       <c r="K25" s="2"/>
@@ -12296,10 +12601,10 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>10091251.5</v>
+        <v>5599682.5</v>
       </c>
       <c r="AJ25" s="2">
-        <v>92853757.7</v>
+        <v>52708058.7</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
@@ -12313,7 +12618,9 @@
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="3"/>
-      <c r="AQ25" s="2"/>
+      <c r="AQ25" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:43">
       <c r="A26">
@@ -12331,9 +12638,11 @@
       <c r="E26" s="6"/>
       <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>4952800.0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
@@ -12371,10 +12680,10 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>11100377.2</v>
+        <v>6147577.2</v>
       </c>
       <c r="AJ26" s="2">
-        <v>103954134.9</v>
+        <v>58855635.9</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
@@ -12388,7 +12697,9 @@
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="3"/>
-      <c r="AQ26" s="2"/>
+      <c r="AQ26" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27">
@@ -12406,9 +12717,11 @@
       <c r="E27" s="6"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>5460154.0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
       <c r="K27" s="2"/>
@@ -12446,10 +12759,10 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>12210414.7</v>
+        <v>6750260.7</v>
       </c>
       <c r="AJ27" s="2">
-        <v>116164549.6</v>
+        <v>65605896.6</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
@@ -12463,7 +12776,9 @@
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="3"/>
-      <c r="AQ27" s="2"/>
+      <c r="AQ27" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28">
@@ -12481,9 +12796,11 @@
       <c r="E28" s="6"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>6018242.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="3"/>
       <c r="K28" s="2"/>
@@ -12521,10 +12838,10 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>13431456.5</v>
+        <v>7413214.5</v>
       </c>
       <c r="AJ28" s="2">
-        <v>129596006.1</v>
+        <v>73019111.1</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
@@ -12538,7 +12855,9 @@
       </c>
       <c r="AO28" s="2"/>
       <c r="AP28" s="3"/>
-      <c r="AQ28" s="2"/>
+      <c r="AQ28" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29">
@@ -12556,9 +12875,11 @@
       <c r="E29" s="6"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>6632141.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
       <c r="K29" s="2"/>
@@ -12596,10 +12917,10 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>14774602.7</v>
+        <v>8142461.7</v>
       </c>
       <c r="AJ29" s="2">
-        <v>144370608.8</v>
+        <v>81161572.8</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
@@ -12613,7 +12934,9 @@
       </c>
       <c r="AO29" s="2"/>
       <c r="AP29" s="3"/>
-      <c r="AQ29" s="2"/>
+      <c r="AQ29" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" s="16">
@@ -12631,9 +12954,11 @@
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="18"/>
+        <v>7307429.0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0.45</v>
+      </c>
       <c r="I30" s="17"/>
       <c r="J30" s="18"/>
       <c r="K30" s="17"/>
@@ -12671,10 +12996,10 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>16252063.3</v>
+        <v>8944634.3</v>
       </c>
       <c r="AJ30" s="17">
-        <v>160622672.1</v>
+        <v>90106207.1</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
@@ -12688,7 +13013,9 @@
       </c>
       <c r="AO30" s="17"/>
       <c r="AP30" s="18"/>
-      <c r="AQ30" s="17"/>
+      <c r="AQ30" s="17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31">
@@ -12706,9 +13033,11 @@
       <c r="E31" s="6"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>8050246.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
       <c r="K31" s="2"/>
@@ -12746,10 +13075,10 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>17877269.3</v>
+        <v>9827023.3</v>
       </c>
       <c r="AJ31" s="2">
-        <v>178499941.4</v>
+        <v>99933230.4</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
@@ -12763,7 +13092,9 @@
       </c>
       <c r="AO31" s="2"/>
       <c r="AP31" s="3"/>
-      <c r="AQ31" s="2"/>
+      <c r="AQ31" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32">
@@ -12781,9 +13112,11 @@
       <c r="E32" s="6"/>
       <c r="F32" s="3"/>
       <c r="G32" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>8867344.0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="3"/>
       <c r="K32" s="2"/>
@@ -12821,10 +13154,10 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>19664995.9</v>
+        <v>10797651.9</v>
       </c>
       <c r="AJ32" s="2">
-        <v>198164937.3</v>
+        <v>110730882.3</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
@@ -12838,7 +13171,9 @@
       </c>
       <c r="AO32" s="2"/>
       <c r="AP32" s="3"/>
-      <c r="AQ32" s="2"/>
+      <c r="AQ32" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="33" spans="1:43">
       <c r="A33">
@@ -12856,9 +13191,11 @@
       <c r="E33" s="6"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>9766152.0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="3"/>
       <c r="K33" s="2"/>
@@ -12896,10 +13233,10 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>21631495.6</v>
+        <v>11865343.6</v>
       </c>
       <c r="AJ33" s="2">
-        <v>219796432.9</v>
+        <v>122596225.9</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
@@ -12913,7 +13250,9 @@
       </c>
       <c r="AO33" s="2"/>
       <c r="AP33" s="3"/>
-      <c r="AQ33" s="2"/>
+      <c r="AQ33" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="34" spans="1:43">
       <c r="A34" s="16">
@@ -12931,9 +13270,11 @@
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
       <c r="G34" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="H34" s="18"/>
+        <v>10754842.0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.45</v>
+      </c>
       <c r="I34" s="17"/>
       <c r="J34" s="18"/>
       <c r="K34" s="17"/>
@@ -12971,10 +13312,10 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>23794645.6</v>
+        <v>13039803.6</v>
       </c>
       <c r="AJ34" s="17">
-        <v>243591078.5</v>
+        <v>135636029.5</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
@@ -12988,7 +13329,9 @@
       </c>
       <c r="AO34" s="17"/>
       <c r="AP34" s="18"/>
-      <c r="AQ34" s="17"/>
+      <c r="AQ34" s="17" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="35" spans="1:43">
       <c r="A35">
@@ -13006,9 +13349,11 @@
       <c r="E35" s="6"/>
       <c r="F35" s="3"/>
       <c r="G35" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>11842400.0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="3"/>
       <c r="K35" s="2"/>
@@ -13046,10 +13391,10 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>26174110.6</v>
+        <v>14331710.6</v>
       </c>
       <c r="AJ35" s="2">
-        <v>269765189.1</v>
+        <v>149967740.1</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
@@ -13063,7 +13408,9 @@
       </c>
       <c r="AO35" s="2"/>
       <c r="AP35" s="3"/>
-      <c r="AQ35" s="2"/>
+      <c r="AQ35" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="36" spans="1:43">
       <c r="A36">
@@ -13081,9 +13428,11 @@
       <c r="E36" s="6"/>
       <c r="F36" s="3"/>
       <c r="G36" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H36" s="3"/>
+        <v>13038715.0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="3"/>
       <c r="K36" s="2"/>
@@ -13121,10 +13470,10 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>28791522.1</v>
+        <v>15752807.1</v>
       </c>
       <c r="AJ36" s="2">
-        <v>298556711.2</v>
+        <v>165720547.2</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
@@ -13138,7 +13487,9 @@
       </c>
       <c r="AO36" s="2"/>
       <c r="AP36" s="3"/>
-      <c r="AQ36" s="2"/>
+      <c r="AQ36" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="37" spans="1:43">
       <c r="A37">
@@ -13156,9 +13507,11 @@
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
       <c r="G37" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="3"/>
+        <v>14354660.0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
       <c r="K37" s="2"/>
@@ -13196,10 +13549,10 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>31670674.2</v>
+        <v>17316014.2</v>
       </c>
       <c r="AJ37" s="2">
-        <v>330227385.4</v>
+        <v>183036561.4</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
@@ -13213,7 +13566,9 @@
       </c>
       <c r="AO37" s="2"/>
       <c r="AP37" s="3"/>
-      <c r="AQ37" s="2"/>
+      <c r="AQ37" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="38" spans="1:43">
       <c r="A38">
@@ -13231,9 +13586,11 @@
       <c r="E38" s="6"/>
       <c r="F38" s="3"/>
       <c r="G38" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H38" s="3"/>
+        <v>15802199.0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="3"/>
       <c r="K38" s="2"/>
@@ -13271,10 +13628,10 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>34837741.4</v>
+        <v>19035542.4</v>
       </c>
       <c r="AJ38" s="2">
-        <v>365065126.8</v>
+        <v>202072103.8</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
@@ -13288,7 +13645,9 @@
       </c>
       <c r="AO38" s="2"/>
       <c r="AP38" s="3"/>
-      <c r="AQ38" s="2"/>
+      <c r="AQ38" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="39" spans="1:43">
       <c r="A39">
@@ -13306,9 +13665,11 @@
       <c r="E39" s="6"/>
       <c r="F39" s="3"/>
       <c r="G39" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H39" s="3"/>
+        <v>17394493.0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="3"/>
       <c r="K39" s="2"/>
@@ -13346,10 +13707,10 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>38321515.1</v>
+        <v>20927022.1</v>
       </c>
       <c r="AJ39" s="2">
-        <v>403386641.9</v>
+        <v>222999125.9</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
@@ -13363,7 +13724,9 @@
       </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="3"/>
-      <c r="AQ39" s="2"/>
+      <c r="AQ39" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="40" spans="1:43">
       <c r="C40" s="20"/>

--- a/tests/Feature/config/salary_tenpercent.xlsx
+++ b/tests/Feature/config/salary_tenpercent.xlsx
@@ -186,103 +186,103 @@
     <t xml:space="preserve"> Fellesskatt: 22% gir 0 skatt, Trygdeavgift 7.8% gir 0 skatt  Trinnskatt:0 snitt 0%,  Bracket0 (0&lt;)208050)0%=0</t>
   </si>
   <si>
-    <t>Income Fellesskatt: 22% gir 368554 skatt, Trygdeavgift 7.7% gir 139755 skatt  Trinnskatt:200516 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=71552</t>
+    <t>Income Fellesskatt: 22% gir 345100 skatt, Trygdeavgift 7.7% gir 130862 skatt  Trinnskatt:180073 snitt 3%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=51109</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 405409 skatt, Trygdeavgift 7.7% gir 153731 skatt  Trinnskatt:232642 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=103678</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 352002 skatt, Trygdeavgift 7.7% gir 133479 skatt  Trinnskatt:186089 snitt 3%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=57125</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 445950 skatt, Trygdeavgift 7.7% gir 169104 skatt  Trinnskatt:267980 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=139016</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 359042 skatt, Trygdeavgift 7.7% gir 136148 skatt  Trinnskatt:192225 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=63261</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 490545 skatt, Trygdeavgift 7.7% gir 186014 skatt  Trinnskatt:306852 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=177888</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 366223 skatt, Trygdeavgift 7.7% gir 138871 skatt  Trinnskatt:198485 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=69521</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 539600 skatt, Trygdeavgift 7.7% gir 204615 skatt  Trinnskatt:349611 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=220647</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 373548 skatt, Trygdeavgift 7.7% gir 141649 skatt  Trinnskatt:204869 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=75905</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 593560 skatt, Trygdeavgift 7.7% gir 225077 skatt  Trinnskatt:396646 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=267682</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 381018 skatt, Trygdeavgift 7.7% gir 144482 skatt  Trinnskatt:211381 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=82417</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 652916 skatt, Trygdeavgift 7.7% gir 247584 skatt  Trinnskatt:448384 snitt 10%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=319420</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 388639 skatt, Trygdeavgift 7.7% gir 147371 skatt  Trinnskatt:218024 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=89060</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 718207 skatt, Trygdeavgift 7.7% gir 272343 skatt  Trinnskatt:505296 snitt 11%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=376332</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 396412 skatt, Trygdeavgift 7.7% gir 150319 skatt  Trinnskatt:224799 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=95835</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 790028 skatt, Trygdeavgift 7.7% gir 299577 skatt  Trinnskatt:567900 snitt 11%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=438936</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 404340 skatt, Trygdeavgift 7.7% gir 153325 skatt  Trinnskatt:231710 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=102746</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 869031 skatt, Trygdeavgift 7.7% gir 329535 skatt  Trinnskatt:636764 snitt 12%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=507800</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 412427 skatt, Trygdeavgift 7.7% gir 156392 skatt  Trinnskatt:238759 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=109795</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 955934 skatt, Trygdeavgift 7.7% gir 362488 skatt  Trinnskatt:712514 snitt 12%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=583550</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 420676 skatt, Trygdeavgift 7.7% gir 159519 skatt  Trinnskatt:245949 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=116985</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 1051527 skatt, Trygdeavgift 7.7% gir 398737 skatt  Trinnskatt:795839 snitt 13%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=666875</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 429089 skatt, Trygdeavgift 7.7% gir 162710 skatt  Trinnskatt:253282 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=124318</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 1156680 skatt, Trygdeavgift 7.7% gir 438611 skatt  Trinnskatt:887497 snitt 13%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=758533</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 437671 skatt, Trygdeavgift 7.7% gir 165964 skatt  Trinnskatt:260763 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=131799</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 1272348 skatt, Trygdeavgift 7.7% gir 482472 skatt  Trinnskatt:988321 snitt 14%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=859357</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 446424 skatt, Trygdeavgift 7.7% gir 169283 skatt  Trinnskatt:268393 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=139429</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 1399583 skatt, Trygdeavgift 7.7% gir 530719 skatt  Trinnskatt:1099227 snitt 14%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=970263</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 455353 skatt, Trygdeavgift 7.7% gir 172669 skatt  Trinnskatt:276176 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=147212</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 1539541 skatt, Trygdeavgift 7.7% gir 583791 skatt  Trinnskatt:1221223 snitt 14%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1092259</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 464460 skatt, Trygdeavgift 7.7% gir 176122 skatt  Trinnskatt:284114 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=155150</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 1693495 skatt, Trygdeavgift 7.7% gir 642170 skatt  Trinnskatt:1355419 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1226455</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 473749 skatt, Trygdeavgift 7.7% gir 179645 skatt  Trinnskatt:292211 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=163247</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 1862845 skatt, Trygdeavgift 7.7% gir 706388 skatt  Trinnskatt:1503035 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1374071</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 483224 skatt, Trygdeavgift 7.7% gir 183238 skatt  Trinnskatt:300470 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=171506</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 2049130 skatt, Trygdeavgift 7.7% gir 777026 skatt  Trinnskatt:1665413 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1536449</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 492889 skatt, Trygdeavgift 7.7% gir 186902 skatt  Trinnskatt:308894 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=179930</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 2254043 skatt, Trygdeavgift 7.7% gir 854729 skatt  Trinnskatt:1844028 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1715064</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 502746 skatt, Trygdeavgift 7.7% gir 190641 skatt  Trinnskatt:317487 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=188523</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 2479447 skatt, Trygdeavgift 7.7% gir 940202 skatt  Trinnskatt:2040505 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1911541</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 512801 skatt, Trygdeavgift 7.7% gir 194453 skatt  Trinnskatt:326251 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=197287</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 2727391 skatt, Trygdeavgift 7.7% gir 1034222 skatt  Trinnskatt:2256629 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2127665</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 523057 skatt, Trygdeavgift 7.7% gir 198342 skatt  Trinnskatt:335191 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=206227</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 3000131 skatt, Trygdeavgift 7.7% gir 1137644 skatt  Trinnskatt:2494366 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2365402</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 533518 skatt, Trygdeavgift 7.7% gir 202309 skatt  Trinnskatt:344310 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=215346</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 3300144 skatt, Trygdeavgift 7.7% gir 1251409 skatt  Trinnskatt:2755876 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2626912</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 544189 skatt, Trygdeavgift 7.7% gir 206355 skatt  Trinnskatt:353611 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=224647</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 3630158 skatt, Trygdeavgift 7.7% gir 1376550 skatt  Trinnskatt:3043538 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2914574</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 555072 skatt, Trygdeavgift 7.7% gir 210483 skatt  Trinnskatt:363098 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=234134</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 3993174 skatt, Trygdeavgift 7.7% gir 1514205 skatt  Trinnskatt:3359965 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=3231001</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 566174 skatt, Trygdeavgift 7.7% gir 214692 skatt  Trinnskatt:372774 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=243810</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 4392491 skatt, Trygdeavgift 7.7% gir 1665625 skatt  Trinnskatt:3708036 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=3579072</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 577498 skatt, Trygdeavgift 7.7% gir 218986 skatt  Trinnskatt:382645 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=253681</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 4831741 skatt, Trygdeavgift 7.7% gir 1832188 skatt  Trinnskatt:4090913 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=3961949</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 589047 skatt, Trygdeavgift 7.7% gir 223366 skatt  Trinnskatt:392712 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=263748</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 5314915 skatt, Trygdeavgift 7.7% gir 2015406 skatt  Trinnskatt:4512079 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=4383115</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 600829 skatt, Trygdeavgift 7.7% gir 227833 skatt  Trinnskatt:402982 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=274018</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 5846407 skatt, Trygdeavgift 7.7% gir 2216947 skatt  Trinnskatt:4975361 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=4846397</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 612845 skatt, Trygdeavgift 7.7% gir 232390 skatt  Trinnskatt:413456 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=284492</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 6431047 skatt, Trygdeavgift 7.7% gir 2438642 skatt  Trinnskatt:5484971 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=5356007</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 625102 skatt, Trygdeavgift 7.7% gir 237037 skatt  Trinnskatt:424140 snitt 10%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=295176</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 7074152 skatt, Trygdeavgift 7.7% gir 2682506 skatt  Trinnskatt:6045541 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=5916577</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 637604 skatt, Trygdeavgift 7.7% gir 241778 skatt  Trinnskatt:435037 snitt 10%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=306073</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 7781567 skatt, Trygdeavgift 7.7% gir 2950757 skatt  Trinnskatt:6662169 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=6533205</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 650356 skatt, Trygdeavgift 7.7% gir 246614 skatt  Trinnskatt:446153 snitt 10%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=317189</t>
   </si>
 </sst>
 </file>
@@ -733,11 +733,11 @@
   <cols>
     <col min="1" max="1" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -765,11 +765,11 @@
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="40" max="40" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="6">
@@ -1083,7 +1083,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="9">
-        <v>1815000.0</v>
+        <v>1699500.0</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9">
@@ -1091,10 +1091,10 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
-        <v>708825.0</v>
+        <v>656035.0</v>
       </c>
       <c r="H7" s="10">
-        <v>0.39053719008264</v>
+        <v>0.38601647543395</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="9">
@@ -1155,17 +1155,17 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1106175.0</v>
+        <v>1043465.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1106175.0</v>
+        <v>1043465.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
-        <v>1815000.0</v>
+        <v>1699500.0</v>
       </c>
       <c r="AM7" s="9">
-        <v>9075000.0</v>
+        <v>8497500.0</v>
       </c>
       <c r="AN7" s="9">
         <v>0</v>
@@ -1182,20 +1182,20 @@
         <v>41</v>
       </c>
       <c r="C8" s="5">
-        <v>1996500.0</v>
+        <v>1733490.0</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>791782.0</v>
+        <v>671570.0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.39658502379164</v>
+        <v>0.38740921493634</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="6">
@@ -1256,17 +1256,17 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1204718.0</v>
+        <v>1061920.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>2310893.0</v>
+        <v>2105385.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
-        <v>1996500.0</v>
+        <v>1733490.0</v>
       </c>
       <c r="AM8" s="2">
-        <v>9982500.0</v>
+        <v>8667450.0</v>
       </c>
       <c r="AN8" s="2">
         <v>0</v>
@@ -1283,20 +1283,20 @@
         <v>42</v>
       </c>
       <c r="C9" s="5">
-        <v>2196150.0</v>
+        <v>1768159.8</v>
       </c>
       <c r="D9" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2">
-        <v>883034.0</v>
+        <v>687415.0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.40208273569656</v>
+        <v>0.38877424992922</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="6">
@@ -1357,17 +1357,17 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>1313116.0</v>
+        <v>1080744.8</v>
       </c>
       <c r="AJ9" s="2">
-        <v>3624009.0</v>
+        <v>3186129.8</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
-        <v>2196150.0</v>
+        <v>1768159.8</v>
       </c>
       <c r="AM9" s="2">
-        <v>10980750.0</v>
+        <v>8840799.0</v>
       </c>
       <c r="AN9" s="2">
         <v>0</v>
@@ -1384,20 +1384,20 @@
         <v>43</v>
       </c>
       <c r="C10" s="5">
-        <v>2415765.0</v>
+        <v>1803523.2</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2">
-        <v>983411.0</v>
+        <v>703579.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.40708057282062</v>
+        <v>0.39011363979127</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="6">
@@ -1458,17 +1458,17 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>1432354.0</v>
+        <v>1099944.2</v>
       </c>
       <c r="AJ10" s="2">
-        <v>5056363.0</v>
+        <v>4286074.0</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
-        <v>2415765.0</v>
+        <v>1803523.2</v>
       </c>
       <c r="AM10" s="2">
-        <v>12078825.0</v>
+        <v>9017616.0</v>
       </c>
       <c r="AN10" s="2">
         <v>0</v>
@@ -1485,20 +1485,20 @@
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>2657341.5</v>
+        <v>1839593.46</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
-        <v>1093826.0</v>
+        <v>720066.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.41162417401</v>
+        <v>0.39142670141913</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="6">
@@ -1559,17 +1559,17 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>1563515.5</v>
+        <v>1119527.46</v>
       </c>
       <c r="AJ11" s="2">
-        <v>6619878.5</v>
+        <v>5405601.46</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
-        <v>2657341.5</v>
+        <v>1839593.46</v>
       </c>
       <c r="AM11" s="2">
-        <v>13286707.5</v>
+        <v>9197967.3</v>
       </c>
       <c r="AN11" s="2">
         <v>0</v>
@@ -1586,20 +1586,20 @@
         <v>45</v>
       </c>
       <c r="C12" s="5">
-        <v>2923076.2</v>
+        <v>1876384.86</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="2">
-        <v>1215283.0</v>
+        <v>736881.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.41575481337093</v>
+        <v>0.39271314521265</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="6">
@@ -1660,17 +1660,17 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>1707793.2</v>
+        <v>1139503.86</v>
       </c>
       <c r="AJ12" s="2">
-        <v>8327671.7</v>
+        <v>6545105.32</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
-        <v>2923076.2</v>
+        <v>1876384.86</v>
       </c>
       <c r="AM12" s="2">
-        <v>14615381.0</v>
+        <v>9381924.3</v>
       </c>
       <c r="AN12" s="2">
         <v>0</v>
@@ -1687,20 +1687,20 @@
         <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>3215383.6</v>
+        <v>1913912.7</v>
       </c>
       <c r="D13" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="2">
-        <v>1348884.0</v>
+        <v>754034.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.41950951046712</v>
+        <v>0.39397512749667</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="6">
@@ -1761,17 +1761,17 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>1866499.6</v>
+        <v>1159878.7</v>
       </c>
       <c r="AJ13" s="2">
-        <v>10194171.3</v>
+        <v>7704984.02</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
-        <v>3215383.6</v>
+        <v>1913912.7</v>
       </c>
       <c r="AM13" s="2">
-        <v>16076918.0</v>
+        <v>9569563.5</v>
       </c>
       <c r="AN13" s="2">
         <v>0</v>
@@ -1788,20 +1788,20 @@
         <v>47</v>
       </c>
       <c r="C14" s="5">
-        <v>3536922.4</v>
+        <v>1952191.26</v>
       </c>
       <c r="D14" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>1495846.0</v>
+        <v>771530.0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.42292304744939</v>
+        <v>0.39521230107341</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="6">
@@ -1862,17 +1862,17 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>2041076.4</v>
+        <v>1180661.26</v>
       </c>
       <c r="AJ14" s="2">
-        <v>12235247.7</v>
+        <v>8885645.28</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
-        <v>3536922.4</v>
+        <v>1952191.26</v>
       </c>
       <c r="AM14" s="2">
-        <v>17684612.0</v>
+        <v>9760956.3</v>
       </c>
       <c r="AN14" s="2">
         <v>0</v>
@@ -1889,20 +1889,20 @@
         <v>48</v>
       </c>
       <c r="C15" s="5">
-        <v>3890614.2</v>
+        <v>1991234.82</v>
       </c>
       <c r="D15" s="3">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2">
-        <v>1657505.0</v>
+        <v>789375.0</v>
       </c>
       <c r="H15" s="3">
-        <v>0.42602656413478</v>
+        <v>0.39642486766076</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="6">
@@ -1963,17 +1963,17 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>2233109.2</v>
+        <v>1201859.82</v>
       </c>
       <c r="AJ15" s="2">
-        <v>14468356.9</v>
+        <v>10087505.1</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
-        <v>3890614.2</v>
+        <v>1991234.82</v>
       </c>
       <c r="AM15" s="2">
-        <v>19453071.0</v>
+        <v>9956174.1</v>
       </c>
       <c r="AN15" s="2">
         <v>0</v>
@@ -1990,20 +1990,20 @@
         <v>49</v>
       </c>
       <c r="C16" s="5">
-        <v>4279675.4</v>
+        <v>2031059.7</v>
       </c>
       <c r="D16" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2">
-        <v>1835330.0</v>
+        <v>807578.0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.42884794486984</v>
+        <v>0.39761411247537</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="6">
@@ -2064,17 +2064,17 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>2444345.4</v>
+        <v>1223481.7</v>
       </c>
       <c r="AJ16" s="2">
-        <v>16912702.3</v>
+        <v>11310986.8</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
-        <v>4279675.4</v>
+        <v>2031059.7</v>
       </c>
       <c r="AM16" s="2">
-        <v>21398377.0</v>
+        <v>10155298.5</v>
       </c>
       <c r="AN16" s="2">
         <v>0</v>
@@ -2091,20 +2091,20 @@
         <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>4707642.5</v>
+        <v>2071681.2</v>
       </c>
       <c r="D17" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <v>2030936.0</v>
+        <v>826144.0</v>
       </c>
       <c r="H17" s="3">
-        <v>0.43141253822906</v>
+        <v>0.39877950333285</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="6">
@@ -2165,17 +2165,17 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>2676706.5</v>
+        <v>1245537.2</v>
       </c>
       <c r="AJ17" s="2">
-        <v>19589408.8</v>
+        <v>12556524.0</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
-        <v>4707642.5</v>
+        <v>2071681.2</v>
       </c>
       <c r="AM17" s="2">
-        <v>23538212.5</v>
+        <v>10358406.0</v>
       </c>
       <c r="AN17" s="2">
         <v>0</v>
@@ -2192,20 +2192,20 @@
         <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>5178407.3</v>
+        <v>2113114.62</v>
       </c>
       <c r="D18" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
-        <v>2246103.0</v>
+        <v>845081.0</v>
       </c>
       <c r="H18" s="3">
-        <v>0.43374398147477</v>
+        <v>0.3999219881409</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="6">
@@ -2266,17 +2266,17 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>2932304.3</v>
+        <v>1268033.62</v>
       </c>
       <c r="AJ18" s="2">
-        <v>22521713.1</v>
+        <v>13824557.62</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
-        <v>5178407.3</v>
+        <v>2113114.62</v>
       </c>
       <c r="AM18" s="2">
-        <v>25892036.5</v>
+        <v>10565573.1</v>
       </c>
       <c r="AN18" s="2">
         <v>0</v>
@@ -2293,20 +2293,20 @@
         <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>5696247.7</v>
+        <v>2155377.3</v>
       </c>
       <c r="D19" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>2482788.0</v>
+        <v>864398.0</v>
       </c>
       <c r="H19" s="3">
-        <v>0.43586377046068</v>
+        <v>0.40104254600807</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="6">
@@ -2367,17 +2367,17 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>3213459.7</v>
+        <v>1290979.3</v>
       </c>
       <c r="AJ19" s="2">
-        <v>25735172.8</v>
+        <v>15115536.92</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
-        <v>5696247.7</v>
+        <v>2155377.3</v>
       </c>
       <c r="AM19" s="2">
-        <v>28481238.5</v>
+        <v>10776886.5</v>
       </c>
       <c r="AN19" s="2">
         <v>0</v>
@@ -2394,20 +2394,20 @@
         <v>53</v>
       </c>
       <c r="C20" s="5">
-        <v>6265872.8</v>
+        <v>2198484.54</v>
       </c>
       <c r="D20" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
-        <v>2743141.0</v>
+        <v>884100.0</v>
       </c>
       <c r="H20" s="3">
-        <v>0.43779072565916</v>
+        <v>0.40214064912187</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="6">
@@ -2468,17 +2468,17 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>3522731.8</v>
+        <v>1314384.54</v>
       </c>
       <c r="AJ20" s="2">
-        <v>29257904.6</v>
+        <v>16429921.46</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
-        <v>6265872.8</v>
+        <v>2198484.54</v>
       </c>
       <c r="AM20" s="2">
-        <v>31329364.0</v>
+        <v>10992422.7</v>
       </c>
       <c r="AN20" s="2">
         <v>0</v>
@@ -2495,20 +2495,20 @@
         <v>54</v>
       </c>
       <c r="C21" s="5">
-        <v>6892460.3</v>
+        <v>2242454.7</v>
       </c>
       <c r="D21" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>3029529.0</v>
+        <v>904198.0</v>
       </c>
       <c r="H21" s="3">
-        <v>0.43954246642523</v>
+        <v>0.40321795575179</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="6">
@@ -2569,17 +2569,17 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>3862931.3</v>
+        <v>1338256.7</v>
       </c>
       <c r="AJ21" s="2">
-        <v>33120835.9</v>
+        <v>17768178.16</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
-        <v>6892460.3</v>
+        <v>2242454.7</v>
       </c>
       <c r="AM21" s="2">
-        <v>34462301.5</v>
+        <v>11212273.5</v>
       </c>
       <c r="AN21" s="2">
         <v>0</v>
@@ -2596,20 +2596,20 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>7581706.0</v>
+        <v>2287304.1</v>
       </c>
       <c r="D22" s="14">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13">
-        <v>3344555.0</v>
+        <v>924696.0</v>
       </c>
       <c r="H22" s="14">
-        <v>0.44113488441783</v>
+        <v>0.40427331022578</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V22" s="14"/>
       <c r="W22" s="13">
@@ -2670,17 +2670,17 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>4237151.0</v>
+        <v>1362608.1</v>
       </c>
       <c r="AJ22" s="13">
-        <v>37357986.9</v>
+        <v>19130786.26</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
-        <v>7581706.0</v>
+        <v>2287304.1</v>
       </c>
       <c r="AM22" s="13">
-        <v>37908530.0</v>
+        <v>11436520.5</v>
       </c>
       <c r="AN22" s="13">
         <v>0</v>
@@ -2697,20 +2697,20 @@
         <v>56</v>
       </c>
       <c r="C23" s="5">
-        <v>8339876.6</v>
+        <v>2333050.08</v>
       </c>
       <c r="D23" s="3">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="2">
-        <v>3691084.0</v>
+        <v>945605.0</v>
       </c>
       <c r="H23" s="3">
-        <v>0.4425825677085</v>
+        <v>0.40530848784866</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="6">
@@ -2771,17 +2771,17 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>4648792.6</v>
+        <v>1387445.08</v>
       </c>
       <c r="AJ23" s="2">
-        <v>42006779.5</v>
+        <v>20518231.34</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
-        <v>8339876.6</v>
+        <v>2333050.08</v>
       </c>
       <c r="AM23" s="2">
-        <v>41699383.0</v>
+        <v>11665250.4</v>
       </c>
       <c r="AN23" s="2">
         <v>0</v>
@@ -2798,20 +2798,20 @@
         <v>57</v>
       </c>
       <c r="C24" s="5">
-        <v>9173864.7</v>
+        <v>2379711.0</v>
       </c>
       <c r="D24" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="2">
-        <v>4072268.0</v>
+        <v>966932.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.44389885104802</v>
+        <v>0.40632328883633</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="6">
@@ -2872,17 +2872,17 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>5101596.7</v>
+        <v>1412779.0</v>
       </c>
       <c r="AJ24" s="2">
-        <v>47108376.2</v>
+        <v>21931010.34</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
-        <v>9173864.7</v>
+        <v>2379711.0</v>
       </c>
       <c r="AM24" s="2">
-        <v>45869323.5</v>
+        <v>11898555.0</v>
       </c>
       <c r="AN24" s="2">
         <v>0</v>
@@ -2899,20 +2899,20 @@
         <v>58</v>
       </c>
       <c r="C25" s="5">
-        <v>10091251.5</v>
+        <v>2427305.22</v>
       </c>
       <c r="D25" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2">
-        <v>4491569.0</v>
+        <v>988685.0</v>
       </c>
       <c r="H25" s="3">
-        <v>0.44509533827395</v>
+        <v>0.40731795567102</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="6">
@@ -2973,17 +2973,17 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>5599682.5</v>
+        <v>1438620.22</v>
       </c>
       <c r="AJ25" s="2">
-        <v>52708058.7</v>
+        <v>23369630.56</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
-        <v>10091251.5</v>
+        <v>2427305.22</v>
       </c>
       <c r="AM25" s="2">
-        <v>50456257.5</v>
+        <v>12136526.1</v>
       </c>
       <c r="AN25" s="2">
         <v>0</v>
@@ -3000,20 +3000,20 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>11100377.2</v>
+        <v>2475851.1</v>
       </c>
       <c r="D26" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>4952800.0</v>
+        <v>1010874.0</v>
       </c>
       <c r="H26" s="3">
-        <v>0.44618303601431</v>
+        <v>0.40829353590771</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="6">
@@ -3074,17 +3074,17 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>6147577.2</v>
+        <v>1464977.1</v>
       </c>
       <c r="AJ26" s="2">
-        <v>58855635.9</v>
+        <v>24834607.66</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
-        <v>11100377.2</v>
+        <v>2475851.1</v>
       </c>
       <c r="AM26" s="2">
-        <v>55501886.0</v>
+        <v>12379255.5</v>
       </c>
       <c r="AN26" s="2">
         <v>0</v>
@@ -3101,20 +3101,20 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>12210414.7</v>
+        <v>2525368.02</v>
       </c>
       <c r="D27" s="3">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="2">
-        <v>5460154.0</v>
+        <v>1033505.0</v>
       </c>
       <c r="H27" s="3">
-        <v>0.44717187205771</v>
+        <v>0.40924926260847</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="6">
@@ -3175,17 +3175,17 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>6750260.7</v>
+        <v>1491863.02</v>
       </c>
       <c r="AJ27" s="2">
-        <v>65605896.6</v>
+        <v>26326470.68</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
-        <v>12210414.7</v>
+        <v>2525368.02</v>
       </c>
       <c r="AM27" s="2">
-        <v>61052073.5</v>
+        <v>12626840.1</v>
       </c>
       <c r="AN27" s="2">
         <v>0</v>
@@ -3202,20 +3202,20 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>13431456.5</v>
+        <v>2575875.36</v>
       </c>
       <c r="D28" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
-        <v>6018242.0</v>
+        <v>1056590.0</v>
       </c>
       <c r="H28" s="3">
-        <v>0.44807069136545</v>
+        <v>0.41018677239104</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="6">
@@ -3276,17 +3276,17 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>7413214.5</v>
+        <v>1519285.36</v>
       </c>
       <c r="AJ28" s="2">
-        <v>73019111.1</v>
+        <v>27845756.04</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
-        <v>13431456.5</v>
+        <v>2575875.36</v>
       </c>
       <c r="AM28" s="2">
-        <v>67157282.5</v>
+        <v>12879376.8</v>
       </c>
       <c r="AN28" s="2">
         <v>0</v>
@@ -3303,20 +3303,20 @@
         <v>62</v>
       </c>
       <c r="C29" s="5">
-        <v>14774602.7</v>
+        <v>2627392.5</v>
       </c>
       <c r="D29" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
-        <v>6632141.0</v>
+        <v>1080137.0</v>
       </c>
       <c r="H29" s="3">
-        <v>0.44888794200876</v>
+        <v>0.41110606808842</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="6">
@@ -3377,17 +3377,17 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>8142461.7</v>
+        <v>1547255.5</v>
       </c>
       <c r="AJ29" s="2">
-        <v>81161572.8</v>
+        <v>29393011.54</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
-        <v>14774602.7</v>
+        <v>2627392.5</v>
       </c>
       <c r="AM29" s="2">
-        <v>73873013.5</v>
+        <v>13136962.5</v>
       </c>
       <c r="AN29" s="2">
         <v>0</v>
@@ -3404,20 +3404,20 @@
         <v>63</v>
       </c>
       <c r="C30" s="17">
-        <v>16252063.3</v>
+        <v>2679940.86</v>
       </c>
       <c r="D30" s="18">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E30" s="17">
         <v>0</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>7307429.0</v>
+        <v>1104155.0</v>
       </c>
       <c r="H30" s="18">
-        <v>0.44963084779518</v>
+        <v>0.41200722615946</v>
       </c>
       <c r="I30" s="17">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V30" s="18"/>
       <c r="W30" s="17">
@@ -3478,17 +3478,17 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>8944634.3</v>
+        <v>1575785.86</v>
       </c>
       <c r="AJ30" s="17">
-        <v>90106207.1</v>
+        <v>30968797.4</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
-        <v>16252063.3</v>
+        <v>2679940.86</v>
       </c>
       <c r="AM30" s="17">
-        <v>81260316.5</v>
+        <v>13399704.3</v>
       </c>
       <c r="AN30" s="17">
         <v>0</v>
@@ -3505,20 +3505,20 @@
         <v>64</v>
       </c>
       <c r="C31" s="5">
-        <v>17877269.3</v>
+        <v>2733539.82</v>
       </c>
       <c r="D31" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="2">
-        <v>8050246.0</v>
+        <v>1128653.0</v>
       </c>
       <c r="H31" s="3">
-        <v>0.45030624447773</v>
+        <v>0.41289063789823</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="6">
@@ -3579,17 +3579,17 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>9827023.3</v>
+        <v>1604886.82</v>
       </c>
       <c r="AJ31" s="2">
-        <v>99933230.4</v>
+        <v>32573684.22</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
-        <v>17877269.3</v>
+        <v>2733539.82</v>
       </c>
       <c r="AM31" s="2">
-        <v>89386346.5</v>
+        <v>13667699.1</v>
       </c>
       <c r="AN31" s="2">
         <v>0</v>
@@ -3606,20 +3606,20 @@
         <v>65</v>
       </c>
       <c r="C32" s="5">
-        <v>19664995.9</v>
+        <v>2788210.8</v>
       </c>
       <c r="D32" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2">
-        <v>8867344.0</v>
+        <v>1153640.0</v>
       </c>
       <c r="H32" s="3">
-        <v>0.45092020588725</v>
+        <v>0.41375637738725</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="6">
@@ -3680,17 +3680,17 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>10797651.9</v>
+        <v>1634570.8</v>
       </c>
       <c r="AJ32" s="2">
-        <v>110730882.3</v>
+        <v>34208255.02</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
-        <v>19664995.9</v>
+        <v>2788210.8</v>
       </c>
       <c r="AM32" s="2">
-        <v>98324979.5</v>
+        <v>13941054.0</v>
       </c>
       <c r="AN32" s="2">
         <v>0</v>
@@ -3707,20 +3707,20 @@
         <v>66</v>
       </c>
       <c r="C33" s="5">
-        <v>21631495.6</v>
+        <v>2843975.22</v>
       </c>
       <c r="D33" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="2">
-        <v>9766152.0</v>
+        <v>1179129.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.45147835270345</v>
+        <v>0.41460593316984</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="6">
@@ -3781,17 +3781,17 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>11865343.6</v>
+        <v>1664846.22</v>
       </c>
       <c r="AJ33" s="2">
-        <v>122596225.9</v>
+        <v>35873101.24</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
-        <v>21631495.6</v>
+        <v>2843975.22</v>
       </c>
       <c r="AM33" s="2">
-        <v>108157478.0</v>
+        <v>14219876.1</v>
       </c>
       <c r="AN33" s="2">
         <v>0</v>
@@ -3808,20 +3808,20 @@
         <v>67</v>
       </c>
       <c r="C34" s="17">
-        <v>23794645.6</v>
+        <v>2900854.5</v>
       </c>
       <c r="D34" s="18">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E34" s="17">
         <v>0</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17">
-        <v>10754842.0</v>
+        <v>1205125.0</v>
       </c>
       <c r="H34" s="18">
-        <v>0.45198580305815</v>
+        <v>0.41543793389155</v>
       </c>
       <c r="I34" s="17">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V34" s="18"/>
       <c r="W34" s="17">
@@ -3882,17 +3882,17 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>13039803.6</v>
+        <v>1695729.5</v>
       </c>
       <c r="AJ34" s="17">
-        <v>135636029.5</v>
+        <v>37568830.74</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
-        <v>23794645.6</v>
+        <v>2900854.5</v>
       </c>
       <c r="AM34" s="17">
-        <v>118973228.0</v>
+        <v>14504272.5</v>
       </c>
       <c r="AN34" s="17">
         <v>0</v>
@@ -3909,20 +3909,20 @@
         <v>68</v>
       </c>
       <c r="C35" s="5">
-        <v>26174110.6</v>
+        <v>2958872.1</v>
       </c>
       <c r="D35" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="2">
-        <v>11842400.0</v>
+        <v>1231644.0</v>
       </c>
       <c r="H35" s="3">
-        <v>0.45244708334044</v>
+        <v>0.4162545586205</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="6">
@@ -3983,17 +3983,17 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>14331710.6</v>
+        <v>1727228.1</v>
       </c>
       <c r="AJ35" s="2">
-        <v>149967740.1</v>
+        <v>39296058.84</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
-        <v>26174110.6</v>
+        <v>2958872.1</v>
       </c>
       <c r="AM35" s="2">
-        <v>130870553.0</v>
+        <v>14794360.5</v>
       </c>
       <c r="AN35" s="2">
         <v>0</v>
@@ -4010,20 +4010,20 @@
         <v>69</v>
       </c>
       <c r="C36" s="5">
-        <v>28791522.1</v>
+        <v>3018049.44</v>
       </c>
       <c r="D36" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="2">
-        <v>13038715.0</v>
+        <v>1258691.0</v>
       </c>
       <c r="H36" s="3">
-        <v>0.45286647071709</v>
+        <v>0.4170544668082</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="6">
@@ -4084,17 +4084,17 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>15752807.1</v>
+        <v>1759358.44</v>
       </c>
       <c r="AJ36" s="2">
-        <v>165720547.2</v>
+        <v>41055417.28</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
-        <v>28791522.1</v>
+        <v>3018049.44</v>
       </c>
       <c r="AM36" s="2">
-        <v>143957610.5</v>
+        <v>15090247.2</v>
       </c>
       <c r="AN36" s="2">
         <v>0</v>
@@ -4111,20 +4111,20 @@
         <v>70</v>
       </c>
       <c r="C37" s="5">
-        <v>31670674.2</v>
+        <v>3078409.98</v>
       </c>
       <c r="D37" s="3">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="2">
-        <v>14354660.0</v>
+        <v>1286279.0</v>
       </c>
       <c r="H37" s="3">
-        <v>0.45324769246624</v>
+        <v>0.41783875713657</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="6">
@@ -4185,17 +4185,17 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>17316014.2</v>
+        <v>1792130.98</v>
       </c>
       <c r="AJ37" s="2">
-        <v>183036561.4</v>
+        <v>42847548.26</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
-        <v>31670674.2</v>
+        <v>3078409.98</v>
       </c>
       <c r="AM37" s="2">
-        <v>158353371.0</v>
+        <v>15392049.9</v>
       </c>
       <c r="AN37" s="2">
         <v>0</v>
@@ -4212,20 +4212,20 @@
         <v>71</v>
       </c>
       <c r="C38" s="5">
-        <v>34837741.4</v>
+        <v>3139978.2</v>
       </c>
       <c r="D38" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2">
-        <v>15802199.0</v>
+        <v>1314419.0</v>
       </c>
       <c r="H38" s="3">
-        <v>0.45359424477501</v>
+        <v>0.41860768332723</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="6">
@@ -4286,17 +4286,17 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>19035542.4</v>
+        <v>1825559.2</v>
       </c>
       <c r="AJ38" s="2">
-        <v>202072103.8</v>
+        <v>44673107.46</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
-        <v>34837741.4</v>
+        <v>3139978.2</v>
       </c>
       <c r="AM38" s="2">
-        <v>174188707.0</v>
+        <v>15699891.0</v>
       </c>
       <c r="AN38" s="2">
         <v>0</v>
@@ -4313,20 +4313,20 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>38321515.1</v>
+        <v>3202777.56</v>
       </c>
       <c r="D39" s="3">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="2">
-        <v>17394493.0</v>
+        <v>1343123.0</v>
       </c>
       <c r="H39" s="3">
-        <v>0.45390932364258</v>
+        <v>0.41936193658107</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="6">
@@ -4387,17 +4387,17 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>20927022.1</v>
+        <v>1859654.56</v>
       </c>
       <c r="AJ39" s="2">
-        <v>222999125.9</v>
+        <v>46532762.02</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
-        <v>38321515.1</v>
+        <v>3202777.56</v>
       </c>
       <c r="AM39" s="2">
-        <v>191607575.5</v>
+        <v>16013887.8</v>
       </c>
       <c r="AN39" s="2">
         <v>0</v>
@@ -4563,11 +4563,11 @@
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -4595,11 +4595,11 @@
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="40" max="40" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="6">
@@ -4913,7 +4913,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="9">
-        <v>1815000.0</v>
+        <v>1699500.0</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9">
@@ -4921,10 +4921,10 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
-        <v>708825.0</v>
+        <v>656035.0</v>
       </c>
       <c r="H7" s="10">
-        <v>0.39053719008264</v>
+        <v>0.38601647543395</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="9">
@@ -4985,17 +4985,17 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1106175.0</v>
+        <v>1043465.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1106175.0</v>
+        <v>1043465.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
-        <v>1815000.0</v>
+        <v>1699500.0</v>
       </c>
       <c r="AM7" s="9">
-        <v>9075000.0</v>
+        <v>8497500.0</v>
       </c>
       <c r="AN7" s="9">
         <v>0</v>
@@ -5012,20 +5012,20 @@
         <v>41</v>
       </c>
       <c r="C8" s="5">
-        <v>1996500.0</v>
+        <v>1733490.0</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>791782.0</v>
+        <v>671570.0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.39658502379164</v>
+        <v>0.38740921493634</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="6">
@@ -5086,17 +5086,17 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1204718.0</v>
+        <v>1061920.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>2310893.0</v>
+        <v>2105385.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
-        <v>1996500.0</v>
+        <v>1733490.0</v>
       </c>
       <c r="AM8" s="2">
-        <v>9982500.0</v>
+        <v>8667450.0</v>
       </c>
       <c r="AN8" s="2">
         <v>0</v>
@@ -5113,20 +5113,20 @@
         <v>42</v>
       </c>
       <c r="C9" s="5">
-        <v>2196150.0</v>
+        <v>1768159.8</v>
       </c>
       <c r="D9" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2">
-        <v>883034.0</v>
+        <v>687415.0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.40208273569656</v>
+        <v>0.38877424992922</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="6">
@@ -5187,17 +5187,17 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>1313116.0</v>
+        <v>1080744.8</v>
       </c>
       <c r="AJ9" s="2">
-        <v>3624009.0</v>
+        <v>3186129.8</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
-        <v>2196150.0</v>
+        <v>1768159.8</v>
       </c>
       <c r="AM9" s="2">
-        <v>10980750.0</v>
+        <v>8840799.0</v>
       </c>
       <c r="AN9" s="2">
         <v>0</v>
@@ -5214,20 +5214,20 @@
         <v>43</v>
       </c>
       <c r="C10" s="5">
-        <v>2415765.0</v>
+        <v>1803523.2</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2">
-        <v>983411.0</v>
+        <v>703579.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.40708057282062</v>
+        <v>0.39011363979127</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="6">
@@ -5288,17 +5288,17 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>1432354.0</v>
+        <v>1099944.2</v>
       </c>
       <c r="AJ10" s="2">
-        <v>5056363.0</v>
+        <v>4286074.0</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
-        <v>2415765.0</v>
+        <v>1803523.2</v>
       </c>
       <c r="AM10" s="2">
-        <v>12078825.0</v>
+        <v>9017616.0</v>
       </c>
       <c r="AN10" s="2">
         <v>0</v>
@@ -5315,20 +5315,20 @@
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>2657341.5</v>
+        <v>1839593.46</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
-        <v>1093826.0</v>
+        <v>720066.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.41162417401</v>
+        <v>0.39142670141913</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="6">
@@ -5389,17 +5389,17 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>1563515.5</v>
+        <v>1119527.46</v>
       </c>
       <c r="AJ11" s="2">
-        <v>6619878.5</v>
+        <v>5405601.46</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
-        <v>2657341.5</v>
+        <v>1839593.46</v>
       </c>
       <c r="AM11" s="2">
-        <v>13286707.5</v>
+        <v>9197967.3</v>
       </c>
       <c r="AN11" s="2">
         <v>0</v>
@@ -5416,20 +5416,20 @@
         <v>45</v>
       </c>
       <c r="C12" s="5">
-        <v>2923076.2</v>
+        <v>1876384.86</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="2">
-        <v>1215283.0</v>
+        <v>736881.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.41575481337093</v>
+        <v>0.39271314521265</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="6">
@@ -5490,17 +5490,17 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>1707793.2</v>
+        <v>1139503.86</v>
       </c>
       <c r="AJ12" s="2">
-        <v>8327671.7</v>
+        <v>6545105.32</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
-        <v>2923076.2</v>
+        <v>1876384.86</v>
       </c>
       <c r="AM12" s="2">
-        <v>14615381.0</v>
+        <v>9381924.3</v>
       </c>
       <c r="AN12" s="2">
         <v>0</v>
@@ -5517,20 +5517,20 @@
         <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>3215383.6</v>
+        <v>1913912.7</v>
       </c>
       <c r="D13" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="2">
-        <v>1348884.0</v>
+        <v>754034.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.41950951046712</v>
+        <v>0.39397512749667</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="6">
@@ -5591,17 +5591,17 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>1866499.6</v>
+        <v>1159878.7</v>
       </c>
       <c r="AJ13" s="2">
-        <v>10194171.3</v>
+        <v>7704984.02</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
-        <v>3215383.6</v>
+        <v>1913912.7</v>
       </c>
       <c r="AM13" s="2">
-        <v>16076918.0</v>
+        <v>9569563.5</v>
       </c>
       <c r="AN13" s="2">
         <v>0</v>
@@ -5618,20 +5618,20 @@
         <v>47</v>
       </c>
       <c r="C14" s="5">
-        <v>3536922.4</v>
+        <v>1952191.26</v>
       </c>
       <c r="D14" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>1495846.0</v>
+        <v>771530.0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.42292304744939</v>
+        <v>0.39521230107341</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="6">
@@ -5692,17 +5692,17 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>2041076.4</v>
+        <v>1180661.26</v>
       </c>
       <c r="AJ14" s="2">
-        <v>12235247.7</v>
+        <v>8885645.28</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
-        <v>3536922.4</v>
+        <v>1952191.26</v>
       </c>
       <c r="AM14" s="2">
-        <v>17684612.0</v>
+        <v>9760956.3</v>
       </c>
       <c r="AN14" s="2">
         <v>0</v>
@@ -5719,20 +5719,20 @@
         <v>48</v>
       </c>
       <c r="C15" s="5">
-        <v>3890614.2</v>
+        <v>1991234.82</v>
       </c>
       <c r="D15" s="3">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2">
-        <v>1657505.0</v>
+        <v>789375.0</v>
       </c>
       <c r="H15" s="3">
-        <v>0.42602656413478</v>
+        <v>0.39642486766076</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="6">
@@ -5793,17 +5793,17 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>2233109.2</v>
+        <v>1201859.82</v>
       </c>
       <c r="AJ15" s="2">
-        <v>14468356.9</v>
+        <v>10087505.1</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
-        <v>3890614.2</v>
+        <v>1991234.82</v>
       </c>
       <c r="AM15" s="2">
-        <v>19453071.0</v>
+        <v>9956174.1</v>
       </c>
       <c r="AN15" s="2">
         <v>0</v>
@@ -5820,20 +5820,20 @@
         <v>49</v>
       </c>
       <c r="C16" s="5">
-        <v>4279675.4</v>
+        <v>2031059.7</v>
       </c>
       <c r="D16" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2">
-        <v>1835330.0</v>
+        <v>807578.0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.42884794486984</v>
+        <v>0.39761411247537</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="6">
@@ -5894,17 +5894,17 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>2444345.4</v>
+        <v>1223481.7</v>
       </c>
       <c r="AJ16" s="2">
-        <v>16912702.3</v>
+        <v>11310986.8</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
-        <v>4279675.4</v>
+        <v>2031059.7</v>
       </c>
       <c r="AM16" s="2">
-        <v>21398377.0</v>
+        <v>10155298.5</v>
       </c>
       <c r="AN16" s="2">
         <v>0</v>
@@ -5921,20 +5921,20 @@
         <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>4707642.5</v>
+        <v>2071681.2</v>
       </c>
       <c r="D17" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <v>2030936.0</v>
+        <v>826144.0</v>
       </c>
       <c r="H17" s="3">
-        <v>0.43141253822906</v>
+        <v>0.39877950333285</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="6">
@@ -5995,17 +5995,17 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>2676706.5</v>
+        <v>1245537.2</v>
       </c>
       <c r="AJ17" s="2">
-        <v>19589408.8</v>
+        <v>12556524.0</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
-        <v>4707642.5</v>
+        <v>2071681.2</v>
       </c>
       <c r="AM17" s="2">
-        <v>23538212.5</v>
+        <v>10358406.0</v>
       </c>
       <c r="AN17" s="2">
         <v>0</v>
@@ -6022,20 +6022,20 @@
         <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>5178407.3</v>
+        <v>2113114.62</v>
       </c>
       <c r="D18" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
-        <v>2246103.0</v>
+        <v>845081.0</v>
       </c>
       <c r="H18" s="3">
-        <v>0.43374398147477</v>
+        <v>0.3999219881409</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="6">
@@ -6096,17 +6096,17 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>2932304.3</v>
+        <v>1268033.62</v>
       </c>
       <c r="AJ18" s="2">
-        <v>22521713.1</v>
+        <v>13824557.62</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
-        <v>5178407.3</v>
+        <v>2113114.62</v>
       </c>
       <c r="AM18" s="2">
-        <v>25892036.5</v>
+        <v>10565573.1</v>
       </c>
       <c r="AN18" s="2">
         <v>0</v>
@@ -6123,20 +6123,20 @@
         <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>5696247.7</v>
+        <v>2155377.3</v>
       </c>
       <c r="D19" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>2482788.0</v>
+        <v>864398.0</v>
       </c>
       <c r="H19" s="3">
-        <v>0.43586377046068</v>
+        <v>0.40104254600807</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="6">
@@ -6197,17 +6197,17 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>3213459.7</v>
+        <v>1290979.3</v>
       </c>
       <c r="AJ19" s="2">
-        <v>25735172.8</v>
+        <v>15115536.92</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
-        <v>5696247.7</v>
+        <v>2155377.3</v>
       </c>
       <c r="AM19" s="2">
-        <v>28481238.5</v>
+        <v>10776886.5</v>
       </c>
       <c r="AN19" s="2">
         <v>0</v>
@@ -6224,20 +6224,20 @@
         <v>53</v>
       </c>
       <c r="C20" s="5">
-        <v>6265872.8</v>
+        <v>2198484.54</v>
       </c>
       <c r="D20" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
-        <v>2743141.0</v>
+        <v>884100.0</v>
       </c>
       <c r="H20" s="3">
-        <v>0.43779072565916</v>
+        <v>0.40214064912187</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="6">
@@ -6298,17 +6298,17 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>3522731.8</v>
+        <v>1314384.54</v>
       </c>
       <c r="AJ20" s="2">
-        <v>29257904.6</v>
+        <v>16429921.46</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
-        <v>6265872.8</v>
+        <v>2198484.54</v>
       </c>
       <c r="AM20" s="2">
-        <v>31329364.0</v>
+        <v>10992422.7</v>
       </c>
       <c r="AN20" s="2">
         <v>0</v>
@@ -6325,20 +6325,20 @@
         <v>54</v>
       </c>
       <c r="C21" s="5">
-        <v>6892460.3</v>
+        <v>2242454.7</v>
       </c>
       <c r="D21" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>3029529.0</v>
+        <v>904198.0</v>
       </c>
       <c r="H21" s="3">
-        <v>0.43954246642523</v>
+        <v>0.40321795575179</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="6">
@@ -6399,17 +6399,17 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>3862931.3</v>
+        <v>1338256.7</v>
       </c>
       <c r="AJ21" s="2">
-        <v>33120835.9</v>
+        <v>17768178.16</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
-        <v>6892460.3</v>
+        <v>2242454.7</v>
       </c>
       <c r="AM21" s="2">
-        <v>34462301.5</v>
+        <v>11212273.5</v>
       </c>
       <c r="AN21" s="2">
         <v>0</v>
@@ -6426,20 +6426,20 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>7581706.0</v>
+        <v>2287304.1</v>
       </c>
       <c r="D22" s="14">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13">
-        <v>3344555.0</v>
+        <v>924696.0</v>
       </c>
       <c r="H22" s="14">
-        <v>0.44113488441783</v>
+        <v>0.40427331022578</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V22" s="14"/>
       <c r="W22" s="13">
@@ -6500,17 +6500,17 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>4237151.0</v>
+        <v>1362608.1</v>
       </c>
       <c r="AJ22" s="13">
-        <v>37357986.9</v>
+        <v>19130786.26</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
-        <v>7581706.0</v>
+        <v>2287304.1</v>
       </c>
       <c r="AM22" s="13">
-        <v>37908530.0</v>
+        <v>11436520.5</v>
       </c>
       <c r="AN22" s="13">
         <v>0</v>
@@ -6527,20 +6527,20 @@
         <v>56</v>
       </c>
       <c r="C23" s="5">
-        <v>8339876.6</v>
+        <v>2333050.08</v>
       </c>
       <c r="D23" s="3">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="2">
-        <v>3691084.0</v>
+        <v>945605.0</v>
       </c>
       <c r="H23" s="3">
-        <v>0.4425825677085</v>
+        <v>0.40530848784866</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="6">
@@ -6601,17 +6601,17 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>4648792.6</v>
+        <v>1387445.08</v>
       </c>
       <c r="AJ23" s="2">
-        <v>42006779.5</v>
+        <v>20518231.34</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
-        <v>8339876.6</v>
+        <v>2333050.08</v>
       </c>
       <c r="AM23" s="2">
-        <v>41699383.0</v>
+        <v>11665250.4</v>
       </c>
       <c r="AN23" s="2">
         <v>0</v>
@@ -6628,20 +6628,20 @@
         <v>57</v>
       </c>
       <c r="C24" s="5">
-        <v>9173864.7</v>
+        <v>2379711.0</v>
       </c>
       <c r="D24" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="2">
-        <v>4072268.0</v>
+        <v>966932.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.44389885104802</v>
+        <v>0.40632328883633</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="6">
@@ -6702,17 +6702,17 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>5101596.7</v>
+        <v>1412779.0</v>
       </c>
       <c r="AJ24" s="2">
-        <v>47108376.2</v>
+        <v>21931010.34</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
-        <v>9173864.7</v>
+        <v>2379711.0</v>
       </c>
       <c r="AM24" s="2">
-        <v>45869323.5</v>
+        <v>11898555.0</v>
       </c>
       <c r="AN24" s="2">
         <v>0</v>
@@ -6729,20 +6729,20 @@
         <v>58</v>
       </c>
       <c r="C25" s="5">
-        <v>10091251.5</v>
+        <v>2427305.22</v>
       </c>
       <c r="D25" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2">
-        <v>4491569.0</v>
+        <v>988685.0</v>
       </c>
       <c r="H25" s="3">
-        <v>0.44509533827395</v>
+        <v>0.40731795567102</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="6">
@@ -6803,17 +6803,17 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>5599682.5</v>
+        <v>1438620.22</v>
       </c>
       <c r="AJ25" s="2">
-        <v>52708058.7</v>
+        <v>23369630.56</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
-        <v>10091251.5</v>
+        <v>2427305.22</v>
       </c>
       <c r="AM25" s="2">
-        <v>50456257.5</v>
+        <v>12136526.1</v>
       </c>
       <c r="AN25" s="2">
         <v>0</v>
@@ -6830,20 +6830,20 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>11100377.2</v>
+        <v>2475851.1</v>
       </c>
       <c r="D26" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>4952800.0</v>
+        <v>1010874.0</v>
       </c>
       <c r="H26" s="3">
-        <v>0.44618303601431</v>
+        <v>0.40829353590771</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="6">
@@ -6904,17 +6904,17 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>6147577.2</v>
+        <v>1464977.1</v>
       </c>
       <c r="AJ26" s="2">
-        <v>58855635.9</v>
+        <v>24834607.66</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
-        <v>11100377.2</v>
+        <v>2475851.1</v>
       </c>
       <c r="AM26" s="2">
-        <v>55501886.0</v>
+        <v>12379255.5</v>
       </c>
       <c r="AN26" s="2">
         <v>0</v>
@@ -6931,20 +6931,20 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>12210414.7</v>
+        <v>2525368.02</v>
       </c>
       <c r="D27" s="3">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="2">
-        <v>5460154.0</v>
+        <v>1033505.0</v>
       </c>
       <c r="H27" s="3">
-        <v>0.44717187205771</v>
+        <v>0.40924926260847</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="6">
@@ -7005,17 +7005,17 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>6750260.7</v>
+        <v>1491863.02</v>
       </c>
       <c r="AJ27" s="2">
-        <v>65605896.6</v>
+        <v>26326470.68</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
-        <v>12210414.7</v>
+        <v>2525368.02</v>
       </c>
       <c r="AM27" s="2">
-        <v>61052073.5</v>
+        <v>12626840.1</v>
       </c>
       <c r="AN27" s="2">
         <v>0</v>
@@ -7032,20 +7032,20 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>13431456.5</v>
+        <v>2575875.36</v>
       </c>
       <c r="D28" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
-        <v>6018242.0</v>
+        <v>1056590.0</v>
       </c>
       <c r="H28" s="3">
-        <v>0.44807069136545</v>
+        <v>0.41018677239104</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="6">
@@ -7106,17 +7106,17 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>7413214.5</v>
+        <v>1519285.36</v>
       </c>
       <c r="AJ28" s="2">
-        <v>73019111.1</v>
+        <v>27845756.04</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
-        <v>13431456.5</v>
+        <v>2575875.36</v>
       </c>
       <c r="AM28" s="2">
-        <v>67157282.5</v>
+        <v>12879376.8</v>
       </c>
       <c r="AN28" s="2">
         <v>0</v>
@@ -7133,20 +7133,20 @@
         <v>62</v>
       </c>
       <c r="C29" s="5">
-        <v>14774602.7</v>
+        <v>2627392.5</v>
       </c>
       <c r="D29" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
-        <v>6632141.0</v>
+        <v>1080137.0</v>
       </c>
       <c r="H29" s="3">
-        <v>0.44888794200876</v>
+        <v>0.41110606808842</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="6">
@@ -7207,17 +7207,17 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>8142461.7</v>
+        <v>1547255.5</v>
       </c>
       <c r="AJ29" s="2">
-        <v>81161572.8</v>
+        <v>29393011.54</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
-        <v>14774602.7</v>
+        <v>2627392.5</v>
       </c>
       <c r="AM29" s="2">
-        <v>73873013.5</v>
+        <v>13136962.5</v>
       </c>
       <c r="AN29" s="2">
         <v>0</v>
@@ -7234,20 +7234,20 @@
         <v>63</v>
       </c>
       <c r="C30" s="17">
-        <v>16252063.3</v>
+        <v>2679940.86</v>
       </c>
       <c r="D30" s="18">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E30" s="17">
         <v>0</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>7307429.0</v>
+        <v>1104155.0</v>
       </c>
       <c r="H30" s="18">
-        <v>0.44963084779518</v>
+        <v>0.41200722615946</v>
       </c>
       <c r="I30" s="17">
         <v>0</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V30" s="18"/>
       <c r="W30" s="17">
@@ -7308,17 +7308,17 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>8944634.3</v>
+        <v>1575785.86</v>
       </c>
       <c r="AJ30" s="17">
-        <v>90106207.1</v>
+        <v>30968797.4</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
-        <v>16252063.3</v>
+        <v>2679940.86</v>
       </c>
       <c r="AM30" s="17">
-        <v>81260316.5</v>
+        <v>13399704.3</v>
       </c>
       <c r="AN30" s="17">
         <v>0</v>
@@ -7335,20 +7335,20 @@
         <v>64</v>
       </c>
       <c r="C31" s="5">
-        <v>17877269.3</v>
+        <v>2733539.82</v>
       </c>
       <c r="D31" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="2">
-        <v>8050246.0</v>
+        <v>1128653.0</v>
       </c>
       <c r="H31" s="3">
-        <v>0.45030624447773</v>
+        <v>0.41289063789823</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="6">
@@ -7409,17 +7409,17 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>9827023.3</v>
+        <v>1604886.82</v>
       </c>
       <c r="AJ31" s="2">
-        <v>99933230.4</v>
+        <v>32573684.22</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
-        <v>17877269.3</v>
+        <v>2733539.82</v>
       </c>
       <c r="AM31" s="2">
-        <v>89386346.5</v>
+        <v>13667699.1</v>
       </c>
       <c r="AN31" s="2">
         <v>0</v>
@@ -7436,20 +7436,20 @@
         <v>65</v>
       </c>
       <c r="C32" s="5">
-        <v>19664995.9</v>
+        <v>2788210.8</v>
       </c>
       <c r="D32" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2">
-        <v>8867344.0</v>
+        <v>1153640.0</v>
       </c>
       <c r="H32" s="3">
-        <v>0.45092020588725</v>
+        <v>0.41375637738725</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="6">
@@ -7510,17 +7510,17 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>10797651.9</v>
+        <v>1634570.8</v>
       </c>
       <c r="AJ32" s="2">
-        <v>110730882.3</v>
+        <v>34208255.02</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
-        <v>19664995.9</v>
+        <v>2788210.8</v>
       </c>
       <c r="AM32" s="2">
-        <v>98324979.5</v>
+        <v>13941054.0</v>
       </c>
       <c r="AN32" s="2">
         <v>0</v>
@@ -7537,20 +7537,20 @@
         <v>66</v>
       </c>
       <c r="C33" s="5">
-        <v>21631495.6</v>
+        <v>2843975.22</v>
       </c>
       <c r="D33" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="2">
-        <v>9766152.0</v>
+        <v>1179129.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.45147835270345</v>
+        <v>0.41460593316984</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="6">
@@ -7611,17 +7611,17 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>11865343.6</v>
+        <v>1664846.22</v>
       </c>
       <c r="AJ33" s="2">
-        <v>122596225.9</v>
+        <v>35873101.24</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
-        <v>21631495.6</v>
+        <v>2843975.22</v>
       </c>
       <c r="AM33" s="2">
-        <v>108157478.0</v>
+        <v>14219876.1</v>
       </c>
       <c r="AN33" s="2">
         <v>0</v>
@@ -7638,20 +7638,20 @@
         <v>67</v>
       </c>
       <c r="C34" s="17">
-        <v>23794645.6</v>
+        <v>2900854.5</v>
       </c>
       <c r="D34" s="18">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E34" s="17">
         <v>0</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17">
-        <v>10754842.0</v>
+        <v>1205125.0</v>
       </c>
       <c r="H34" s="18">
-        <v>0.45198580305815</v>
+        <v>0.41543793389155</v>
       </c>
       <c r="I34" s="17">
         <v>0</v>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V34" s="18"/>
       <c r="W34" s="17">
@@ -7712,17 +7712,17 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>13039803.6</v>
+        <v>1695729.5</v>
       </c>
       <c r="AJ34" s="17">
-        <v>135636029.5</v>
+        <v>37568830.74</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
-        <v>23794645.6</v>
+        <v>2900854.5</v>
       </c>
       <c r="AM34" s="17">
-        <v>118973228.0</v>
+        <v>14504272.5</v>
       </c>
       <c r="AN34" s="17">
         <v>0</v>
@@ -7739,20 +7739,20 @@
         <v>68</v>
       </c>
       <c r="C35" s="5">
-        <v>26174110.6</v>
+        <v>2958872.1</v>
       </c>
       <c r="D35" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="2">
-        <v>11842400.0</v>
+        <v>1231644.0</v>
       </c>
       <c r="H35" s="3">
-        <v>0.45244708334044</v>
+        <v>0.4162545586205</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="6">
@@ -7813,17 +7813,17 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>14331710.6</v>
+        <v>1727228.1</v>
       </c>
       <c r="AJ35" s="2">
-        <v>149967740.1</v>
+        <v>39296058.84</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
-        <v>26174110.6</v>
+        <v>2958872.1</v>
       </c>
       <c r="AM35" s="2">
-        <v>130870553.0</v>
+        <v>14794360.5</v>
       </c>
       <c r="AN35" s="2">
         <v>0</v>
@@ -7840,20 +7840,20 @@
         <v>69</v>
       </c>
       <c r="C36" s="5">
-        <v>28791522.1</v>
+        <v>3018049.44</v>
       </c>
       <c r="D36" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="2">
-        <v>13038715.0</v>
+        <v>1258691.0</v>
       </c>
       <c r="H36" s="3">
-        <v>0.45286647071709</v>
+        <v>0.4170544668082</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="6">
@@ -7914,17 +7914,17 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>15752807.1</v>
+        <v>1759358.44</v>
       </c>
       <c r="AJ36" s="2">
-        <v>165720547.2</v>
+        <v>41055417.28</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
-        <v>28791522.1</v>
+        <v>3018049.44</v>
       </c>
       <c r="AM36" s="2">
-        <v>143957610.5</v>
+        <v>15090247.2</v>
       </c>
       <c r="AN36" s="2">
         <v>0</v>
@@ -7941,20 +7941,20 @@
         <v>70</v>
       </c>
       <c r="C37" s="5">
-        <v>31670674.2</v>
+        <v>3078409.98</v>
       </c>
       <c r="D37" s="3">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="2">
-        <v>14354660.0</v>
+        <v>1286279.0</v>
       </c>
       <c r="H37" s="3">
-        <v>0.45324769246624</v>
+        <v>0.41783875713657</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="6">
@@ -8015,17 +8015,17 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>17316014.2</v>
+        <v>1792130.98</v>
       </c>
       <c r="AJ37" s="2">
-        <v>183036561.4</v>
+        <v>42847548.26</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
-        <v>31670674.2</v>
+        <v>3078409.98</v>
       </c>
       <c r="AM37" s="2">
-        <v>158353371.0</v>
+        <v>15392049.9</v>
       </c>
       <c r="AN37" s="2">
         <v>0</v>
@@ -8042,20 +8042,20 @@
         <v>71</v>
       </c>
       <c r="C38" s="5">
-        <v>34837741.4</v>
+        <v>3139978.2</v>
       </c>
       <c r="D38" s="3">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2">
-        <v>15802199.0</v>
+        <v>1314419.0</v>
       </c>
       <c r="H38" s="3">
-        <v>0.45359424477501</v>
+        <v>0.41860768332723</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="6">
@@ -8116,17 +8116,17 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>19035542.4</v>
+        <v>1825559.2</v>
       </c>
       <c r="AJ38" s="2">
-        <v>202072103.8</v>
+        <v>44673107.46</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
-        <v>34837741.4</v>
+        <v>3139978.2</v>
       </c>
       <c r="AM38" s="2">
-        <v>174188707.0</v>
+        <v>15699891.0</v>
       </c>
       <c r="AN38" s="2">
         <v>0</v>
@@ -8143,20 +8143,20 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>38321515.1</v>
+        <v>3202777.56</v>
       </c>
       <c r="D39" s="3">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="2">
-        <v>17394493.0</v>
+        <v>1343123.0</v>
       </c>
       <c r="H39" s="3">
-        <v>0.45390932364258</v>
+        <v>0.41936193658107</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="6">
@@ -8217,17 +8217,17 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>20927022.1</v>
+        <v>1859654.56</v>
       </c>
       <c r="AJ39" s="2">
-        <v>222999125.9</v>
+        <v>46532762.02</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
-        <v>38321515.1</v>
+        <v>3202777.56</v>
       </c>
       <c r="AM39" s="2">
-        <v>191607575.5</v>
+        <v>16013887.8</v>
       </c>
       <c r="AN39" s="2">
         <v>0</v>
@@ -8668,7 +8668,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="6">
@@ -8727,7 +8727,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="9">
@@ -8786,7 +8786,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="6">
@@ -8845,7 +8845,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="6">
@@ -8904,7 +8904,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="6">
@@ -8963,7 +8963,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="6">
@@ -9022,7 +9022,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="6">
@@ -9081,7 +9081,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="6">
@@ -9140,7 +9140,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="6">
@@ -9199,7 +9199,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="6">
@@ -9258,7 +9258,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="6">
@@ -9317,7 +9317,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="6">
@@ -9376,7 +9376,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="6">
@@ -9435,7 +9435,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="6">
@@ -9494,7 +9494,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="6">
@@ -9553,7 +9553,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="6">
@@ -9612,7 +9612,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V22" s="14"/>
       <c r="W22" s="13">
@@ -9671,7 +9671,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="6">
@@ -9730,7 +9730,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="6">
@@ -9789,7 +9789,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="6">
@@ -9848,7 +9848,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="6">
@@ -9907,7 +9907,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="6">
@@ -9966,7 +9966,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="6">
@@ -10025,7 +10025,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="6">
@@ -10084,7 +10084,7 @@
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V30" s="18"/>
       <c r="W30" s="17">
@@ -10143,7 +10143,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="6">
@@ -10202,7 +10202,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="6">
@@ -10261,7 +10261,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="6">
@@ -10320,7 +10320,7 @@
       <c r="S34" s="17"/>
       <c r="T34" s="17"/>
       <c r="U34" s="17">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V34" s="18"/>
       <c r="W34" s="17">
@@ -10379,7 +10379,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="6">
@@ -10438,7 +10438,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="6">
@@ -10497,7 +10497,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="6">
@@ -10556,7 +10556,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="6">
@@ -10615,7 +10615,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="6">
@@ -10801,11 +10801,11 @@
   <cols>
     <col min="1" max="1" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -10833,11 +10833,11 @@
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="40" max="40" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="6"/>
@@ -11129,15 +11129,15 @@
         <v>40</v>
       </c>
       <c r="C7" s="9">
-        <v>1815000.0</v>
+        <v>1699500.0</v>
       </c>
       <c r="D7" s="10">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
-        <v>708825.0</v>
+        <v>656035.0</v>
       </c>
       <c r="H7" s="10">
         <v>0.39</v>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="10"/>
       <c r="Y7" s="9"/>
@@ -11179,17 +11179,17 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1106175.0</v>
+        <v>1043465.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1106175.0</v>
+        <v>1043465.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
-        <v>1815000.0</v>
+        <v>1699500.0</v>
       </c>
       <c r="AM7" s="9">
-        <v>9075000.0</v>
+        <v>8497500.0</v>
       </c>
       <c r="AN7" s="9">
         <v>0</v>
@@ -11208,18 +11208,18 @@
         <v>41</v>
       </c>
       <c r="C8" s="5">
-        <v>1996500.0</v>
+        <v>1733490.0</v>
       </c>
       <c r="D8" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>791782.0</v>
+        <v>671570.0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="6"/>
@@ -11258,17 +11258,17 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1204718.0</v>
+        <v>1061920.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>2310893.0</v>
+        <v>2105385.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
-        <v>1996500.0</v>
+        <v>1733490.0</v>
       </c>
       <c r="AM8" s="2">
-        <v>9982500.0</v>
+        <v>8667450.0</v>
       </c>
       <c r="AN8" s="2">
         <v>0</v>
@@ -11287,18 +11287,18 @@
         <v>42</v>
       </c>
       <c r="C9" s="5">
-        <v>2196150.0</v>
+        <v>1768159.8</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2">
-        <v>883034.0</v>
+        <v>687415.0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
@@ -11323,7 +11323,7 @@
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="6"/>
@@ -11337,17 +11337,17 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>1313116.0</v>
+        <v>1080744.8</v>
       </c>
       <c r="AJ9" s="2">
-        <v>3624009.0</v>
+        <v>3186129.8</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
-        <v>2196150.0</v>
+        <v>1768159.8</v>
       </c>
       <c r="AM9" s="2">
-        <v>10980750.0</v>
+        <v>8840799.0</v>
       </c>
       <c r="AN9" s="2">
         <v>0</v>
@@ -11366,18 +11366,18 @@
         <v>43</v>
       </c>
       <c r="C10" s="5">
-        <v>2415765.0</v>
+        <v>1803523.2</v>
       </c>
       <c r="D10" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
       <c r="G10" s="2">
-        <v>983411.0</v>
+        <v>703579.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="6"/>
@@ -11416,17 +11416,17 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>1432354.0</v>
+        <v>1099944.2</v>
       </c>
       <c r="AJ10" s="2">
-        <v>5056363.0</v>
+        <v>4286074.0</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
-        <v>2415765.0</v>
+        <v>1803523.2</v>
       </c>
       <c r="AM10" s="2">
-        <v>12078825.0</v>
+        <v>9017616.0</v>
       </c>
       <c r="AN10" s="2">
         <v>0</v>
@@ -11445,18 +11445,18 @@
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>2657341.5</v>
+        <v>1839593.46</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
-        <v>1093826.0</v>
+        <v>720066.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="6"/>
@@ -11495,17 +11495,17 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>1563515.5</v>
+        <v>1119527.46</v>
       </c>
       <c r="AJ11" s="2">
-        <v>6619878.5</v>
+        <v>5405601.46</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
-        <v>2657341.5</v>
+        <v>1839593.46</v>
       </c>
       <c r="AM11" s="2">
-        <v>13286707.5</v>
+        <v>9197967.3</v>
       </c>
       <c r="AN11" s="2">
         <v>0</v>
@@ -11524,18 +11524,18 @@
         <v>45</v>
       </c>
       <c r="C12" s="5">
-        <v>2923076.2</v>
+        <v>1876384.86</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2">
-        <v>1215283.0</v>
+        <v>736881.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="6"/>
@@ -11574,17 +11574,17 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>1707793.2</v>
+        <v>1139503.86</v>
       </c>
       <c r="AJ12" s="2">
-        <v>8327671.7</v>
+        <v>6545105.32</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
-        <v>2923076.2</v>
+        <v>1876384.86</v>
       </c>
       <c r="AM12" s="2">
-        <v>14615381.0</v>
+        <v>9381924.3</v>
       </c>
       <c r="AN12" s="2">
         <v>0</v>
@@ -11603,18 +11603,18 @@
         <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>3215383.6</v>
+        <v>1913912.7</v>
       </c>
       <c r="D13" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2">
-        <v>1348884.0</v>
+        <v>754034.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="6"/>
@@ -11653,17 +11653,17 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>1866499.6</v>
+        <v>1159878.7</v>
       </c>
       <c r="AJ13" s="2">
-        <v>10194171.3</v>
+        <v>7704984.02</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
-        <v>3215383.6</v>
+        <v>1913912.7</v>
       </c>
       <c r="AM13" s="2">
-        <v>16076918.0</v>
+        <v>9569563.5</v>
       </c>
       <c r="AN13" s="2">
         <v>0</v>
@@ -11682,18 +11682,18 @@
         <v>47</v>
       </c>
       <c r="C14" s="5">
-        <v>3536922.4</v>
+        <v>1952191.26</v>
       </c>
       <c r="D14" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>1495846.0</v>
+        <v>771530.0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="6"/>
@@ -11732,17 +11732,17 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>2041076.4</v>
+        <v>1180661.26</v>
       </c>
       <c r="AJ14" s="2">
-        <v>12235247.7</v>
+        <v>8885645.28</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
-        <v>3536922.4</v>
+        <v>1952191.26</v>
       </c>
       <c r="AM14" s="2">
-        <v>17684612.0</v>
+        <v>9760956.3</v>
       </c>
       <c r="AN14" s="2">
         <v>0</v>
@@ -11761,18 +11761,18 @@
         <v>48</v>
       </c>
       <c r="C15" s="5">
-        <v>3890614.2</v>
+        <v>1991234.82</v>
       </c>
       <c r="D15" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2">
-        <v>1657505.0</v>
+        <v>789375.0</v>
       </c>
       <c r="H15" s="3">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="6"/>
@@ -11811,17 +11811,17 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>2233109.2</v>
+        <v>1201859.82</v>
       </c>
       <c r="AJ15" s="2">
-        <v>14468356.9</v>
+        <v>10087505.1</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
-        <v>3890614.2</v>
+        <v>1991234.82</v>
       </c>
       <c r="AM15" s="2">
-        <v>19453071.0</v>
+        <v>9956174.1</v>
       </c>
       <c r="AN15" s="2">
         <v>0</v>
@@ -11840,18 +11840,18 @@
         <v>49</v>
       </c>
       <c r="C16" s="5">
-        <v>4279675.4</v>
+        <v>2031059.7</v>
       </c>
       <c r="D16" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="3"/>
       <c r="G16" s="2">
-        <v>1835330.0</v>
+        <v>807578.0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
@@ -11876,7 +11876,7 @@
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="6"/>
@@ -11890,17 +11890,17 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>2444345.4</v>
+        <v>1223481.7</v>
       </c>
       <c r="AJ16" s="2">
-        <v>16912702.3</v>
+        <v>11310986.8</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
-        <v>4279675.4</v>
+        <v>2031059.7</v>
       </c>
       <c r="AM16" s="2">
-        <v>21398377.0</v>
+        <v>10155298.5</v>
       </c>
       <c r="AN16" s="2">
         <v>0</v>
@@ -11919,18 +11919,18 @@
         <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>4707642.5</v>
+        <v>2071681.2</v>
       </c>
       <c r="D17" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <v>2030936.0</v>
+        <v>826144.0</v>
       </c>
       <c r="H17" s="3">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="6"/>
@@ -11969,17 +11969,17 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>2676706.5</v>
+        <v>1245537.2</v>
       </c>
       <c r="AJ17" s="2">
-        <v>19589408.8</v>
+        <v>12556524.0</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
-        <v>4707642.5</v>
+        <v>2071681.2</v>
       </c>
       <c r="AM17" s="2">
-        <v>23538212.5</v>
+        <v>10358406.0</v>
       </c>
       <c r="AN17" s="2">
         <v>0</v>
@@ -11998,18 +11998,18 @@
         <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>5178407.3</v>
+        <v>2113114.62</v>
       </c>
       <c r="D18" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
-        <v>2246103.0</v>
+        <v>845081.0</v>
       </c>
       <c r="H18" s="3">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="6"/>
@@ -12048,17 +12048,17 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>2932304.3</v>
+        <v>1268033.62</v>
       </c>
       <c r="AJ18" s="2">
-        <v>22521713.1</v>
+        <v>13824557.62</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
-        <v>5178407.3</v>
+        <v>2113114.62</v>
       </c>
       <c r="AM18" s="2">
-        <v>25892036.5</v>
+        <v>10565573.1</v>
       </c>
       <c r="AN18" s="2">
         <v>0</v>
@@ -12077,18 +12077,18 @@
         <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>5696247.7</v>
+        <v>2155377.3</v>
       </c>
       <c r="D19" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>2482788.0</v>
+        <v>864398.0</v>
       </c>
       <c r="H19" s="3">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="6"/>
@@ -12127,17 +12127,17 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>3213459.7</v>
+        <v>1290979.3</v>
       </c>
       <c r="AJ19" s="2">
-        <v>25735172.8</v>
+        <v>15115536.92</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
-        <v>5696247.7</v>
+        <v>2155377.3</v>
       </c>
       <c r="AM19" s="2">
-        <v>28481238.5</v>
+        <v>10776886.5</v>
       </c>
       <c r="AN19" s="2">
         <v>0</v>
@@ -12156,18 +12156,18 @@
         <v>53</v>
       </c>
       <c r="C20" s="5">
-        <v>6265872.8</v>
+        <v>2198484.54</v>
       </c>
       <c r="D20" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
-        <v>2743141.0</v>
+        <v>884100.0</v>
       </c>
       <c r="H20" s="3">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="6"/>
@@ -12206,17 +12206,17 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>3522731.8</v>
+        <v>1314384.54</v>
       </c>
       <c r="AJ20" s="2">
-        <v>29257904.6</v>
+        <v>16429921.46</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
-        <v>6265872.8</v>
+        <v>2198484.54</v>
       </c>
       <c r="AM20" s="2">
-        <v>31329364.0</v>
+        <v>10992422.7</v>
       </c>
       <c r="AN20" s="2">
         <v>0</v>
@@ -12235,18 +12235,18 @@
         <v>54</v>
       </c>
       <c r="C21" s="5">
-        <v>6892460.3</v>
+        <v>2242454.7</v>
       </c>
       <c r="D21" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>3029529.0</v>
+        <v>904198.0</v>
       </c>
       <c r="H21" s="3">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="6"/>
@@ -12285,17 +12285,17 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>3862931.3</v>
+        <v>1338256.7</v>
       </c>
       <c r="AJ21" s="2">
-        <v>33120835.9</v>
+        <v>17768178.16</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
-        <v>6892460.3</v>
+        <v>2242454.7</v>
       </c>
       <c r="AM21" s="2">
-        <v>34462301.5</v>
+        <v>11212273.5</v>
       </c>
       <c r="AN21" s="2">
         <v>0</v>
@@ -12314,18 +12314,18 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>7581706.0</v>
+        <v>2287304.1</v>
       </c>
       <c r="D22" s="14">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
       <c r="G22" s="13">
-        <v>3344555.0</v>
+        <v>924696.0</v>
       </c>
       <c r="H22" s="14">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="14"/>
@@ -12350,7 +12350,7 @@
       </c>
       <c r="V22" s="14"/>
       <c r="W22" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="13"/>
@@ -12364,17 +12364,17 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>4237151.0</v>
+        <v>1362608.1</v>
       </c>
       <c r="AJ22" s="13">
-        <v>37357986.9</v>
+        <v>19130786.26</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
-        <v>7581706.0</v>
+        <v>2287304.1</v>
       </c>
       <c r="AM22" s="13">
-        <v>37908530.0</v>
+        <v>11436520.5</v>
       </c>
       <c r="AN22" s="13">
         <v>0</v>
@@ -12393,18 +12393,18 @@
         <v>56</v>
       </c>
       <c r="C23" s="5">
-        <v>8339876.6</v>
+        <v>2333050.08</v>
       </c>
       <c r="D23" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2">
-        <v>3691084.0</v>
+        <v>945605.0</v>
       </c>
       <c r="H23" s="3">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="6"/>
@@ -12443,17 +12443,17 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>4648792.6</v>
+        <v>1387445.08</v>
       </c>
       <c r="AJ23" s="2">
-        <v>42006779.5</v>
+        <v>20518231.34</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
-        <v>8339876.6</v>
+        <v>2333050.08</v>
       </c>
       <c r="AM23" s="2">
-        <v>41699383.0</v>
+        <v>11665250.4</v>
       </c>
       <c r="AN23" s="2">
         <v>0</v>
@@ -12472,18 +12472,18 @@
         <v>57</v>
       </c>
       <c r="C24" s="5">
-        <v>9173864.7</v>
+        <v>2379711.0</v>
       </c>
       <c r="D24" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2">
-        <v>4072268.0</v>
+        <v>966932.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="6"/>
@@ -12522,17 +12522,17 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>5101596.7</v>
+        <v>1412779.0</v>
       </c>
       <c r="AJ24" s="2">
-        <v>47108376.2</v>
+        <v>21931010.34</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
-        <v>9173864.7</v>
+        <v>2379711.0</v>
       </c>
       <c r="AM24" s="2">
-        <v>45869323.5</v>
+        <v>11898555.0</v>
       </c>
       <c r="AN24" s="2">
         <v>0</v>
@@ -12551,18 +12551,18 @@
         <v>58</v>
       </c>
       <c r="C25" s="5">
-        <v>10091251.5</v>
+        <v>2427305.22</v>
       </c>
       <c r="D25" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2">
-        <v>4491569.0</v>
+        <v>988685.0</v>
       </c>
       <c r="H25" s="3">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="6"/>
@@ -12601,17 +12601,17 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>5599682.5</v>
+        <v>1438620.22</v>
       </c>
       <c r="AJ25" s="2">
-        <v>52708058.7</v>
+        <v>23369630.56</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
-        <v>10091251.5</v>
+        <v>2427305.22</v>
       </c>
       <c r="AM25" s="2">
-        <v>50456257.5</v>
+        <v>12136526.1</v>
       </c>
       <c r="AN25" s="2">
         <v>0</v>
@@ -12630,18 +12630,18 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>11100377.2</v>
+        <v>2475851.1</v>
       </c>
       <c r="D26" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>4952800.0</v>
+        <v>1010874.0</v>
       </c>
       <c r="H26" s="3">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3"/>
       <c r="Y26" s="6"/>
@@ -12680,17 +12680,17 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>6147577.2</v>
+        <v>1464977.1</v>
       </c>
       <c r="AJ26" s="2">
-        <v>58855635.9</v>
+        <v>24834607.66</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
-        <v>11100377.2</v>
+        <v>2475851.1</v>
       </c>
       <c r="AM26" s="2">
-        <v>55501886.0</v>
+        <v>12379255.5</v>
       </c>
       <c r="AN26" s="2">
         <v>0</v>
@@ -12709,18 +12709,18 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>12210414.7</v>
+        <v>2525368.02</v>
       </c>
       <c r="D27" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2">
-        <v>5460154.0</v>
+        <v>1033505.0</v>
       </c>
       <c r="H27" s="3">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="6"/>
@@ -12759,17 +12759,17 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>6750260.7</v>
+        <v>1491863.02</v>
       </c>
       <c r="AJ27" s="2">
-        <v>65605896.6</v>
+        <v>26326470.68</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
-        <v>12210414.7</v>
+        <v>2525368.02</v>
       </c>
       <c r="AM27" s="2">
-        <v>61052073.5</v>
+        <v>12626840.1</v>
       </c>
       <c r="AN27" s="2">
         <v>0</v>
@@ -12788,18 +12788,18 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>13431456.5</v>
+        <v>2575875.36</v>
       </c>
       <c r="D28" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
-        <v>6018242.0</v>
+        <v>1056590.0</v>
       </c>
       <c r="H28" s="3">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="3"/>
@@ -12824,7 +12824,7 @@
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="6"/>
@@ -12838,17 +12838,17 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>7413214.5</v>
+        <v>1519285.36</v>
       </c>
       <c r="AJ28" s="2">
-        <v>73019111.1</v>
+        <v>27845756.04</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
-        <v>13431456.5</v>
+        <v>2575875.36</v>
       </c>
       <c r="AM28" s="2">
-        <v>67157282.5</v>
+        <v>12879376.8</v>
       </c>
       <c r="AN28" s="2">
         <v>0</v>
@@ -12867,18 +12867,18 @@
         <v>62</v>
       </c>
       <c r="C29" s="5">
-        <v>14774602.7</v>
+        <v>2627392.5</v>
       </c>
       <c r="D29" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
-        <v>6632141.0</v>
+        <v>1080137.0</v>
       </c>
       <c r="H29" s="3">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="6"/>
@@ -12917,17 +12917,17 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>8142461.7</v>
+        <v>1547255.5</v>
       </c>
       <c r="AJ29" s="2">
-        <v>81161572.8</v>
+        <v>29393011.54</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
-        <v>14774602.7</v>
+        <v>2627392.5</v>
       </c>
       <c r="AM29" s="2">
-        <v>73873013.5</v>
+        <v>13136962.5</v>
       </c>
       <c r="AN29" s="2">
         <v>0</v>
@@ -12946,18 +12946,18 @@
         <v>63</v>
       </c>
       <c r="C30" s="17">
-        <v>16252063.3</v>
+        <v>2679940.86</v>
       </c>
       <c r="D30" s="18">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>7307429.0</v>
+        <v>1104155.0</v>
       </c>
       <c r="H30" s="18">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="18"/>
@@ -12982,7 +12982,7 @@
       </c>
       <c r="V30" s="18"/>
       <c r="W30" s="17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="18"/>
       <c r="Y30" s="17"/>
@@ -12996,17 +12996,17 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>8944634.3</v>
+        <v>1575785.86</v>
       </c>
       <c r="AJ30" s="17">
-        <v>90106207.1</v>
+        <v>30968797.4</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
-        <v>16252063.3</v>
+        <v>2679940.86</v>
       </c>
       <c r="AM30" s="17">
-        <v>81260316.5</v>
+        <v>13399704.3</v>
       </c>
       <c r="AN30" s="17">
         <v>0</v>
@@ -13025,18 +13025,18 @@
         <v>64</v>
       </c>
       <c r="C31" s="5">
-        <v>17877269.3</v>
+        <v>2733539.82</v>
       </c>
       <c r="D31" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2">
-        <v>8050246.0</v>
+        <v>1128653.0</v>
       </c>
       <c r="H31" s="3">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
@@ -13061,7 +13061,7 @@
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="3"/>
       <c r="Y31" s="6"/>
@@ -13075,17 +13075,17 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>9827023.3</v>
+        <v>1604886.82</v>
       </c>
       <c r="AJ31" s="2">
-        <v>99933230.4</v>
+        <v>32573684.22</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
-        <v>17877269.3</v>
+        <v>2733539.82</v>
       </c>
       <c r="AM31" s="2">
-        <v>89386346.5</v>
+        <v>13667699.1</v>
       </c>
       <c r="AN31" s="2">
         <v>0</v>
@@ -13104,18 +13104,18 @@
         <v>65</v>
       </c>
       <c r="C32" s="5">
-        <v>19664995.9</v>
+        <v>2788210.8</v>
       </c>
       <c r="D32" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="3"/>
       <c r="G32" s="2">
-        <v>8867344.0</v>
+        <v>1153640.0</v>
       </c>
       <c r="H32" s="3">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="3"/>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="6"/>
@@ -13154,17 +13154,17 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>10797651.9</v>
+        <v>1634570.8</v>
       </c>
       <c r="AJ32" s="2">
-        <v>110730882.3</v>
+        <v>34208255.02</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
-        <v>19664995.9</v>
+        <v>2788210.8</v>
       </c>
       <c r="AM32" s="2">
-        <v>98324979.5</v>
+        <v>13941054.0</v>
       </c>
       <c r="AN32" s="2">
         <v>0</v>
@@ -13183,18 +13183,18 @@
         <v>66</v>
       </c>
       <c r="C33" s="5">
-        <v>21631495.6</v>
+        <v>2843975.22</v>
       </c>
       <c r="D33" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2">
-        <v>9766152.0</v>
+        <v>1179129.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="3"/>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="6"/>
@@ -13233,17 +13233,17 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>11865343.6</v>
+        <v>1664846.22</v>
       </c>
       <c r="AJ33" s="2">
-        <v>122596225.9</v>
+        <v>35873101.24</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
-        <v>21631495.6</v>
+        <v>2843975.22</v>
       </c>
       <c r="AM33" s="2">
-        <v>108157478.0</v>
+        <v>14219876.1</v>
       </c>
       <c r="AN33" s="2">
         <v>0</v>
@@ -13262,18 +13262,18 @@
         <v>67</v>
       </c>
       <c r="C34" s="17">
-        <v>23794645.6</v>
+        <v>2900854.5</v>
       </c>
       <c r="D34" s="18">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
       <c r="G34" s="17">
-        <v>10754842.0</v>
+        <v>1205125.0</v>
       </c>
       <c r="H34" s="18">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I34" s="17"/>
       <c r="J34" s="18"/>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="V34" s="18"/>
       <c r="W34" s="17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="18"/>
       <c r="Y34" s="17"/>
@@ -13312,17 +13312,17 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>13039803.6</v>
+        <v>1695729.5</v>
       </c>
       <c r="AJ34" s="17">
-        <v>135636029.5</v>
+        <v>37568830.74</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
-        <v>23794645.6</v>
+        <v>2900854.5</v>
       </c>
       <c r="AM34" s="17">
-        <v>118973228.0</v>
+        <v>14504272.5</v>
       </c>
       <c r="AN34" s="17">
         <v>0</v>
@@ -13341,18 +13341,18 @@
         <v>68</v>
       </c>
       <c r="C35" s="5">
-        <v>26174110.6</v>
+        <v>2958872.1</v>
       </c>
       <c r="D35" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="3"/>
       <c r="G35" s="2">
-        <v>11842400.0</v>
+        <v>1231644.0</v>
       </c>
       <c r="H35" s="3">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="3"/>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="6"/>
@@ -13391,17 +13391,17 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>14331710.6</v>
+        <v>1727228.1</v>
       </c>
       <c r="AJ35" s="2">
-        <v>149967740.1</v>
+        <v>39296058.84</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
-        <v>26174110.6</v>
+        <v>2958872.1</v>
       </c>
       <c r="AM35" s="2">
-        <v>130870553.0</v>
+        <v>14794360.5</v>
       </c>
       <c r="AN35" s="2">
         <v>0</v>
@@ -13420,18 +13420,18 @@
         <v>69</v>
       </c>
       <c r="C36" s="5">
-        <v>28791522.1</v>
+        <v>3018049.44</v>
       </c>
       <c r="D36" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="3"/>
       <c r="G36" s="2">
-        <v>13038715.0</v>
+        <v>1258691.0</v>
       </c>
       <c r="H36" s="3">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="3"/>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="6"/>
@@ -13470,17 +13470,17 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>15752807.1</v>
+        <v>1759358.44</v>
       </c>
       <c r="AJ36" s="2">
-        <v>165720547.2</v>
+        <v>41055417.28</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
-        <v>28791522.1</v>
+        <v>3018049.44</v>
       </c>
       <c r="AM36" s="2">
-        <v>143957610.5</v>
+        <v>15090247.2</v>
       </c>
       <c r="AN36" s="2">
         <v>0</v>
@@ -13499,18 +13499,18 @@
         <v>70</v>
       </c>
       <c r="C37" s="5">
-        <v>31670674.2</v>
+        <v>3078409.98</v>
       </c>
       <c r="D37" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
       <c r="G37" s="2">
-        <v>14354660.0</v>
+        <v>1286279.0</v>
       </c>
       <c r="H37" s="3">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="6"/>
@@ -13549,17 +13549,17 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>17316014.2</v>
+        <v>1792130.98</v>
       </c>
       <c r="AJ37" s="2">
-        <v>183036561.4</v>
+        <v>42847548.26</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
-        <v>31670674.2</v>
+        <v>3078409.98</v>
       </c>
       <c r="AM37" s="2">
-        <v>158353371.0</v>
+        <v>15392049.9</v>
       </c>
       <c r="AN37" s="2">
         <v>0</v>
@@ -13578,18 +13578,18 @@
         <v>71</v>
       </c>
       <c r="C38" s="5">
-        <v>34837741.4</v>
+        <v>3139978.2</v>
       </c>
       <c r="D38" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="3"/>
       <c r="G38" s="2">
-        <v>15802199.0</v>
+        <v>1314419.0</v>
       </c>
       <c r="H38" s="3">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="3"/>
@@ -13614,7 +13614,7 @@
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="3"/>
       <c r="Y38" s="6"/>
@@ -13628,17 +13628,17 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>19035542.4</v>
+        <v>1825559.2</v>
       </c>
       <c r="AJ38" s="2">
-        <v>202072103.8</v>
+        <v>44673107.46</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
-        <v>34837741.4</v>
+        <v>3139978.2</v>
       </c>
       <c r="AM38" s="2">
-        <v>174188707.0</v>
+        <v>15699891.0</v>
       </c>
       <c r="AN38" s="2">
         <v>0</v>
@@ -13657,18 +13657,18 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>38321515.1</v>
+        <v>3202777.56</v>
       </c>
       <c r="D39" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="3"/>
       <c r="G39" s="2">
-        <v>17394493.0</v>
+        <v>1343123.0</v>
       </c>
       <c r="H39" s="3">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="3"/>
@@ -13693,7 +13693,7 @@
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="6"/>
@@ -13707,17 +13707,17 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>20927022.1</v>
+        <v>1859654.56</v>
       </c>
       <c r="AJ39" s="2">
-        <v>222999125.9</v>
+        <v>46532762.02</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
-        <v>38321515.1</v>
+        <v>3202777.56</v>
       </c>
       <c r="AM39" s="2">
-        <v>191607575.5</v>
+        <v>16013887.8</v>
       </c>
       <c r="AN39" s="2">
         <v>0</v>

--- a/tests/Feature/config/salary_tenpercent.xlsx
+++ b/tests/Feature/config/salary_tenpercent.xlsx
@@ -186,103 +186,103 @@
     <t xml:space="preserve"> Fellesskatt: 22% gir 0 skatt, Trygdeavgift 7.8% gir 0 skatt  Trinnskatt:0 snitt 0%,  Bracket0 (0&lt;)208050)0%=0</t>
   </si>
   <si>
-    <t>Income Fellesskatt: 22% gir 345100 skatt, Trygdeavgift 7.7% gir 130862 skatt  Trinnskatt:180073 snitt 3%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=51109</t>
+    <t>Income Fellesskatt: 22% gir 368554 skatt, Trygdeavgift 7.7% gir 139755 skatt  Trinnskatt:200516 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=71552</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 352002 skatt, Trygdeavgift 7.7% gir 133479 skatt  Trinnskatt:186089 snitt 3%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=57125</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 405409 skatt, Trygdeavgift 7.7% gir 153731 skatt  Trinnskatt:232642 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=103678</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 359042 skatt, Trygdeavgift 7.7% gir 136148 skatt  Trinnskatt:192225 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=63261</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 445950 skatt, Trygdeavgift 7.7% gir 169104 skatt  Trinnskatt:267980 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=139016</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 366223 skatt, Trygdeavgift 7.7% gir 138871 skatt  Trinnskatt:198485 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=69521</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 490545 skatt, Trygdeavgift 7.7% gir 186014 skatt  Trinnskatt:306852 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=177888</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 373548 skatt, Trygdeavgift 7.7% gir 141649 skatt  Trinnskatt:204869 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=75905</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 539600 skatt, Trygdeavgift 7.7% gir 204615 skatt  Trinnskatt:349611 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=220647</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 381018 skatt, Trygdeavgift 7.7% gir 144482 skatt  Trinnskatt:211381 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=82417</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 593560 skatt, Trygdeavgift 7.7% gir 225077 skatt  Trinnskatt:396646 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=267682</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 388639 skatt, Trygdeavgift 7.7% gir 147371 skatt  Trinnskatt:218024 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=89060</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 652916 skatt, Trygdeavgift 7.7% gir 247584 skatt  Trinnskatt:448384 snitt 10%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=319420</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 396412 skatt, Trygdeavgift 7.7% gir 150319 skatt  Trinnskatt:224799 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=95835</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 718207 skatt, Trygdeavgift 7.7% gir 272343 skatt  Trinnskatt:505296 snitt 11%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=376332</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 404340 skatt, Trygdeavgift 7.7% gir 153325 skatt  Trinnskatt:231710 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=102746</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 790028 skatt, Trygdeavgift 7.7% gir 299577 skatt  Trinnskatt:567900 snitt 11%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=438936</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 412427 skatt, Trygdeavgift 7.7% gir 156392 skatt  Trinnskatt:238759 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=109795</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 869031 skatt, Trygdeavgift 7.7% gir 329535 skatt  Trinnskatt:636764 snitt 12%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=507800</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 420676 skatt, Trygdeavgift 7.7% gir 159519 skatt  Trinnskatt:245949 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=116985</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 955934 skatt, Trygdeavgift 7.7% gir 362488 skatt  Trinnskatt:712514 snitt 12%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=583550</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 429089 skatt, Trygdeavgift 7.7% gir 162710 skatt  Trinnskatt:253282 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=124318</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1051527 skatt, Trygdeavgift 7.7% gir 398737 skatt  Trinnskatt:795839 snitt 13%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=666875</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 437671 skatt, Trygdeavgift 7.7% gir 165964 skatt  Trinnskatt:260763 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=131799</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1156680 skatt, Trygdeavgift 7.7% gir 438611 skatt  Trinnskatt:887497 snitt 13%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=758533</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 446424 skatt, Trygdeavgift 7.7% gir 169283 skatt  Trinnskatt:268393 snitt 6%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=139429</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1272348 skatt, Trygdeavgift 7.7% gir 482472 skatt  Trinnskatt:988321 snitt 14%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=859357</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 455353 skatt, Trygdeavgift 7.7% gir 172669 skatt  Trinnskatt:276176 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=147212</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1399583 skatt, Trygdeavgift 7.7% gir 530719 skatt  Trinnskatt:1099227 snitt 14%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=970263</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 464460 skatt, Trygdeavgift 7.7% gir 176122 skatt  Trinnskatt:284114 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=155150</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1539541 skatt, Trygdeavgift 7.7% gir 583791 skatt  Trinnskatt:1221223 snitt 14%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1092259</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 473749 skatt, Trygdeavgift 7.7% gir 179645 skatt  Trinnskatt:292211 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=163247</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1693495 skatt, Trygdeavgift 7.7% gir 642170 skatt  Trinnskatt:1355419 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1226455</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 483224 skatt, Trygdeavgift 7.7% gir 183238 skatt  Trinnskatt:300470 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=171506</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 1862845 skatt, Trygdeavgift 7.7% gir 706388 skatt  Trinnskatt:1503035 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1374071</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 492889 skatt, Trygdeavgift 7.7% gir 186902 skatt  Trinnskatt:308894 snitt 7%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=179930</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 2049130 skatt, Trygdeavgift 7.7% gir 777026 skatt  Trinnskatt:1665413 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1536449</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 502746 skatt, Trygdeavgift 7.7% gir 190641 skatt  Trinnskatt:317487 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=188523</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 2254043 skatt, Trygdeavgift 7.7% gir 854729 skatt  Trinnskatt:1844028 snitt 15%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1715064</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 512801 skatt, Trygdeavgift 7.7% gir 194453 skatt  Trinnskatt:326251 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=197287</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 2479447 skatt, Trygdeavgift 7.7% gir 940202 skatt  Trinnskatt:2040505 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=1911541</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 523057 skatt, Trygdeavgift 7.7% gir 198342 skatt  Trinnskatt:335191 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=206227</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 2727391 skatt, Trygdeavgift 7.7% gir 1034222 skatt  Trinnskatt:2256629 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2127665</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 533518 skatt, Trygdeavgift 7.7% gir 202309 skatt  Trinnskatt:344310 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=215346</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 3000131 skatt, Trygdeavgift 7.7% gir 1137644 skatt  Trinnskatt:2494366 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2365402</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 544189 skatt, Trygdeavgift 7.7% gir 206355 skatt  Trinnskatt:353611 snitt 8%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=224647</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 3300144 skatt, Trygdeavgift 7.7% gir 1251409 skatt  Trinnskatt:2755876 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2626912</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 555072 skatt, Trygdeavgift 7.7% gir 210483 skatt  Trinnskatt:363098 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=234134</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 3630158 skatt, Trygdeavgift 7.7% gir 1376550 skatt  Trinnskatt:3043538 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=2914574</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 566174 skatt, Trygdeavgift 7.7% gir 214692 skatt  Trinnskatt:372774 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=243810</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 3993174 skatt, Trygdeavgift 7.7% gir 1514205 skatt  Trinnskatt:3359965 snitt 16%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=3231001</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 577498 skatt, Trygdeavgift 7.7% gir 218986 skatt  Trinnskatt:382645 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=253681</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 4392491 skatt, Trygdeavgift 7.7% gir 1665625 skatt  Trinnskatt:3708036 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=3579072</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 589047 skatt, Trygdeavgift 7.7% gir 223366 skatt  Trinnskatt:392712 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=263748</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 4831741 skatt, Trygdeavgift 7.7% gir 1832188 skatt  Trinnskatt:4090913 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=3961949</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 600829 skatt, Trygdeavgift 7.7% gir 227833 skatt  Trinnskatt:402982 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=274018</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 5314915 skatt, Trygdeavgift 7.7% gir 2015406 skatt  Trinnskatt:4512079 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=4383115</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 612845 skatt, Trygdeavgift 7.7% gir 232390 skatt  Trinnskatt:413456 snitt 9%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=284492</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 5846407 skatt, Trygdeavgift 7.7% gir 2216947 skatt  Trinnskatt:4975361 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=4846397</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 625102 skatt, Trygdeavgift 7.7% gir 237037 skatt  Trinnskatt:424140 snitt 10%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=295176</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 6431047 skatt, Trygdeavgift 7.7% gir 2438642 skatt  Trinnskatt:5484971 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=5356007</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 637604 skatt, Trygdeavgift 7.7% gir 241778 skatt  Trinnskatt:435037 snitt 10%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=306073</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 7074152 skatt, Trygdeavgift 7.7% gir 2682506 skatt  Trinnskatt:6045541 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=5916577</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 650356 skatt, Trygdeavgift 7.7% gir 246614 skatt  Trinnskatt:446153 snitt 10%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=317189</t>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 7781567 skatt, Trygdeavgift 7.7% gir 2950757 skatt  Trinnskatt:6662169 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=6533205</t>
   </si>
 </sst>
 </file>
@@ -733,11 +733,11 @@
   <cols>
     <col min="1" max="1" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -765,12 +765,12 @@
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -1056,7 +1056,7 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="2">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="9">
-        <v>1699500.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9">
@@ -1091,11 +1091,9 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
-        <v>656035.0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.38601647543395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="9">
         <v>0</v>
       </c>
@@ -1155,20 +1153,20 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1043465.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1043465.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
-        <v>1699500.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AM7" s="9">
-        <v>8497500.0</v>
+        <v>9075000.0</v>
       </c>
       <c r="AN7" s="9">
-        <v>0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AO7" s="9"/>
       <c r="AP7" s="10"/>
@@ -1182,21 +1180,19 @@
         <v>41</v>
       </c>
       <c r="C8" s="5">
-        <v>1733490.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="D8" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>671570.0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.38740921493634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="2">
         <v>0</v>
       </c>
@@ -1256,20 +1252,20 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1061920.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>2105385.0</v>
+        <v>3811500.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
-        <v>1733490.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AM8" s="2">
-        <v>8667450.0</v>
+        <v>9982500.0</v>
       </c>
       <c r="AN8" s="2">
-        <v>0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="3"/>
@@ -1283,21 +1279,19 @@
         <v>42</v>
       </c>
       <c r="C9" s="5">
-        <v>1768159.8</v>
+        <v>2196150.0</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2">
-        <v>687415.0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.38877424992922</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="2">
         <v>0</v>
       </c>
@@ -1357,20 +1351,20 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>1080744.8</v>
+        <v>2196150.0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>3186129.8</v>
+        <v>6007650.0</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
-        <v>1768159.8</v>
+        <v>2196150.0</v>
       </c>
       <c r="AM9" s="2">
-        <v>8840799.0</v>
+        <v>10980750.0</v>
       </c>
       <c r="AN9" s="2">
-        <v>0</v>
+        <v>2196150.0</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="3"/>
@@ -1384,21 +1378,19 @@
         <v>43</v>
       </c>
       <c r="C10" s="5">
-        <v>1803523.2</v>
+        <v>2415765.0</v>
       </c>
       <c r="D10" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2">
-        <v>703579.0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.39011363979127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="2">
         <v>0</v>
       </c>
@@ -1458,20 +1450,20 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>1099944.2</v>
+        <v>2415765.0</v>
       </c>
       <c r="AJ10" s="2">
-        <v>4286074.0</v>
+        <v>8423415.0</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
-        <v>1803523.2</v>
+        <v>2415765.0</v>
       </c>
       <c r="AM10" s="2">
-        <v>9017616.0</v>
+        <v>12078825.0</v>
       </c>
       <c r="AN10" s="2">
-        <v>0</v>
+        <v>2415765.0</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="3"/>
@@ -1485,21 +1477,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>1839593.46</v>
+        <v>2657341.5</v>
       </c>
       <c r="D11" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
-        <v>720066.0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.39142670141913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="2">
         <v>0</v>
       </c>
@@ -1559,20 +1549,20 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>1119527.46</v>
+        <v>2657341.5</v>
       </c>
       <c r="AJ11" s="2">
-        <v>5405601.46</v>
+        <v>11080756.5</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
-        <v>1839593.46</v>
+        <v>2657341.5</v>
       </c>
       <c r="AM11" s="2">
-        <v>9197967.3</v>
+        <v>13286707.5</v>
       </c>
       <c r="AN11" s="2">
-        <v>0</v>
+        <v>2657341.5</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="3"/>
@@ -1586,21 +1576,19 @@
         <v>45</v>
       </c>
       <c r="C12" s="5">
-        <v>1876384.86</v>
+        <v>2923076.2</v>
       </c>
       <c r="D12" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="2">
-        <v>736881.0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.39271314521265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="2">
         <v>0</v>
       </c>
@@ -1660,20 +1648,20 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>1139503.86</v>
+        <v>2923076.2</v>
       </c>
       <c r="AJ12" s="2">
-        <v>6545105.32</v>
+        <v>14003832.7</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
-        <v>1876384.86</v>
+        <v>2923076.2</v>
       </c>
       <c r="AM12" s="2">
-        <v>9381924.3</v>
+        <v>14615381.0</v>
       </c>
       <c r="AN12" s="2">
-        <v>0</v>
+        <v>2923076.2</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="3"/>
@@ -1687,21 +1675,19 @@
         <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>1913912.7</v>
+        <v>3215383.6</v>
       </c>
       <c r="D13" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="2">
-        <v>754034.0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.39397512749667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="2">
         <v>0</v>
       </c>
@@ -1761,20 +1747,20 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>1159878.7</v>
+        <v>3215383.6</v>
       </c>
       <c r="AJ13" s="2">
-        <v>7704984.02</v>
+        <v>17219216.3</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
-        <v>1913912.7</v>
+        <v>3215383.6</v>
       </c>
       <c r="AM13" s="2">
-        <v>9569563.5</v>
+        <v>16076918.0</v>
       </c>
       <c r="AN13" s="2">
-        <v>0</v>
+        <v>3215383.6</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="3"/>
@@ -1788,21 +1774,19 @@
         <v>47</v>
       </c>
       <c r="C14" s="5">
-        <v>1952191.26</v>
+        <v>3536922.4</v>
       </c>
       <c r="D14" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>771530.0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.39521230107341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="2">
         <v>0</v>
       </c>
@@ -1862,20 +1846,20 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>1180661.26</v>
+        <v>3536922.4</v>
       </c>
       <c r="AJ14" s="2">
-        <v>8885645.28</v>
+        <v>20756138.7</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
-        <v>1952191.26</v>
+        <v>3536922.4</v>
       </c>
       <c r="AM14" s="2">
-        <v>9760956.3</v>
+        <v>17684612.0</v>
       </c>
       <c r="AN14" s="2">
-        <v>0</v>
+        <v>3536922.4</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="3"/>
@@ -1889,21 +1873,19 @@
         <v>48</v>
       </c>
       <c r="C15" s="5">
-        <v>1991234.82</v>
+        <v>3890614.2</v>
       </c>
       <c r="D15" s="3">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2">
-        <v>789375.0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.39642486766076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="2">
         <v>0</v>
       </c>
@@ -1963,20 +1945,20 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>1201859.82</v>
+        <v>3890614.2</v>
       </c>
       <c r="AJ15" s="2">
-        <v>10087505.1</v>
+        <v>24646752.9</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
-        <v>1991234.82</v>
+        <v>3890614.2</v>
       </c>
       <c r="AM15" s="2">
-        <v>9956174.1</v>
+        <v>19453071.0</v>
       </c>
       <c r="AN15" s="2">
-        <v>0</v>
+        <v>3890614.2</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="3"/>
@@ -1990,21 +1972,19 @@
         <v>49</v>
       </c>
       <c r="C16" s="5">
-        <v>2031059.7</v>
+        <v>4279675.4</v>
       </c>
       <c r="D16" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2">
-        <v>807578.0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.39761411247537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="2">
         <v>0</v>
       </c>
@@ -2064,20 +2044,20 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>1223481.7</v>
+        <v>4279675.4</v>
       </c>
       <c r="AJ16" s="2">
-        <v>11310986.8</v>
+        <v>28926428.3</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
-        <v>2031059.7</v>
+        <v>4279675.4</v>
       </c>
       <c r="AM16" s="2">
-        <v>10155298.5</v>
+        <v>21398377.0</v>
       </c>
       <c r="AN16" s="2">
-        <v>0</v>
+        <v>4279675.4</v>
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="3"/>
@@ -2091,21 +2071,19 @@
         <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>2071681.2</v>
+        <v>4707642.5</v>
       </c>
       <c r="D17" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <v>826144.0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.39877950333285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="2">
         <v>0</v>
       </c>
@@ -2165,20 +2143,20 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>1245537.2</v>
+        <v>4707642.5</v>
       </c>
       <c r="AJ17" s="2">
-        <v>12556524.0</v>
+        <v>33634070.8</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
-        <v>2071681.2</v>
+        <v>4707642.5</v>
       </c>
       <c r="AM17" s="2">
-        <v>10358406.0</v>
+        <v>23538212.5</v>
       </c>
       <c r="AN17" s="2">
-        <v>0</v>
+        <v>4707642.5</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="3"/>
@@ -2192,21 +2170,19 @@
         <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>2113114.62</v>
+        <v>5178407.3</v>
       </c>
       <c r="D18" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
-        <v>845081.0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.3999219881409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="2">
         <v>0</v>
       </c>
@@ -2266,20 +2242,20 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>1268033.62</v>
+        <v>5178407.3</v>
       </c>
       <c r="AJ18" s="2">
-        <v>13824557.62</v>
+        <v>38812478.1</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
-        <v>2113114.62</v>
+        <v>5178407.3</v>
       </c>
       <c r="AM18" s="2">
-        <v>10565573.1</v>
+        <v>25892036.5</v>
       </c>
       <c r="AN18" s="2">
-        <v>0</v>
+        <v>5178407.3</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="3"/>
@@ -2293,21 +2269,19 @@
         <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>2155377.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="D19" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>864398.0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.40104254600807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="2">
         <v>0</v>
       </c>
@@ -2367,20 +2341,20 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>1290979.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="AJ19" s="2">
-        <v>15115536.92</v>
+        <v>44508725.8</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
-        <v>2155377.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="AM19" s="2">
-        <v>10776886.5</v>
+        <v>28481238.5</v>
       </c>
       <c r="AN19" s="2">
-        <v>0</v>
+        <v>5696247.7</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="3"/>
@@ -2394,21 +2368,19 @@
         <v>53</v>
       </c>
       <c r="C20" s="5">
-        <v>2198484.54</v>
+        <v>6265872.8</v>
       </c>
       <c r="D20" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
-        <v>884100.0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.40214064912187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="2">
         <v>0</v>
       </c>
@@ -2468,20 +2440,20 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>1314384.54</v>
+        <v>6265872.8</v>
       </c>
       <c r="AJ20" s="2">
-        <v>16429921.46</v>
+        <v>50774598.6</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
-        <v>2198484.54</v>
+        <v>6265872.8</v>
       </c>
       <c r="AM20" s="2">
-        <v>10992422.7</v>
+        <v>31329364.0</v>
       </c>
       <c r="AN20" s="2">
-        <v>0</v>
+        <v>6265872.8</v>
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="3"/>
@@ -2495,21 +2467,19 @@
         <v>54</v>
       </c>
       <c r="C21" s="5">
-        <v>2242454.7</v>
+        <v>6892460.3</v>
       </c>
       <c r="D21" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>904198.0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.40321795575179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="2">
         <v>0</v>
       </c>
@@ -2569,20 +2539,20 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>1338256.7</v>
+        <v>6892460.3</v>
       </c>
       <c r="AJ21" s="2">
-        <v>17768178.16</v>
+        <v>57667058.9</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
-        <v>2242454.7</v>
+        <v>6892460.3</v>
       </c>
       <c r="AM21" s="2">
-        <v>11212273.5</v>
+        <v>34462301.5</v>
       </c>
       <c r="AN21" s="2">
-        <v>0</v>
+        <v>6892460.3</v>
       </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="3"/>
@@ -2596,21 +2566,19 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>2287304.1</v>
+        <v>7581706.0</v>
       </c>
       <c r="D22" s="14">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13">
-        <v>924696.0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0.40427331022578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" s="14"/>
       <c r="I22" s="13">
         <v>0</v>
       </c>
@@ -2670,20 +2638,20 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>1362608.1</v>
+        <v>7581706.0</v>
       </c>
       <c r="AJ22" s="13">
-        <v>19130786.26</v>
+        <v>65248764.9</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
-        <v>2287304.1</v>
+        <v>7581706.0</v>
       </c>
       <c r="AM22" s="13">
-        <v>11436520.5</v>
+        <v>37908530.0</v>
       </c>
       <c r="AN22" s="13">
-        <v>0</v>
+        <v>7581706.0</v>
       </c>
       <c r="AO22" s="13"/>
       <c r="AP22" s="14"/>
@@ -2697,21 +2665,19 @@
         <v>56</v>
       </c>
       <c r="C23" s="5">
-        <v>2333050.08</v>
+        <v>8339876.6</v>
       </c>
       <c r="D23" s="3">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="2">
-        <v>945605.0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.40530848784866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="2">
         <v>0</v>
       </c>
@@ -2771,20 +2737,20 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>1387445.08</v>
+        <v>8339876.6</v>
       </c>
       <c r="AJ23" s="2">
-        <v>20518231.34</v>
+        <v>73588641.5</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
-        <v>2333050.08</v>
+        <v>8339876.6</v>
       </c>
       <c r="AM23" s="2">
-        <v>11665250.4</v>
+        <v>41699383.0</v>
       </c>
       <c r="AN23" s="2">
-        <v>0</v>
+        <v>8339876.6</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="3"/>
@@ -2798,21 +2764,19 @@
         <v>57</v>
       </c>
       <c r="C24" s="5">
-        <v>2379711.0</v>
+        <v>9173864.7</v>
       </c>
       <c r="D24" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="2">
-        <v>966932.0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.40632328883633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="2">
         <v>0</v>
       </c>
@@ -2872,20 +2836,20 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>1412779.0</v>
+        <v>9173864.7</v>
       </c>
       <c r="AJ24" s="2">
-        <v>21931010.34</v>
+        <v>82762506.2</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
-        <v>2379711.0</v>
+        <v>9173864.7</v>
       </c>
       <c r="AM24" s="2">
-        <v>11898555.0</v>
+        <v>45869323.5</v>
       </c>
       <c r="AN24" s="2">
-        <v>0</v>
+        <v>9173864.7</v>
       </c>
       <c r="AO24" s="2"/>
       <c r="AP24" s="3"/>
@@ -2899,21 +2863,19 @@
         <v>58</v>
       </c>
       <c r="C25" s="5">
-        <v>2427305.22</v>
+        <v>10091251.5</v>
       </c>
       <c r="D25" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2">
-        <v>988685.0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.40731795567102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="2">
         <v>0</v>
       </c>
@@ -2973,20 +2935,20 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>1438620.22</v>
+        <v>10091251.5</v>
       </c>
       <c r="AJ25" s="2">
-        <v>23369630.56</v>
+        <v>92853757.7</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
-        <v>2427305.22</v>
+        <v>10091251.5</v>
       </c>
       <c r="AM25" s="2">
-        <v>12136526.1</v>
+        <v>50456257.5</v>
       </c>
       <c r="AN25" s="2">
-        <v>0</v>
+        <v>10091251.5</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="3"/>
@@ -3000,21 +2962,19 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>2475851.1</v>
+        <v>11100377.2</v>
       </c>
       <c r="D26" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>1010874.0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.40829353590771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="2">
         <v>0</v>
       </c>
@@ -3074,20 +3034,20 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>1464977.1</v>
+        <v>11100377.2</v>
       </c>
       <c r="AJ26" s="2">
-        <v>24834607.66</v>
+        <v>103954134.9</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
-        <v>2475851.1</v>
+        <v>11100377.2</v>
       </c>
       <c r="AM26" s="2">
-        <v>12379255.5</v>
+        <v>55501886.0</v>
       </c>
       <c r="AN26" s="2">
-        <v>0</v>
+        <v>11100377.2</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="3"/>
@@ -3101,21 +3061,19 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>2525368.02</v>
+        <v>12210414.7</v>
       </c>
       <c r="D27" s="3">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="2">
-        <v>1033505.0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.40924926260847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="2">
         <v>0</v>
       </c>
@@ -3175,20 +3133,20 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>1491863.02</v>
+        <v>12210414.7</v>
       </c>
       <c r="AJ27" s="2">
-        <v>26326470.68</v>
+        <v>116164549.6</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
-        <v>2525368.02</v>
+        <v>12210414.7</v>
       </c>
       <c r="AM27" s="2">
-        <v>12626840.1</v>
+        <v>61052073.5</v>
       </c>
       <c r="AN27" s="2">
-        <v>0</v>
+        <v>12210414.7</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="3"/>
@@ -3202,21 +3160,19 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>2575875.36</v>
+        <v>13431456.5</v>
       </c>
       <c r="D28" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
-        <v>1056590.0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.41018677239104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="2">
         <v>0</v>
       </c>
@@ -3276,20 +3232,20 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>1519285.36</v>
+        <v>13431456.5</v>
       </c>
       <c r="AJ28" s="2">
-        <v>27845756.04</v>
+        <v>129596006.1</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
-        <v>2575875.36</v>
+        <v>13431456.5</v>
       </c>
       <c r="AM28" s="2">
-        <v>12879376.8</v>
+        <v>67157282.5</v>
       </c>
       <c r="AN28" s="2">
-        <v>0</v>
+        <v>13431456.5</v>
       </c>
       <c r="AO28" s="2"/>
       <c r="AP28" s="3"/>
@@ -3303,21 +3259,19 @@
         <v>62</v>
       </c>
       <c r="C29" s="5">
-        <v>2627392.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="D29" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
-        <v>1080137.0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.41110606808842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="2">
         <v>0</v>
       </c>
@@ -3377,20 +3331,20 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>1547255.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="AJ29" s="2">
-        <v>29393011.54</v>
+        <v>144370608.8</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
-        <v>2627392.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="AM29" s="2">
-        <v>13136962.5</v>
+        <v>73873013.5</v>
       </c>
       <c r="AN29" s="2">
-        <v>0</v>
+        <v>14774602.7</v>
       </c>
       <c r="AO29" s="2"/>
       <c r="AP29" s="3"/>
@@ -3404,21 +3358,19 @@
         <v>63</v>
       </c>
       <c r="C30" s="17">
-        <v>2679940.86</v>
+        <v>16252063.3</v>
       </c>
       <c r="D30" s="18">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E30" s="17">
         <v>0</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>1104155.0</v>
-      </c>
-      <c r="H30" s="18">
-        <v>0.41200722615946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" s="18"/>
       <c r="I30" s="17">
         <v>0</v>
       </c>
@@ -3478,20 +3430,20 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>1575785.86</v>
+        <v>16252063.3</v>
       </c>
       <c r="AJ30" s="17">
-        <v>30968797.4</v>
+        <v>160622672.1</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
-        <v>2679940.86</v>
+        <v>16252063.3</v>
       </c>
       <c r="AM30" s="17">
-        <v>13399704.3</v>
+        <v>81260316.5</v>
       </c>
       <c r="AN30" s="17">
-        <v>0</v>
+        <v>16252063.3</v>
       </c>
       <c r="AO30" s="17"/>
       <c r="AP30" s="18"/>
@@ -3505,21 +3457,19 @@
         <v>64</v>
       </c>
       <c r="C31" s="5">
-        <v>2733539.82</v>
+        <v>17877269.3</v>
       </c>
       <c r="D31" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="2">
-        <v>1128653.0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.41289063789823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="2">
         <v>0</v>
       </c>
@@ -3579,20 +3529,20 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>1604886.82</v>
+        <v>17877269.3</v>
       </c>
       <c r="AJ31" s="2">
-        <v>32573684.22</v>
+        <v>178499941.4</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
-        <v>2733539.82</v>
+        <v>17877269.3</v>
       </c>
       <c r="AM31" s="2">
-        <v>13667699.1</v>
+        <v>89386346.5</v>
       </c>
       <c r="AN31" s="2">
-        <v>0</v>
+        <v>17877269.3</v>
       </c>
       <c r="AO31" s="2"/>
       <c r="AP31" s="3"/>
@@ -3606,21 +3556,19 @@
         <v>65</v>
       </c>
       <c r="C32" s="5">
-        <v>2788210.8</v>
+        <v>19664995.9</v>
       </c>
       <c r="D32" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2">
-        <v>1153640.0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0.41375637738725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="2">
         <v>0</v>
       </c>
@@ -3680,20 +3628,20 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>1634570.8</v>
+        <v>19664995.9</v>
       </c>
       <c r="AJ32" s="2">
-        <v>34208255.02</v>
+        <v>198164937.3</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
-        <v>2788210.8</v>
+        <v>19664995.9</v>
       </c>
       <c r="AM32" s="2">
-        <v>13941054.0</v>
+        <v>98324979.5</v>
       </c>
       <c r="AN32" s="2">
-        <v>0</v>
+        <v>19664995.9</v>
       </c>
       <c r="AO32" s="2"/>
       <c r="AP32" s="3"/>
@@ -3707,21 +3655,19 @@
         <v>66</v>
       </c>
       <c r="C33" s="5">
-        <v>2843975.22</v>
+        <v>21631495.6</v>
       </c>
       <c r="D33" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="2">
-        <v>1179129.0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0.41460593316984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="2">
         <v>0</v>
       </c>
@@ -3781,20 +3727,20 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>1664846.22</v>
+        <v>21631495.6</v>
       </c>
       <c r="AJ33" s="2">
-        <v>35873101.24</v>
+        <v>219796432.9</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
-        <v>2843975.22</v>
+        <v>21631495.6</v>
       </c>
       <c r="AM33" s="2">
-        <v>14219876.1</v>
+        <v>108157478.0</v>
       </c>
       <c r="AN33" s="2">
-        <v>0</v>
+        <v>21631495.6</v>
       </c>
       <c r="AO33" s="2"/>
       <c r="AP33" s="3"/>
@@ -3808,21 +3754,19 @@
         <v>67</v>
       </c>
       <c r="C34" s="17">
-        <v>2900854.5</v>
+        <v>23794645.6</v>
       </c>
       <c r="D34" s="18">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="17">
         <v>0</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17">
-        <v>1205125.0</v>
-      </c>
-      <c r="H34" s="18">
-        <v>0.41543793389155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" s="18"/>
       <c r="I34" s="17">
         <v>0</v>
       </c>
@@ -3882,20 +3826,20 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>1695729.5</v>
+        <v>23794645.6</v>
       </c>
       <c r="AJ34" s="17">
-        <v>37568830.74</v>
+        <v>243591078.5</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
-        <v>2900854.5</v>
+        <v>23794645.6</v>
       </c>
       <c r="AM34" s="17">
-        <v>14504272.5</v>
+        <v>118973228.0</v>
       </c>
       <c r="AN34" s="17">
-        <v>0</v>
+        <v>23794645.6</v>
       </c>
       <c r="AO34" s="17"/>
       <c r="AP34" s="18"/>
@@ -3909,21 +3853,19 @@
         <v>68</v>
       </c>
       <c r="C35" s="5">
-        <v>2958872.1</v>
+        <v>26174110.6</v>
       </c>
       <c r="D35" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="2">
-        <v>1231644.0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.4162545586205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="2">
         <v>0</v>
       </c>
@@ -3983,20 +3925,20 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>1727228.1</v>
+        <v>26174110.6</v>
       </c>
       <c r="AJ35" s="2">
-        <v>39296058.84</v>
+        <v>269765189.1</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
-        <v>2958872.1</v>
+        <v>26174110.6</v>
       </c>
       <c r="AM35" s="2">
-        <v>14794360.5</v>
+        <v>130870553.0</v>
       </c>
       <c r="AN35" s="2">
-        <v>0</v>
+        <v>26174110.6</v>
       </c>
       <c r="AO35" s="2"/>
       <c r="AP35" s="3"/>
@@ -4010,21 +3952,19 @@
         <v>69</v>
       </c>
       <c r="C36" s="5">
-        <v>3018049.44</v>
+        <v>28791522.1</v>
       </c>
       <c r="D36" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="2">
-        <v>1258691.0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.4170544668082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="2">
         <v>0</v>
       </c>
@@ -4084,20 +4024,20 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>1759358.44</v>
+        <v>28791522.1</v>
       </c>
       <c r="AJ36" s="2">
-        <v>41055417.28</v>
+        <v>298556711.2</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
-        <v>3018049.44</v>
+        <v>28791522.1</v>
       </c>
       <c r="AM36" s="2">
-        <v>15090247.2</v>
+        <v>143957610.5</v>
       </c>
       <c r="AN36" s="2">
-        <v>0</v>
+        <v>28791522.1</v>
       </c>
       <c r="AO36" s="2"/>
       <c r="AP36" s="3"/>
@@ -4111,21 +4051,19 @@
         <v>70</v>
       </c>
       <c r="C37" s="5">
-        <v>3078409.98</v>
+        <v>31670674.2</v>
       </c>
       <c r="D37" s="3">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="2">
-        <v>1286279.0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0.41783875713657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="2">
         <v>0</v>
       </c>
@@ -4185,20 +4123,20 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>1792130.98</v>
+        <v>31670674.2</v>
       </c>
       <c r="AJ37" s="2">
-        <v>42847548.26</v>
+        <v>330227385.4</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
-        <v>3078409.98</v>
+        <v>31670674.2</v>
       </c>
       <c r="AM37" s="2">
-        <v>15392049.9</v>
+        <v>158353371.0</v>
       </c>
       <c r="AN37" s="2">
-        <v>0</v>
+        <v>31670674.2</v>
       </c>
       <c r="AO37" s="2"/>
       <c r="AP37" s="3"/>
@@ -4212,21 +4150,19 @@
         <v>71</v>
       </c>
       <c r="C38" s="5">
-        <v>3139978.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="D38" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2">
-        <v>1314419.0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0.41860768332723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="2">
         <v>0</v>
       </c>
@@ -4286,20 +4222,20 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>1825559.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="AJ38" s="2">
-        <v>44673107.46</v>
+        <v>365065126.8</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
-        <v>3139978.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="AM38" s="2">
-        <v>15699891.0</v>
+        <v>174188707.0</v>
       </c>
       <c r="AN38" s="2">
-        <v>0</v>
+        <v>34837741.4</v>
       </c>
       <c r="AO38" s="2"/>
       <c r="AP38" s="3"/>
@@ -4313,21 +4249,19 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>3202777.56</v>
+        <v>38321515.1</v>
       </c>
       <c r="D39" s="3">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="2">
-        <v>1343123.0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.41936193658107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="2">
         <v>0</v>
       </c>
@@ -4387,20 +4321,20 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>1859654.56</v>
+        <v>38321515.1</v>
       </c>
       <c r="AJ39" s="2">
-        <v>46532762.02</v>
+        <v>403386641.9</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
-        <v>3202777.56</v>
+        <v>38321515.1</v>
       </c>
       <c r="AM39" s="2">
-        <v>16013887.8</v>
+        <v>191607575.5</v>
       </c>
       <c r="AN39" s="2">
-        <v>0</v>
+        <v>38321515.1</v>
       </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="3"/>
@@ -4563,11 +4497,11 @@
   <cols>
     <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -4595,12 +4529,12 @@
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -4886,7 +4820,7 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="2">
         <v>0</v>
@@ -4913,7 +4847,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="9">
-        <v>1699500.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="9">
@@ -4921,11 +4855,9 @@
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
-        <v>656035.0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.38601647543395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="9">
         <v>0</v>
       </c>
@@ -4985,20 +4917,20 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1043465.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1043465.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
-        <v>1699500.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AM7" s="9">
-        <v>8497500.0</v>
+        <v>9075000.0</v>
       </c>
       <c r="AN7" s="9">
-        <v>0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AO7" s="9"/>
       <c r="AP7" s="10"/>
@@ -5012,21 +4944,19 @@
         <v>41</v>
       </c>
       <c r="C8" s="5">
-        <v>1733490.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="D8" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>671570.0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.38740921493634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="2">
         <v>0</v>
       </c>
@@ -5086,20 +5016,20 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1061920.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>2105385.0</v>
+        <v>3811500.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
-        <v>1733490.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AM8" s="2">
-        <v>8667450.0</v>
+        <v>9982500.0</v>
       </c>
       <c r="AN8" s="2">
-        <v>0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="3"/>
@@ -5113,21 +5043,19 @@
         <v>42</v>
       </c>
       <c r="C9" s="5">
-        <v>1768159.8</v>
+        <v>2196150.0</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2">
-        <v>687415.0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.38877424992922</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="2">
         <v>0</v>
       </c>
@@ -5187,20 +5115,20 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>1080744.8</v>
+        <v>2196150.0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>3186129.8</v>
+        <v>6007650.0</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
-        <v>1768159.8</v>
+        <v>2196150.0</v>
       </c>
       <c r="AM9" s="2">
-        <v>8840799.0</v>
+        <v>10980750.0</v>
       </c>
       <c r="AN9" s="2">
-        <v>0</v>
+        <v>2196150.0</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="3"/>
@@ -5214,21 +5142,19 @@
         <v>43</v>
       </c>
       <c r="C10" s="5">
-        <v>1803523.2</v>
+        <v>2415765.0</v>
       </c>
       <c r="D10" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2">
-        <v>703579.0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.39011363979127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="2">
         <v>0</v>
       </c>
@@ -5288,20 +5214,20 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>1099944.2</v>
+        <v>2415765.0</v>
       </c>
       <c r="AJ10" s="2">
-        <v>4286074.0</v>
+        <v>8423415.0</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
-        <v>1803523.2</v>
+        <v>2415765.0</v>
       </c>
       <c r="AM10" s="2">
-        <v>9017616.0</v>
+        <v>12078825.0</v>
       </c>
       <c r="AN10" s="2">
-        <v>0</v>
+        <v>2415765.0</v>
       </c>
       <c r="AO10" s="2"/>
       <c r="AP10" s="3"/>
@@ -5315,21 +5241,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>1839593.46</v>
+        <v>2657341.5</v>
       </c>
       <c r="D11" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
-        <v>720066.0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.39142670141913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="2">
         <v>0</v>
       </c>
@@ -5389,20 +5313,20 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>1119527.46</v>
+        <v>2657341.5</v>
       </c>
       <c r="AJ11" s="2">
-        <v>5405601.46</v>
+        <v>11080756.5</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
-        <v>1839593.46</v>
+        <v>2657341.5</v>
       </c>
       <c r="AM11" s="2">
-        <v>9197967.3</v>
+        <v>13286707.5</v>
       </c>
       <c r="AN11" s="2">
-        <v>0</v>
+        <v>2657341.5</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="3"/>
@@ -5416,21 +5340,19 @@
         <v>45</v>
       </c>
       <c r="C12" s="5">
-        <v>1876384.86</v>
+        <v>2923076.2</v>
       </c>
       <c r="D12" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="2">
-        <v>736881.0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.39271314521265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="2">
         <v>0</v>
       </c>
@@ -5490,20 +5412,20 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>1139503.86</v>
+        <v>2923076.2</v>
       </c>
       <c r="AJ12" s="2">
-        <v>6545105.32</v>
+        <v>14003832.7</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
-        <v>1876384.86</v>
+        <v>2923076.2</v>
       </c>
       <c r="AM12" s="2">
-        <v>9381924.3</v>
+        <v>14615381.0</v>
       </c>
       <c r="AN12" s="2">
-        <v>0</v>
+        <v>2923076.2</v>
       </c>
       <c r="AO12" s="2"/>
       <c r="AP12" s="3"/>
@@ -5517,21 +5439,19 @@
         <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>1913912.7</v>
+        <v>3215383.6</v>
       </c>
       <c r="D13" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="2">
-        <v>754034.0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.39397512749667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="2">
         <v>0</v>
       </c>
@@ -5591,20 +5511,20 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>1159878.7</v>
+        <v>3215383.6</v>
       </c>
       <c r="AJ13" s="2">
-        <v>7704984.02</v>
+        <v>17219216.3</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
-        <v>1913912.7</v>
+        <v>3215383.6</v>
       </c>
       <c r="AM13" s="2">
-        <v>9569563.5</v>
+        <v>16076918.0</v>
       </c>
       <c r="AN13" s="2">
-        <v>0</v>
+        <v>3215383.6</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="3"/>
@@ -5618,21 +5538,19 @@
         <v>47</v>
       </c>
       <c r="C14" s="5">
-        <v>1952191.26</v>
+        <v>3536922.4</v>
       </c>
       <c r="D14" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>771530.0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.39521230107341</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="2">
         <v>0</v>
       </c>
@@ -5692,20 +5610,20 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>1180661.26</v>
+        <v>3536922.4</v>
       </c>
       <c r="AJ14" s="2">
-        <v>8885645.28</v>
+        <v>20756138.7</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
-        <v>1952191.26</v>
+        <v>3536922.4</v>
       </c>
       <c r="AM14" s="2">
-        <v>9760956.3</v>
+        <v>17684612.0</v>
       </c>
       <c r="AN14" s="2">
-        <v>0</v>
+        <v>3536922.4</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="3"/>
@@ -5719,21 +5637,19 @@
         <v>48</v>
       </c>
       <c r="C15" s="5">
-        <v>1991234.82</v>
+        <v>3890614.2</v>
       </c>
       <c r="D15" s="3">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2">
-        <v>789375.0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.39642486766076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="2">
         <v>0</v>
       </c>
@@ -5793,20 +5709,20 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>1201859.82</v>
+        <v>3890614.2</v>
       </c>
       <c r="AJ15" s="2">
-        <v>10087505.1</v>
+        <v>24646752.9</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
-        <v>1991234.82</v>
+        <v>3890614.2</v>
       </c>
       <c r="AM15" s="2">
-        <v>9956174.1</v>
+        <v>19453071.0</v>
       </c>
       <c r="AN15" s="2">
-        <v>0</v>
+        <v>3890614.2</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="3"/>
@@ -5820,21 +5736,19 @@
         <v>49</v>
       </c>
       <c r="C16" s="5">
-        <v>2031059.7</v>
+        <v>4279675.4</v>
       </c>
       <c r="D16" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="2">
-        <v>807578.0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.39761411247537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="2">
         <v>0</v>
       </c>
@@ -5894,20 +5808,20 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>1223481.7</v>
+        <v>4279675.4</v>
       </c>
       <c r="AJ16" s="2">
-        <v>11310986.8</v>
+        <v>28926428.3</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
-        <v>2031059.7</v>
+        <v>4279675.4</v>
       </c>
       <c r="AM16" s="2">
-        <v>10155298.5</v>
+        <v>21398377.0</v>
       </c>
       <c r="AN16" s="2">
-        <v>0</v>
+        <v>4279675.4</v>
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="3"/>
@@ -5921,21 +5835,19 @@
         <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>2071681.2</v>
+        <v>4707642.5</v>
       </c>
       <c r="D17" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <v>826144.0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.39877950333285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="2">
         <v>0</v>
       </c>
@@ -5995,20 +5907,20 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>1245537.2</v>
+        <v>4707642.5</v>
       </c>
       <c r="AJ17" s="2">
-        <v>12556524.0</v>
+        <v>33634070.8</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
-        <v>2071681.2</v>
+        <v>4707642.5</v>
       </c>
       <c r="AM17" s="2">
-        <v>10358406.0</v>
+        <v>23538212.5</v>
       </c>
       <c r="AN17" s="2">
-        <v>0</v>
+        <v>4707642.5</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="3"/>
@@ -6022,21 +5934,19 @@
         <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>2113114.62</v>
+        <v>5178407.3</v>
       </c>
       <c r="D18" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
-        <v>845081.0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.3999219881409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="2">
         <v>0</v>
       </c>
@@ -6096,20 +6006,20 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>1268033.62</v>
+        <v>5178407.3</v>
       </c>
       <c r="AJ18" s="2">
-        <v>13824557.62</v>
+        <v>38812478.1</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
-        <v>2113114.62</v>
+        <v>5178407.3</v>
       </c>
       <c r="AM18" s="2">
-        <v>10565573.1</v>
+        <v>25892036.5</v>
       </c>
       <c r="AN18" s="2">
-        <v>0</v>
+        <v>5178407.3</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="3"/>
@@ -6123,21 +6033,19 @@
         <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>2155377.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="D19" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>864398.0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.40104254600807</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="2">
         <v>0</v>
       </c>
@@ -6197,20 +6105,20 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>1290979.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="AJ19" s="2">
-        <v>15115536.92</v>
+        <v>44508725.8</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
-        <v>2155377.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="AM19" s="2">
-        <v>10776886.5</v>
+        <v>28481238.5</v>
       </c>
       <c r="AN19" s="2">
-        <v>0</v>
+        <v>5696247.7</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="3"/>
@@ -6224,21 +6132,19 @@
         <v>53</v>
       </c>
       <c r="C20" s="5">
-        <v>2198484.54</v>
+        <v>6265872.8</v>
       </c>
       <c r="D20" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
-        <v>884100.0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.40214064912187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="2">
         <v>0</v>
       </c>
@@ -6298,20 +6204,20 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>1314384.54</v>
+        <v>6265872.8</v>
       </c>
       <c r="AJ20" s="2">
-        <v>16429921.46</v>
+        <v>50774598.6</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
-        <v>2198484.54</v>
+        <v>6265872.8</v>
       </c>
       <c r="AM20" s="2">
-        <v>10992422.7</v>
+        <v>31329364.0</v>
       </c>
       <c r="AN20" s="2">
-        <v>0</v>
+        <v>6265872.8</v>
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="3"/>
@@ -6325,21 +6231,19 @@
         <v>54</v>
       </c>
       <c r="C21" s="5">
-        <v>2242454.7</v>
+        <v>6892460.3</v>
       </c>
       <c r="D21" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>904198.0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.40321795575179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="2">
         <v>0</v>
       </c>
@@ -6399,20 +6303,20 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>1338256.7</v>
+        <v>6892460.3</v>
       </c>
       <c r="AJ21" s="2">
-        <v>17768178.16</v>
+        <v>57667058.9</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
-        <v>2242454.7</v>
+        <v>6892460.3</v>
       </c>
       <c r="AM21" s="2">
-        <v>11212273.5</v>
+        <v>34462301.5</v>
       </c>
       <c r="AN21" s="2">
-        <v>0</v>
+        <v>6892460.3</v>
       </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="3"/>
@@ -6426,21 +6330,19 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>2287304.1</v>
+        <v>7581706.0</v>
       </c>
       <c r="D22" s="14">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13">
-        <v>924696.0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0.40427331022578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" s="14"/>
       <c r="I22" s="13">
         <v>0</v>
       </c>
@@ -6500,20 +6402,20 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>1362608.1</v>
+        <v>7581706.0</v>
       </c>
       <c r="AJ22" s="13">
-        <v>19130786.26</v>
+        <v>65248764.9</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
-        <v>2287304.1</v>
+        <v>7581706.0</v>
       </c>
       <c r="AM22" s="13">
-        <v>11436520.5</v>
+        <v>37908530.0</v>
       </c>
       <c r="AN22" s="13">
-        <v>0</v>
+        <v>7581706.0</v>
       </c>
       <c r="AO22" s="13"/>
       <c r="AP22" s="14"/>
@@ -6527,21 +6429,19 @@
         <v>56</v>
       </c>
       <c r="C23" s="5">
-        <v>2333050.08</v>
+        <v>8339876.6</v>
       </c>
       <c r="D23" s="3">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="2">
-        <v>945605.0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.40530848784866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="2">
         <v>0</v>
       </c>
@@ -6601,20 +6501,20 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>1387445.08</v>
+        <v>8339876.6</v>
       </c>
       <c r="AJ23" s="2">
-        <v>20518231.34</v>
+        <v>73588641.5</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
-        <v>2333050.08</v>
+        <v>8339876.6</v>
       </c>
       <c r="AM23" s="2">
-        <v>11665250.4</v>
+        <v>41699383.0</v>
       </c>
       <c r="AN23" s="2">
-        <v>0</v>
+        <v>8339876.6</v>
       </c>
       <c r="AO23" s="2"/>
       <c r="AP23" s="3"/>
@@ -6628,21 +6528,19 @@
         <v>57</v>
       </c>
       <c r="C24" s="5">
-        <v>2379711.0</v>
+        <v>9173864.7</v>
       </c>
       <c r="D24" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="2">
-        <v>966932.0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.40632328883633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="2">
         <v>0</v>
       </c>
@@ -6702,20 +6600,20 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>1412779.0</v>
+        <v>9173864.7</v>
       </c>
       <c r="AJ24" s="2">
-        <v>21931010.34</v>
+        <v>82762506.2</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
-        <v>2379711.0</v>
+        <v>9173864.7</v>
       </c>
       <c r="AM24" s="2">
-        <v>11898555.0</v>
+        <v>45869323.5</v>
       </c>
       <c r="AN24" s="2">
-        <v>0</v>
+        <v>9173864.7</v>
       </c>
       <c r="AO24" s="2"/>
       <c r="AP24" s="3"/>
@@ -6729,21 +6627,19 @@
         <v>58</v>
       </c>
       <c r="C25" s="5">
-        <v>2427305.22</v>
+        <v>10091251.5</v>
       </c>
       <c r="D25" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="2">
-        <v>988685.0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.40731795567102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="2">
         <v>0</v>
       </c>
@@ -6803,20 +6699,20 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>1438620.22</v>
+        <v>10091251.5</v>
       </c>
       <c r="AJ25" s="2">
-        <v>23369630.56</v>
+        <v>92853757.7</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
-        <v>2427305.22</v>
+        <v>10091251.5</v>
       </c>
       <c r="AM25" s="2">
-        <v>12136526.1</v>
+        <v>50456257.5</v>
       </c>
       <c r="AN25" s="2">
-        <v>0</v>
+        <v>10091251.5</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="3"/>
@@ -6830,21 +6726,19 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>2475851.1</v>
+        <v>11100377.2</v>
       </c>
       <c r="D26" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>1010874.0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.40829353590771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="2">
         <v>0</v>
       </c>
@@ -6904,20 +6798,20 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>1464977.1</v>
+        <v>11100377.2</v>
       </c>
       <c r="AJ26" s="2">
-        <v>24834607.66</v>
+        <v>103954134.9</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
-        <v>2475851.1</v>
+        <v>11100377.2</v>
       </c>
       <c r="AM26" s="2">
-        <v>12379255.5</v>
+        <v>55501886.0</v>
       </c>
       <c r="AN26" s="2">
-        <v>0</v>
+        <v>11100377.2</v>
       </c>
       <c r="AO26" s="2"/>
       <c r="AP26" s="3"/>
@@ -6931,21 +6825,19 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>2525368.02</v>
+        <v>12210414.7</v>
       </c>
       <c r="D27" s="3">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="2">
-        <v>1033505.0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.40924926260847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="2">
         <v>0</v>
       </c>
@@ -7005,20 +6897,20 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>1491863.02</v>
+        <v>12210414.7</v>
       </c>
       <c r="AJ27" s="2">
-        <v>26326470.68</v>
+        <v>116164549.6</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
-        <v>2525368.02</v>
+        <v>12210414.7</v>
       </c>
       <c r="AM27" s="2">
-        <v>12626840.1</v>
+        <v>61052073.5</v>
       </c>
       <c r="AN27" s="2">
-        <v>0</v>
+        <v>12210414.7</v>
       </c>
       <c r="AO27" s="2"/>
       <c r="AP27" s="3"/>
@@ -7032,21 +6924,19 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>2575875.36</v>
+        <v>13431456.5</v>
       </c>
       <c r="D28" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
-        <v>1056590.0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.41018677239104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="2">
         <v>0</v>
       </c>
@@ -7106,20 +6996,20 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>1519285.36</v>
+        <v>13431456.5</v>
       </c>
       <c r="AJ28" s="2">
-        <v>27845756.04</v>
+        <v>129596006.1</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
-        <v>2575875.36</v>
+        <v>13431456.5</v>
       </c>
       <c r="AM28" s="2">
-        <v>12879376.8</v>
+        <v>67157282.5</v>
       </c>
       <c r="AN28" s="2">
-        <v>0</v>
+        <v>13431456.5</v>
       </c>
       <c r="AO28" s="2"/>
       <c r="AP28" s="3"/>
@@ -7133,21 +7023,19 @@
         <v>62</v>
       </c>
       <c r="C29" s="5">
-        <v>2627392.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="D29" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
-        <v>1080137.0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.41110606808842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="2">
         <v>0</v>
       </c>
@@ -7207,20 +7095,20 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>1547255.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="AJ29" s="2">
-        <v>29393011.54</v>
+        <v>144370608.8</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
-        <v>2627392.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="AM29" s="2">
-        <v>13136962.5</v>
+        <v>73873013.5</v>
       </c>
       <c r="AN29" s="2">
-        <v>0</v>
+        <v>14774602.7</v>
       </c>
       <c r="AO29" s="2"/>
       <c r="AP29" s="3"/>
@@ -7234,21 +7122,19 @@
         <v>63</v>
       </c>
       <c r="C30" s="17">
-        <v>2679940.86</v>
+        <v>16252063.3</v>
       </c>
       <c r="D30" s="18">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E30" s="17">
         <v>0</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>1104155.0</v>
-      </c>
-      <c r="H30" s="18">
-        <v>0.41200722615946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" s="18"/>
       <c r="I30" s="17">
         <v>0</v>
       </c>
@@ -7308,20 +7194,20 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>1575785.86</v>
+        <v>16252063.3</v>
       </c>
       <c r="AJ30" s="17">
-        <v>30968797.4</v>
+        <v>160622672.1</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
-        <v>2679940.86</v>
+        <v>16252063.3</v>
       </c>
       <c r="AM30" s="17">
-        <v>13399704.3</v>
+        <v>81260316.5</v>
       </c>
       <c r="AN30" s="17">
-        <v>0</v>
+        <v>16252063.3</v>
       </c>
       <c r="AO30" s="17"/>
       <c r="AP30" s="18"/>
@@ -7335,21 +7221,19 @@
         <v>64</v>
       </c>
       <c r="C31" s="5">
-        <v>2733539.82</v>
+        <v>17877269.3</v>
       </c>
       <c r="D31" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="2">
-        <v>1128653.0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.41289063789823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="2">
         <v>0</v>
       </c>
@@ -7409,20 +7293,20 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>1604886.82</v>
+        <v>17877269.3</v>
       </c>
       <c r="AJ31" s="2">
-        <v>32573684.22</v>
+        <v>178499941.4</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
-        <v>2733539.82</v>
+        <v>17877269.3</v>
       </c>
       <c r="AM31" s="2">
-        <v>13667699.1</v>
+        <v>89386346.5</v>
       </c>
       <c r="AN31" s="2">
-        <v>0</v>
+        <v>17877269.3</v>
       </c>
       <c r="AO31" s="2"/>
       <c r="AP31" s="3"/>
@@ -7436,21 +7320,19 @@
         <v>65</v>
       </c>
       <c r="C32" s="5">
-        <v>2788210.8</v>
+        <v>19664995.9</v>
       </c>
       <c r="D32" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2">
-        <v>1153640.0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0.41375637738725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="2">
         <v>0</v>
       </c>
@@ -7510,20 +7392,20 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>1634570.8</v>
+        <v>19664995.9</v>
       </c>
       <c r="AJ32" s="2">
-        <v>34208255.02</v>
+        <v>198164937.3</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
-        <v>2788210.8</v>
+        <v>19664995.9</v>
       </c>
       <c r="AM32" s="2">
-        <v>13941054.0</v>
+        <v>98324979.5</v>
       </c>
       <c r="AN32" s="2">
-        <v>0</v>
+        <v>19664995.9</v>
       </c>
       <c r="AO32" s="2"/>
       <c r="AP32" s="3"/>
@@ -7537,21 +7419,19 @@
         <v>66</v>
       </c>
       <c r="C33" s="5">
-        <v>2843975.22</v>
+        <v>21631495.6</v>
       </c>
       <c r="D33" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E33" s="6">
         <v>0</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="2">
-        <v>1179129.0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0.41460593316984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="2">
         <v>0</v>
       </c>
@@ -7611,20 +7491,20 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>1664846.22</v>
+        <v>21631495.6</v>
       </c>
       <c r="AJ33" s="2">
-        <v>35873101.24</v>
+        <v>219796432.9</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
-        <v>2843975.22</v>
+        <v>21631495.6</v>
       </c>
       <c r="AM33" s="2">
-        <v>14219876.1</v>
+        <v>108157478.0</v>
       </c>
       <c r="AN33" s="2">
-        <v>0</v>
+        <v>21631495.6</v>
       </c>
       <c r="AO33" s="2"/>
       <c r="AP33" s="3"/>
@@ -7638,21 +7518,19 @@
         <v>67</v>
       </c>
       <c r="C34" s="17">
-        <v>2900854.5</v>
+        <v>23794645.6</v>
       </c>
       <c r="D34" s="18">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="17">
         <v>0</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17">
-        <v>1205125.0</v>
-      </c>
-      <c r="H34" s="18">
-        <v>0.41543793389155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" s="18"/>
       <c r="I34" s="17">
         <v>0</v>
       </c>
@@ -7712,20 +7590,20 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>1695729.5</v>
+        <v>23794645.6</v>
       </c>
       <c r="AJ34" s="17">
-        <v>37568830.74</v>
+        <v>243591078.5</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
-        <v>2900854.5</v>
+        <v>23794645.6</v>
       </c>
       <c r="AM34" s="17">
-        <v>14504272.5</v>
+        <v>118973228.0</v>
       </c>
       <c r="AN34" s="17">
-        <v>0</v>
+        <v>23794645.6</v>
       </c>
       <c r="AO34" s="17"/>
       <c r="AP34" s="18"/>
@@ -7739,21 +7617,19 @@
         <v>68</v>
       </c>
       <c r="C35" s="5">
-        <v>2958872.1</v>
+        <v>26174110.6</v>
       </c>
       <c r="D35" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="2">
-        <v>1231644.0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.4162545586205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="2">
         <v>0</v>
       </c>
@@ -7813,20 +7689,20 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>1727228.1</v>
+        <v>26174110.6</v>
       </c>
       <c r="AJ35" s="2">
-        <v>39296058.84</v>
+        <v>269765189.1</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
-        <v>2958872.1</v>
+        <v>26174110.6</v>
       </c>
       <c r="AM35" s="2">
-        <v>14794360.5</v>
+        <v>130870553.0</v>
       </c>
       <c r="AN35" s="2">
-        <v>0</v>
+        <v>26174110.6</v>
       </c>
       <c r="AO35" s="2"/>
       <c r="AP35" s="3"/>
@@ -7840,21 +7716,19 @@
         <v>69</v>
       </c>
       <c r="C36" s="5">
-        <v>3018049.44</v>
+        <v>28791522.1</v>
       </c>
       <c r="D36" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="2">
-        <v>1258691.0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.4170544668082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="2">
         <v>0</v>
       </c>
@@ -7914,20 +7788,20 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>1759358.44</v>
+        <v>28791522.1</v>
       </c>
       <c r="AJ36" s="2">
-        <v>41055417.28</v>
+        <v>298556711.2</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
-        <v>3018049.44</v>
+        <v>28791522.1</v>
       </c>
       <c r="AM36" s="2">
-        <v>15090247.2</v>
+        <v>143957610.5</v>
       </c>
       <c r="AN36" s="2">
-        <v>0</v>
+        <v>28791522.1</v>
       </c>
       <c r="AO36" s="2"/>
       <c r="AP36" s="3"/>
@@ -7941,21 +7815,19 @@
         <v>70</v>
       </c>
       <c r="C37" s="5">
-        <v>3078409.98</v>
+        <v>31670674.2</v>
       </c>
       <c r="D37" s="3">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="2">
-        <v>1286279.0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0.41783875713657</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="2">
         <v>0</v>
       </c>
@@ -8015,20 +7887,20 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>1792130.98</v>
+        <v>31670674.2</v>
       </c>
       <c r="AJ37" s="2">
-        <v>42847548.26</v>
+        <v>330227385.4</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
-        <v>3078409.98</v>
+        <v>31670674.2</v>
       </c>
       <c r="AM37" s="2">
-        <v>15392049.9</v>
+        <v>158353371.0</v>
       </c>
       <c r="AN37" s="2">
-        <v>0</v>
+        <v>31670674.2</v>
       </c>
       <c r="AO37" s="2"/>
       <c r="AP37" s="3"/>
@@ -8042,21 +7914,19 @@
         <v>71</v>
       </c>
       <c r="C38" s="5">
-        <v>3139978.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="D38" s="3">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2">
-        <v>1314419.0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0.41860768332723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="2">
         <v>0</v>
       </c>
@@ -8116,20 +7986,20 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>1825559.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="AJ38" s="2">
-        <v>44673107.46</v>
+        <v>365065126.8</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
-        <v>3139978.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="AM38" s="2">
-        <v>15699891.0</v>
+        <v>174188707.0</v>
       </c>
       <c r="AN38" s="2">
-        <v>0</v>
+        <v>34837741.4</v>
       </c>
       <c r="AO38" s="2"/>
       <c r="AP38" s="3"/>
@@ -8143,21 +8013,19 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>3202777.56</v>
+        <v>38321515.1</v>
       </c>
       <c r="D39" s="3">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="2">
-        <v>1343123.0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.41936193658107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="2">
         <v>0</v>
       </c>
@@ -8217,20 +8085,20 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>1859654.56</v>
+        <v>38321515.1</v>
       </c>
       <c r="AJ39" s="2">
-        <v>46532762.02</v>
+        <v>403386641.9</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
-        <v>3202777.56</v>
+        <v>38321515.1</v>
       </c>
       <c r="AM39" s="2">
-        <v>16013887.8</v>
+        <v>191607575.5</v>
       </c>
       <c r="AN39" s="2">
-        <v>0</v>
+        <v>38321515.1</v>
       </c>
       <c r="AO39" s="2"/>
       <c r="AP39" s="3"/>
@@ -8649,9 +8517,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
@@ -8708,9 +8574,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="10"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
@@ -8767,9 +8631,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
@@ -8826,9 +8688,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
@@ -8885,9 +8745,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
@@ -8944,9 +8802,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
@@ -9003,9 +8859,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
@@ -9062,9 +8916,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -9121,9 +8973,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
@@ -9180,9 +9030,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
@@ -9239,9 +9087,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
@@ -9298,9 +9144,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
@@ -9357,9 +9201,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
@@ -9416,9 +9258,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
@@ -9475,9 +9315,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
@@ -9534,9 +9372,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
@@ -9593,9 +9429,7 @@
       <c r="D22" s="14"/>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
+      <c r="G22" s="13"/>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
       <c r="J22" s="14"/>
@@ -9652,9 +9486,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
@@ -9711,9 +9543,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
@@ -9770,9 +9600,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
@@ -9829,9 +9657,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
@@ -9888,9 +9714,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
@@ -9947,9 +9771,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="6"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
       <c r="J28" s="3"/>
@@ -10006,9 +9828,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="6"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
@@ -10065,9 +9885,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
+      <c r="G30" s="17"/>
       <c r="H30" s="18"/>
       <c r="I30" s="17"/>
       <c r="J30" s="18"/>
@@ -10124,9 +9942,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="6"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
@@ -10183,9 +9999,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="6"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3"/>
@@ -10242,9 +10056,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="6"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
       <c r="J33" s="3"/>
@@ -10301,9 +10113,7 @@
       <c r="D34" s="18"/>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
+      <c r="G34" s="17"/>
       <c r="H34" s="18"/>
       <c r="I34" s="17"/>
       <c r="J34" s="18"/>
@@ -10360,9 +10170,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="6"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
+      <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
       <c r="J35" s="3"/>
@@ -10419,9 +10227,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="6"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
       <c r="J36" s="3"/>
@@ -10478,9 +10284,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
@@ -10537,9 +10341,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="6"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
       <c r="J38" s="3"/>
@@ -10596,9 +10398,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="6"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="3"/>
       <c r="I39" s="2"/>
       <c r="J39" s="3"/>
@@ -10801,11 +10601,11 @@
   <cols>
     <col min="1" max="1" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -10833,12 +10633,12 @@
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -11084,14 +10884,16 @@
         <v>0</v>
       </c>
       <c r="U6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="6">
         <v>0</v>
       </c>
       <c r="X6" s="3"/>
-      <c r="Y6" s="6"/>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
@@ -11102,7 +10904,7 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="3"/>
@@ -11129,19 +10931,17 @@
         <v>40</v>
       </c>
       <c r="C7" s="9">
-        <v>1699500.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="D7" s="10">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9">
-        <v>656035.0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="9"/>
@@ -11161,14 +10961,16 @@
         <v>0</v>
       </c>
       <c r="U7" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="9">
         <v>0</v>
       </c>
       <c r="X7" s="10"/>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
       <c r="Z7" s="11"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
@@ -11179,23 +10981,25 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1043465.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1043465.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
-        <v>1699500.0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AM7" s="9">
-        <v>8497500.0</v>
+        <v>9075000.0</v>
       </c>
       <c r="AN7" s="9">
-        <v>0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AO7" s="9"/>
-      <c r="AP7" s="10"/>
+      <c r="AP7" s="10">
+        <v>0.01</v>
+      </c>
       <c r="AQ7" s="9" t="s">
         <v>55</v>
       </c>
@@ -11208,19 +11012,17 @@
         <v>41</v>
       </c>
       <c r="C8" s="5">
-        <v>1733490.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="D8" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>671570.0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
@@ -11240,14 +11042,16 @@
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="6">
         <v>0</v>
       </c>
       <c r="X8" s="3"/>
-      <c r="Y8" s="6"/>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -11258,23 +11062,25 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1061920.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>2105385.0</v>
+        <v>3811500.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
-        <v>1733490.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AM8" s="2">
-        <v>8667450.0</v>
+        <v>9982500.0</v>
       </c>
       <c r="AN8" s="2">
-        <v>0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AO8" s="2"/>
-      <c r="AP8" s="3"/>
+      <c r="AP8" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ8" s="2" t="s">
         <v>56</v>
       </c>
@@ -11287,19 +11093,17 @@
         <v>42</v>
       </c>
       <c r="C9" s="5">
-        <v>1768159.8</v>
+        <v>2196150.0</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2">
-        <v>687415.0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
@@ -11319,14 +11123,16 @@
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="6">
         <v>0</v>
       </c>
       <c r="X9" s="3"/>
-      <c r="Y9" s="6"/>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -11337,23 +11143,25 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>1080744.8</v>
+        <v>2196150.0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>3186129.8</v>
+        <v>6007650.0</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
-        <v>1768159.8</v>
+        <v>2196150.0</v>
       </c>
       <c r="AM9" s="2">
-        <v>8840799.0</v>
+        <v>10980750.0</v>
       </c>
       <c r="AN9" s="2">
-        <v>0</v>
+        <v>2196150.0</v>
       </c>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="3"/>
+      <c r="AP9" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ9" s="2" t="s">
         <v>57</v>
       </c>
@@ -11366,19 +11174,17 @@
         <v>43</v>
       </c>
       <c r="C10" s="5">
-        <v>1803523.2</v>
+        <v>2415765.0</v>
       </c>
       <c r="D10" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
       <c r="G10" s="2">
-        <v>703579.0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
@@ -11398,14 +11204,16 @@
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="6">
         <v>0</v>
       </c>
       <c r="X10" s="3"/>
-      <c r="Y10" s="6"/>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -11416,23 +11224,25 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>1099944.2</v>
+        <v>2415765.0</v>
       </c>
       <c r="AJ10" s="2">
-        <v>4286074.0</v>
+        <v>8423415.0</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
-        <v>1803523.2</v>
+        <v>2415765.0</v>
       </c>
       <c r="AM10" s="2">
-        <v>9017616.0</v>
+        <v>12078825.0</v>
       </c>
       <c r="AN10" s="2">
-        <v>0</v>
+        <v>2415765.0</v>
       </c>
       <c r="AO10" s="2"/>
-      <c r="AP10" s="3"/>
+      <c r="AP10" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ10" s="2" t="s">
         <v>58</v>
       </c>
@@ -11445,19 +11255,17 @@
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>1839593.46</v>
+        <v>2657341.5</v>
       </c>
       <c r="D11" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
-        <v>720066.0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
@@ -11477,14 +11285,16 @@
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V11" s="3"/>
       <c r="W11" s="6">
         <v>0</v>
       </c>
       <c r="X11" s="3"/>
-      <c r="Y11" s="6"/>
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
       <c r="Z11" s="4"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -11495,23 +11305,25 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>1119527.46</v>
+        <v>2657341.5</v>
       </c>
       <c r="AJ11" s="2">
-        <v>5405601.46</v>
+        <v>11080756.5</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
-        <v>1839593.46</v>
+        <v>2657341.5</v>
       </c>
       <c r="AM11" s="2">
-        <v>9197967.3</v>
+        <v>13286707.5</v>
       </c>
       <c r="AN11" s="2">
-        <v>0</v>
+        <v>2657341.5</v>
       </c>
       <c r="AO11" s="2"/>
-      <c r="AP11" s="3"/>
+      <c r="AP11" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ11" s="2" t="s">
         <v>59</v>
       </c>
@@ -11524,19 +11336,17 @@
         <v>45</v>
       </c>
       <c r="C12" s="5">
-        <v>1876384.86</v>
+        <v>2923076.2</v>
       </c>
       <c r="D12" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2">
-        <v>736881.0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
@@ -11556,14 +11366,16 @@
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3"/>
       <c r="W12" s="6">
         <v>0</v>
       </c>
       <c r="X12" s="3"/>
-      <c r="Y12" s="6"/>
+      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -11574,23 +11386,25 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>1139503.86</v>
+        <v>2923076.2</v>
       </c>
       <c r="AJ12" s="2">
-        <v>6545105.32</v>
+        <v>14003832.7</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
-        <v>1876384.86</v>
+        <v>2923076.2</v>
       </c>
       <c r="AM12" s="2">
-        <v>9381924.3</v>
+        <v>14615381.0</v>
       </c>
       <c r="AN12" s="2">
-        <v>0</v>
+        <v>2923076.2</v>
       </c>
       <c r="AO12" s="2"/>
-      <c r="AP12" s="3"/>
+      <c r="AP12" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ12" s="2" t="s">
         <v>60</v>
       </c>
@@ -11603,19 +11417,17 @@
         <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>1913912.7</v>
+        <v>3215383.6</v>
       </c>
       <c r="D13" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2">
-        <v>754034.0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
@@ -11635,14 +11447,16 @@
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="6">
         <v>0</v>
       </c>
       <c r="X13" s="3"/>
-      <c r="Y13" s="6"/>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -11653,23 +11467,25 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>1159878.7</v>
+        <v>3215383.6</v>
       </c>
       <c r="AJ13" s="2">
-        <v>7704984.02</v>
+        <v>17219216.3</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
-        <v>1913912.7</v>
+        <v>3215383.6</v>
       </c>
       <c r="AM13" s="2">
-        <v>9569563.5</v>
+        <v>16076918.0</v>
       </c>
       <c r="AN13" s="2">
-        <v>0</v>
+        <v>3215383.6</v>
       </c>
       <c r="AO13" s="2"/>
-      <c r="AP13" s="3"/>
+      <c r="AP13" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ13" s="2" t="s">
         <v>61</v>
       </c>
@@ -11682,19 +11498,17 @@
         <v>47</v>
       </c>
       <c r="C14" s="5">
-        <v>1952191.26</v>
+        <v>3536922.4</v>
       </c>
       <c r="D14" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>771530.0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
@@ -11714,14 +11528,16 @@
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="6">
         <v>0</v>
       </c>
       <c r="X14" s="3"/>
-      <c r="Y14" s="6"/>
+      <c r="Y14" s="6">
+        <v>0</v>
+      </c>
       <c r="Z14" s="4"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -11732,23 +11548,25 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>1180661.26</v>
+        <v>3536922.4</v>
       </c>
       <c r="AJ14" s="2">
-        <v>8885645.28</v>
+        <v>20756138.7</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
-        <v>1952191.26</v>
+        <v>3536922.4</v>
       </c>
       <c r="AM14" s="2">
-        <v>9760956.3</v>
+        <v>17684612.0</v>
       </c>
       <c r="AN14" s="2">
-        <v>0</v>
+        <v>3536922.4</v>
       </c>
       <c r="AO14" s="2"/>
-      <c r="AP14" s="3"/>
+      <c r="AP14" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ14" s="2" t="s">
         <v>62</v>
       </c>
@@ -11761,19 +11579,17 @@
         <v>48</v>
       </c>
       <c r="C15" s="5">
-        <v>1991234.82</v>
+        <v>3890614.2</v>
       </c>
       <c r="D15" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2">
-        <v>789375.0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
@@ -11793,14 +11609,16 @@
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15" s="6">
         <v>0</v>
       </c>
       <c r="X15" s="3"/>
-      <c r="Y15" s="6"/>
+      <c r="Y15" s="6">
+        <v>0</v>
+      </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -11811,23 +11629,25 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>1201859.82</v>
+        <v>3890614.2</v>
       </c>
       <c r="AJ15" s="2">
-        <v>10087505.1</v>
+        <v>24646752.9</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
-        <v>1991234.82</v>
+        <v>3890614.2</v>
       </c>
       <c r="AM15" s="2">
-        <v>9956174.1</v>
+        <v>19453071.0</v>
       </c>
       <c r="AN15" s="2">
-        <v>0</v>
+        <v>3890614.2</v>
       </c>
       <c r="AO15" s="2"/>
-      <c r="AP15" s="3"/>
+      <c r="AP15" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ15" s="2" t="s">
         <v>63</v>
       </c>
@@ -11840,19 +11660,17 @@
         <v>49</v>
       </c>
       <c r="C16" s="5">
-        <v>2031059.7</v>
+        <v>4279675.4</v>
       </c>
       <c r="D16" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="3"/>
       <c r="G16" s="2">
-        <v>807578.0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
@@ -11872,14 +11690,16 @@
         <v>0</v>
       </c>
       <c r="U16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="6">
         <v>0</v>
       </c>
       <c r="X16" s="3"/>
-      <c r="Y16" s="6"/>
+      <c r="Y16" s="6">
+        <v>0</v>
+      </c>
       <c r="Z16" s="4"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -11890,23 +11710,25 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>1223481.7</v>
+        <v>4279675.4</v>
       </c>
       <c r="AJ16" s="2">
-        <v>11310986.8</v>
+        <v>28926428.3</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
-        <v>2031059.7</v>
+        <v>4279675.4</v>
       </c>
       <c r="AM16" s="2">
-        <v>10155298.5</v>
+        <v>21398377.0</v>
       </c>
       <c r="AN16" s="2">
-        <v>0</v>
+        <v>4279675.4</v>
       </c>
       <c r="AO16" s="2"/>
-      <c r="AP16" s="3"/>
+      <c r="AP16" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ16" s="2" t="s">
         <v>64</v>
       </c>
@@ -11919,19 +11741,17 @@
         <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>2071681.2</v>
+        <v>4707642.5</v>
       </c>
       <c r="D17" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="3"/>
       <c r="G17" s="2">
-        <v>826144.0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
@@ -11951,14 +11771,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="6">
         <v>0</v>
       </c>
       <c r="X17" s="3"/>
-      <c r="Y17" s="6"/>
+      <c r="Y17" s="6">
+        <v>0</v>
+      </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -11969,23 +11791,25 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>1245537.2</v>
+        <v>4707642.5</v>
       </c>
       <c r="AJ17" s="2">
-        <v>12556524.0</v>
+        <v>33634070.8</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
-        <v>2071681.2</v>
+        <v>4707642.5</v>
       </c>
       <c r="AM17" s="2">
-        <v>10358406.0</v>
+        <v>23538212.5</v>
       </c>
       <c r="AN17" s="2">
-        <v>0</v>
+        <v>4707642.5</v>
       </c>
       <c r="AO17" s="2"/>
-      <c r="AP17" s="3"/>
+      <c r="AP17" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ17" s="2" t="s">
         <v>65</v>
       </c>
@@ -11998,19 +11822,17 @@
         <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>2113114.62</v>
+        <v>5178407.3</v>
       </c>
       <c r="D18" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2">
-        <v>845081.0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
@@ -12030,14 +11852,16 @@
         <v>0</v>
       </c>
       <c r="U18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="6">
         <v>0</v>
       </c>
       <c r="X18" s="3"/>
-      <c r="Y18" s="6"/>
+      <c r="Y18" s="6">
+        <v>0</v>
+      </c>
       <c r="Z18" s="4"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -12048,23 +11872,25 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>1268033.62</v>
+        <v>5178407.3</v>
       </c>
       <c r="AJ18" s="2">
-        <v>13824557.62</v>
+        <v>38812478.1</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
-        <v>2113114.62</v>
+        <v>5178407.3</v>
       </c>
       <c r="AM18" s="2">
-        <v>10565573.1</v>
+        <v>25892036.5</v>
       </c>
       <c r="AN18" s="2">
-        <v>0</v>
+        <v>5178407.3</v>
       </c>
       <c r="AO18" s="2"/>
-      <c r="AP18" s="3"/>
+      <c r="AP18" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ18" s="2" t="s">
         <v>66</v>
       </c>
@@ -12077,19 +11903,17 @@
         <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>2155377.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="D19" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>864398.0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
@@ -12109,14 +11933,16 @@
         <v>0</v>
       </c>
       <c r="U19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="6">
         <v>0</v>
       </c>
       <c r="X19" s="3"/>
-      <c r="Y19" s="6"/>
+      <c r="Y19" s="6">
+        <v>0</v>
+      </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -12127,23 +11953,25 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>1290979.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="AJ19" s="2">
-        <v>15115536.92</v>
+        <v>44508725.8</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
-        <v>2155377.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="AM19" s="2">
-        <v>10776886.5</v>
+        <v>28481238.5</v>
       </c>
       <c r="AN19" s="2">
-        <v>0</v>
+        <v>5696247.7</v>
       </c>
       <c r="AO19" s="2"/>
-      <c r="AP19" s="3"/>
+      <c r="AP19" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ19" s="2" t="s">
         <v>67</v>
       </c>
@@ -12156,19 +11984,17 @@
         <v>53</v>
       </c>
       <c r="C20" s="5">
-        <v>2198484.54</v>
+        <v>6265872.8</v>
       </c>
       <c r="D20" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2">
-        <v>884100.0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
@@ -12188,14 +12014,16 @@
         <v>0</v>
       </c>
       <c r="U20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="6">
         <v>0</v>
       </c>
       <c r="X20" s="3"/>
-      <c r="Y20" s="6"/>
+      <c r="Y20" s="6">
+        <v>0</v>
+      </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -12206,23 +12034,25 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>1314384.54</v>
+        <v>6265872.8</v>
       </c>
       <c r="AJ20" s="2">
-        <v>16429921.46</v>
+        <v>50774598.6</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
-        <v>2198484.54</v>
+        <v>6265872.8</v>
       </c>
       <c r="AM20" s="2">
-        <v>10992422.7</v>
+        <v>31329364.0</v>
       </c>
       <c r="AN20" s="2">
-        <v>0</v>
+        <v>6265872.8</v>
       </c>
       <c r="AO20" s="2"/>
-      <c r="AP20" s="3"/>
+      <c r="AP20" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ20" s="2" t="s">
         <v>68</v>
       </c>
@@ -12235,19 +12065,17 @@
         <v>54</v>
       </c>
       <c r="C21" s="5">
-        <v>2242454.7</v>
+        <v>6892460.3</v>
       </c>
       <c r="D21" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>904198.0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
@@ -12267,14 +12095,16 @@
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="6">
         <v>0</v>
       </c>
       <c r="X21" s="3"/>
-      <c r="Y21" s="6"/>
+      <c r="Y21" s="6">
+        <v>0</v>
+      </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -12285,23 +12115,25 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>1338256.7</v>
+        <v>6892460.3</v>
       </c>
       <c r="AJ21" s="2">
-        <v>17768178.16</v>
+        <v>57667058.9</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
-        <v>2242454.7</v>
+        <v>6892460.3</v>
       </c>
       <c r="AM21" s="2">
-        <v>11212273.5</v>
+        <v>34462301.5</v>
       </c>
       <c r="AN21" s="2">
-        <v>0</v>
+        <v>6892460.3</v>
       </c>
       <c r="AO21" s="2"/>
-      <c r="AP21" s="3"/>
+      <c r="AP21" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ21" s="2" t="s">
         <v>69</v>
       </c>
@@ -12314,19 +12146,17 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>2287304.1</v>
+        <v>7581706.0</v>
       </c>
       <c r="D22" s="14">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
       <c r="G22" s="13">
-        <v>924696.0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" s="14"/>
       <c r="I22" s="13"/>
       <c r="J22" s="14"/>
       <c r="K22" s="13"/>
@@ -12346,14 +12176,16 @@
         <v>0</v>
       </c>
       <c r="U22" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V22" s="14"/>
       <c r="W22" s="13">
         <v>0</v>
       </c>
       <c r="X22" s="14"/>
-      <c r="Y22" s="13"/>
+      <c r="Y22" s="13">
+        <v>0</v>
+      </c>
       <c r="Z22" s="15"/>
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
@@ -12364,23 +12196,25 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>1362608.1</v>
+        <v>7581706.0</v>
       </c>
       <c r="AJ22" s="13">
-        <v>19130786.26</v>
+        <v>65248764.9</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
-        <v>2287304.1</v>
+        <v>7581706.0</v>
       </c>
       <c r="AM22" s="13">
-        <v>11436520.5</v>
+        <v>37908530.0</v>
       </c>
       <c r="AN22" s="13">
-        <v>0</v>
+        <v>7581706.0</v>
       </c>
       <c r="AO22" s="13"/>
-      <c r="AP22" s="14"/>
+      <c r="AP22" s="14">
+        <v>0.01</v>
+      </c>
       <c r="AQ22" s="13" t="s">
         <v>70</v>
       </c>
@@ -12393,19 +12227,17 @@
         <v>56</v>
       </c>
       <c r="C23" s="5">
-        <v>2333050.08</v>
+        <v>8339876.6</v>
       </c>
       <c r="D23" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2">
-        <v>945605.0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2"/>
@@ -12425,14 +12257,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="6">
         <v>0</v>
       </c>
       <c r="X23" s="3"/>
-      <c r="Y23" s="6"/>
+      <c r="Y23" s="6">
+        <v>0</v>
+      </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -12443,23 +12277,25 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>1387445.08</v>
+        <v>8339876.6</v>
       </c>
       <c r="AJ23" s="2">
-        <v>20518231.34</v>
+        <v>73588641.5</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
-        <v>2333050.08</v>
+        <v>8339876.6</v>
       </c>
       <c r="AM23" s="2">
-        <v>11665250.4</v>
+        <v>41699383.0</v>
       </c>
       <c r="AN23" s="2">
-        <v>0</v>
+        <v>8339876.6</v>
       </c>
       <c r="AO23" s="2"/>
-      <c r="AP23" s="3"/>
+      <c r="AP23" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ23" s="2" t="s">
         <v>71</v>
       </c>
@@ -12472,19 +12308,17 @@
         <v>57</v>
       </c>
       <c r="C24" s="5">
-        <v>2379711.0</v>
+        <v>9173864.7</v>
       </c>
       <c r="D24" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2">
-        <v>966932.0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="2"/>
@@ -12504,14 +12338,16 @@
         <v>0</v>
       </c>
       <c r="U24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="6">
         <v>0</v>
       </c>
       <c r="X24" s="3"/>
-      <c r="Y24" s="6"/>
+      <c r="Y24" s="6">
+        <v>0</v>
+      </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -12522,23 +12358,25 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>1412779.0</v>
+        <v>9173864.7</v>
       </c>
       <c r="AJ24" s="2">
-        <v>21931010.34</v>
+        <v>82762506.2</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
-        <v>2379711.0</v>
+        <v>9173864.7</v>
       </c>
       <c r="AM24" s="2">
-        <v>11898555.0</v>
+        <v>45869323.5</v>
       </c>
       <c r="AN24" s="2">
-        <v>0</v>
+        <v>9173864.7</v>
       </c>
       <c r="AO24" s="2"/>
-      <c r="AP24" s="3"/>
+      <c r="AP24" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ24" s="2" t="s">
         <v>72</v>
       </c>
@@ -12551,19 +12389,17 @@
         <v>58</v>
       </c>
       <c r="C25" s="5">
-        <v>2427305.22</v>
+        <v>10091251.5</v>
       </c>
       <c r="D25" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2">
-        <v>988685.0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
       <c r="K25" s="2"/>
@@ -12583,14 +12419,16 @@
         <v>0</v>
       </c>
       <c r="U25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="6">
         <v>0</v>
       </c>
       <c r="X25" s="3"/>
-      <c r="Y25" s="6"/>
+      <c r="Y25" s="6">
+        <v>0</v>
+      </c>
       <c r="Z25" s="4"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
@@ -12601,23 +12439,25 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>1438620.22</v>
+        <v>10091251.5</v>
       </c>
       <c r="AJ25" s="2">
-        <v>23369630.56</v>
+        <v>92853757.7</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
-        <v>2427305.22</v>
+        <v>10091251.5</v>
       </c>
       <c r="AM25" s="2">
-        <v>12136526.1</v>
+        <v>50456257.5</v>
       </c>
       <c r="AN25" s="2">
-        <v>0</v>
+        <v>10091251.5</v>
       </c>
       <c r="AO25" s="2"/>
-      <c r="AP25" s="3"/>
+      <c r="AP25" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ25" s="2" t="s">
         <v>73</v>
       </c>
@@ -12630,19 +12470,17 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>2475851.1</v>
+        <v>11100377.2</v>
       </c>
       <c r="D26" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>1010874.0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
@@ -12662,14 +12500,16 @@
         <v>0</v>
       </c>
       <c r="U26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="6">
         <v>0</v>
       </c>
       <c r="X26" s="3"/>
-      <c r="Y26" s="6"/>
+      <c r="Y26" s="6">
+        <v>0</v>
+      </c>
       <c r="Z26" s="4"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -12680,23 +12520,25 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>1464977.1</v>
+        <v>11100377.2</v>
       </c>
       <c r="AJ26" s="2">
-        <v>24834607.66</v>
+        <v>103954134.9</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
-        <v>2475851.1</v>
+        <v>11100377.2</v>
       </c>
       <c r="AM26" s="2">
-        <v>12379255.5</v>
+        <v>55501886.0</v>
       </c>
       <c r="AN26" s="2">
-        <v>0</v>
+        <v>11100377.2</v>
       </c>
       <c r="AO26" s="2"/>
-      <c r="AP26" s="3"/>
+      <c r="AP26" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ26" s="2" t="s">
         <v>74</v>
       </c>
@@ -12709,19 +12551,17 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>2525368.02</v>
+        <v>12210414.7</v>
       </c>
       <c r="D27" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2">
-        <v>1033505.0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
       <c r="K27" s="2"/>
@@ -12741,14 +12581,16 @@
         <v>0</v>
       </c>
       <c r="U27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="6">
         <v>0</v>
       </c>
       <c r="X27" s="3"/>
-      <c r="Y27" s="6"/>
+      <c r="Y27" s="6">
+        <v>0</v>
+      </c>
       <c r="Z27" s="4"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
@@ -12759,23 +12601,25 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>1491863.02</v>
+        <v>12210414.7</v>
       </c>
       <c r="AJ27" s="2">
-        <v>26326470.68</v>
+        <v>116164549.6</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
-        <v>2525368.02</v>
+        <v>12210414.7</v>
       </c>
       <c r="AM27" s="2">
-        <v>12626840.1</v>
+        <v>61052073.5</v>
       </c>
       <c r="AN27" s="2">
-        <v>0</v>
+        <v>12210414.7</v>
       </c>
       <c r="AO27" s="2"/>
-      <c r="AP27" s="3"/>
+      <c r="AP27" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ27" s="2" t="s">
         <v>75</v>
       </c>
@@ -12788,19 +12632,17 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>2575875.36</v>
+        <v>13431456.5</v>
       </c>
       <c r="D28" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2">
-        <v>1056590.0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="2"/>
       <c r="J28" s="3"/>
       <c r="K28" s="2"/>
@@ -12820,14 +12662,16 @@
         <v>0</v>
       </c>
       <c r="U28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="6">
         <v>0</v>
       </c>
       <c r="X28" s="3"/>
-      <c r="Y28" s="6"/>
+      <c r="Y28" s="6">
+        <v>0</v>
+      </c>
       <c r="Z28" s="4"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -12838,23 +12682,25 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>1519285.36</v>
+        <v>13431456.5</v>
       </c>
       <c r="AJ28" s="2">
-        <v>27845756.04</v>
+        <v>129596006.1</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
-        <v>2575875.36</v>
+        <v>13431456.5</v>
       </c>
       <c r="AM28" s="2">
-        <v>12879376.8</v>
+        <v>67157282.5</v>
       </c>
       <c r="AN28" s="2">
-        <v>0</v>
+        <v>13431456.5</v>
       </c>
       <c r="AO28" s="2"/>
-      <c r="AP28" s="3"/>
+      <c r="AP28" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ28" s="2" t="s">
         <v>76</v>
       </c>
@@ -12867,19 +12713,17 @@
         <v>62</v>
       </c>
       <c r="C29" s="5">
-        <v>2627392.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="D29" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2">
-        <v>1080137.0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
       <c r="K29" s="2"/>
@@ -12899,14 +12743,16 @@
         <v>0</v>
       </c>
       <c r="U29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="6">
         <v>0</v>
       </c>
       <c r="X29" s="3"/>
-      <c r="Y29" s="6"/>
+      <c r="Y29" s="6">
+        <v>0</v>
+      </c>
       <c r="Z29" s="4"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -12917,23 +12763,25 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>1547255.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="AJ29" s="2">
-        <v>29393011.54</v>
+        <v>144370608.8</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
-        <v>2627392.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="AM29" s="2">
-        <v>13136962.5</v>
+        <v>73873013.5</v>
       </c>
       <c r="AN29" s="2">
-        <v>0</v>
+        <v>14774602.7</v>
       </c>
       <c r="AO29" s="2"/>
-      <c r="AP29" s="3"/>
+      <c r="AP29" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ29" s="2" t="s">
         <v>77</v>
       </c>
@@ -12946,19 +12794,17 @@
         <v>63</v>
       </c>
       <c r="C30" s="17">
-        <v>2679940.86</v>
+        <v>16252063.3</v>
       </c>
       <c r="D30" s="18">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>1104155.0</v>
-      </c>
-      <c r="H30" s="18">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" s="18"/>
       <c r="I30" s="17"/>
       <c r="J30" s="18"/>
       <c r="K30" s="17"/>
@@ -12978,14 +12824,16 @@
         <v>0</v>
       </c>
       <c r="U30" s="17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V30" s="18"/>
       <c r="W30" s="17">
         <v>0</v>
       </c>
       <c r="X30" s="18"/>
-      <c r="Y30" s="17"/>
+      <c r="Y30" s="17">
+        <v>0</v>
+      </c>
       <c r="Z30" s="19"/>
       <c r="AA30" s="17"/>
       <c r="AB30" s="17"/>
@@ -12996,23 +12844,25 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>1575785.86</v>
+        <v>16252063.3</v>
       </c>
       <c r="AJ30" s="17">
-        <v>30968797.4</v>
+        <v>160622672.1</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
-        <v>2679940.86</v>
+        <v>16252063.3</v>
       </c>
       <c r="AM30" s="17">
-        <v>13399704.3</v>
+        <v>81260316.5</v>
       </c>
       <c r="AN30" s="17">
-        <v>0</v>
+        <v>16252063.3</v>
       </c>
       <c r="AO30" s="17"/>
-      <c r="AP30" s="18"/>
+      <c r="AP30" s="18">
+        <v>0.01</v>
+      </c>
       <c r="AQ30" s="17" t="s">
         <v>78</v>
       </c>
@@ -13025,19 +12875,17 @@
         <v>64</v>
       </c>
       <c r="C31" s="5">
-        <v>2733539.82</v>
+        <v>17877269.3</v>
       </c>
       <c r="D31" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2">
-        <v>1128653.0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
       <c r="K31" s="2"/>
@@ -13057,14 +12905,16 @@
         <v>0</v>
       </c>
       <c r="U31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="6">
         <v>0</v>
       </c>
       <c r="X31" s="3"/>
-      <c r="Y31" s="6"/>
+      <c r="Y31" s="6">
+        <v>0</v>
+      </c>
       <c r="Z31" s="4"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
@@ -13075,23 +12925,25 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>1604886.82</v>
+        <v>17877269.3</v>
       </c>
       <c r="AJ31" s="2">
-        <v>32573684.22</v>
+        <v>178499941.4</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
-        <v>2733539.82</v>
+        <v>17877269.3</v>
       </c>
       <c r="AM31" s="2">
-        <v>13667699.1</v>
+        <v>89386346.5</v>
       </c>
       <c r="AN31" s="2">
-        <v>0</v>
+        <v>17877269.3</v>
       </c>
       <c r="AO31" s="2"/>
-      <c r="AP31" s="3"/>
+      <c r="AP31" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ31" s="2" t="s">
         <v>79</v>
       </c>
@@ -13104,19 +12956,17 @@
         <v>65</v>
       </c>
       <c r="C32" s="5">
-        <v>2788210.8</v>
+        <v>19664995.9</v>
       </c>
       <c r="D32" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="3"/>
       <c r="G32" s="2">
-        <v>1153640.0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3"/>
       <c r="K32" s="2"/>
@@ -13136,14 +12986,16 @@
         <v>0</v>
       </c>
       <c r="U32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="6">
         <v>0</v>
       </c>
       <c r="X32" s="3"/>
-      <c r="Y32" s="6"/>
+      <c r="Y32" s="6">
+        <v>0</v>
+      </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
@@ -13154,23 +13006,25 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>1634570.8</v>
+        <v>19664995.9</v>
       </c>
       <c r="AJ32" s="2">
-        <v>34208255.02</v>
+        <v>198164937.3</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
-        <v>2788210.8</v>
+        <v>19664995.9</v>
       </c>
       <c r="AM32" s="2">
-        <v>13941054.0</v>
+        <v>98324979.5</v>
       </c>
       <c r="AN32" s="2">
-        <v>0</v>
+        <v>19664995.9</v>
       </c>
       <c r="AO32" s="2"/>
-      <c r="AP32" s="3"/>
+      <c r="AP32" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ32" s="2" t="s">
         <v>80</v>
       </c>
@@ -13183,19 +13037,17 @@
         <v>66</v>
       </c>
       <c r="C33" s="5">
-        <v>2843975.22</v>
+        <v>21631495.6</v>
       </c>
       <c r="D33" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2">
-        <v>1179129.0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="2"/>
       <c r="J33" s="3"/>
       <c r="K33" s="2"/>
@@ -13215,14 +13067,16 @@
         <v>0</v>
       </c>
       <c r="U33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="6">
         <v>0</v>
       </c>
       <c r="X33" s="3"/>
-      <c r="Y33" s="6"/>
+      <c r="Y33" s="6">
+        <v>0</v>
+      </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
@@ -13233,23 +13087,25 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>1664846.22</v>
+        <v>21631495.6</v>
       </c>
       <c r="AJ33" s="2">
-        <v>35873101.24</v>
+        <v>219796432.9</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
-        <v>2843975.22</v>
+        <v>21631495.6</v>
       </c>
       <c r="AM33" s="2">
-        <v>14219876.1</v>
+        <v>108157478.0</v>
       </c>
       <c r="AN33" s="2">
-        <v>0</v>
+        <v>21631495.6</v>
       </c>
       <c r="AO33" s="2"/>
-      <c r="AP33" s="3"/>
+      <c r="AP33" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ33" s="2" t="s">
         <v>81</v>
       </c>
@@ -13262,19 +13118,17 @@
         <v>67</v>
       </c>
       <c r="C34" s="17">
-        <v>2900854.5</v>
+        <v>23794645.6</v>
       </c>
       <c r="D34" s="18">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
       <c r="G34" s="17">
-        <v>1205125.0</v>
-      </c>
-      <c r="H34" s="18">
-        <v>0.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" s="18"/>
       <c r="I34" s="17"/>
       <c r="J34" s="18"/>
       <c r="K34" s="17"/>
@@ -13294,14 +13148,16 @@
         <v>0</v>
       </c>
       <c r="U34" s="17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V34" s="18"/>
       <c r="W34" s="17">
         <v>0</v>
       </c>
       <c r="X34" s="18"/>
-      <c r="Y34" s="17"/>
+      <c r="Y34" s="17">
+        <v>0</v>
+      </c>
       <c r="Z34" s="19"/>
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
@@ -13312,23 +13168,25 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>1695729.5</v>
+        <v>23794645.6</v>
       </c>
       <c r="AJ34" s="17">
-        <v>37568830.74</v>
+        <v>243591078.5</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
-        <v>2900854.5</v>
+        <v>23794645.6</v>
       </c>
       <c r="AM34" s="17">
-        <v>14504272.5</v>
+        <v>118973228.0</v>
       </c>
       <c r="AN34" s="17">
-        <v>0</v>
+        <v>23794645.6</v>
       </c>
       <c r="AO34" s="17"/>
-      <c r="AP34" s="18"/>
+      <c r="AP34" s="18">
+        <v>0.01</v>
+      </c>
       <c r="AQ34" s="17" t="s">
         <v>82</v>
       </c>
@@ -13341,19 +13199,17 @@
         <v>68</v>
       </c>
       <c r="C35" s="5">
-        <v>2958872.1</v>
+        <v>26174110.6</v>
       </c>
       <c r="D35" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="3"/>
       <c r="G35" s="2">
-        <v>1231644.0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="2"/>
       <c r="J35" s="3"/>
       <c r="K35" s="2"/>
@@ -13373,14 +13229,16 @@
         <v>0</v>
       </c>
       <c r="U35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="6">
         <v>0</v>
       </c>
       <c r="X35" s="3"/>
-      <c r="Y35" s="6"/>
+      <c r="Y35" s="6">
+        <v>0</v>
+      </c>
       <c r="Z35" s="4"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
@@ -13391,23 +13249,25 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>1727228.1</v>
+        <v>26174110.6</v>
       </c>
       <c r="AJ35" s="2">
-        <v>39296058.84</v>
+        <v>269765189.1</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
-        <v>2958872.1</v>
+        <v>26174110.6</v>
       </c>
       <c r="AM35" s="2">
-        <v>14794360.5</v>
+        <v>130870553.0</v>
       </c>
       <c r="AN35" s="2">
-        <v>0</v>
+        <v>26174110.6</v>
       </c>
       <c r="AO35" s="2"/>
-      <c r="AP35" s="3"/>
+      <c r="AP35" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ35" s="2" t="s">
         <v>83</v>
       </c>
@@ -13420,19 +13280,17 @@
         <v>69</v>
       </c>
       <c r="C36" s="5">
-        <v>3018049.44</v>
+        <v>28791522.1</v>
       </c>
       <c r="D36" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="3"/>
       <c r="G36" s="2">
-        <v>1258691.0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="2"/>
       <c r="J36" s="3"/>
       <c r="K36" s="2"/>
@@ -13452,14 +13310,16 @@
         <v>0</v>
       </c>
       <c r="U36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="6">
         <v>0</v>
       </c>
       <c r="X36" s="3"/>
-      <c r="Y36" s="6"/>
+      <c r="Y36" s="6">
+        <v>0</v>
+      </c>
       <c r="Z36" s="4"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
@@ -13470,23 +13330,25 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>1759358.44</v>
+        <v>28791522.1</v>
       </c>
       <c r="AJ36" s="2">
-        <v>41055417.28</v>
+        <v>298556711.2</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
-        <v>3018049.44</v>
+        <v>28791522.1</v>
       </c>
       <c r="AM36" s="2">
-        <v>15090247.2</v>
+        <v>143957610.5</v>
       </c>
       <c r="AN36" s="2">
-        <v>0</v>
+        <v>28791522.1</v>
       </c>
       <c r="AO36" s="2"/>
-      <c r="AP36" s="3"/>
+      <c r="AP36" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ36" s="2" t="s">
         <v>84</v>
       </c>
@@ -13499,19 +13361,17 @@
         <v>70</v>
       </c>
       <c r="C37" s="5">
-        <v>3078409.98</v>
+        <v>31670674.2</v>
       </c>
       <c r="D37" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="3"/>
       <c r="G37" s="2">
-        <v>1286279.0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
       <c r="K37" s="2"/>
@@ -13531,14 +13391,16 @@
         <v>0</v>
       </c>
       <c r="U37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V37" s="3"/>
       <c r="W37" s="6">
         <v>0</v>
       </c>
       <c r="X37" s="3"/>
-      <c r="Y37" s="6"/>
+      <c r="Y37" s="6">
+        <v>0</v>
+      </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -13549,23 +13411,25 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>1792130.98</v>
+        <v>31670674.2</v>
       </c>
       <c r="AJ37" s="2">
-        <v>42847548.26</v>
+        <v>330227385.4</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
-        <v>3078409.98</v>
+        <v>31670674.2</v>
       </c>
       <c r="AM37" s="2">
-        <v>15392049.9</v>
+        <v>158353371.0</v>
       </c>
       <c r="AN37" s="2">
-        <v>0</v>
+        <v>31670674.2</v>
       </c>
       <c r="AO37" s="2"/>
-      <c r="AP37" s="3"/>
+      <c r="AP37" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ37" s="2" t="s">
         <v>85</v>
       </c>
@@ -13578,19 +13442,17 @@
         <v>71</v>
       </c>
       <c r="C38" s="5">
-        <v>3139978.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="D38" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="3"/>
       <c r="G38" s="2">
-        <v>1314419.0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="2"/>
       <c r="J38" s="3"/>
       <c r="K38" s="2"/>
@@ -13610,14 +13472,16 @@
         <v>0</v>
       </c>
       <c r="U38" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="6">
         <v>0</v>
       </c>
       <c r="X38" s="3"/>
-      <c r="Y38" s="6"/>
+      <c r="Y38" s="6">
+        <v>0</v>
+      </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
@@ -13628,23 +13492,25 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>1825559.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="AJ38" s="2">
-        <v>44673107.46</v>
+        <v>365065126.8</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
-        <v>3139978.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="AM38" s="2">
-        <v>15699891.0</v>
+        <v>174188707.0</v>
       </c>
       <c r="AN38" s="2">
-        <v>0</v>
+        <v>34837741.4</v>
       </c>
       <c r="AO38" s="2"/>
-      <c r="AP38" s="3"/>
+      <c r="AP38" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ38" s="2" t="s">
         <v>86</v>
       </c>
@@ -13657,19 +13523,17 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>3202777.56</v>
+        <v>38321515.1</v>
       </c>
       <c r="D39" s="3">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="3"/>
       <c r="G39" s="2">
-        <v>1343123.0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="2"/>
       <c r="J39" s="3"/>
       <c r="K39" s="2"/>
@@ -13689,14 +13553,16 @@
         <v>0</v>
       </c>
       <c r="U39" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V39" s="3"/>
       <c r="W39" s="6">
         <v>0</v>
       </c>
       <c r="X39" s="3"/>
-      <c r="Y39" s="6"/>
+      <c r="Y39" s="6">
+        <v>0</v>
+      </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
@@ -13707,23 +13573,25 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>1859654.56</v>
+        <v>38321515.1</v>
       </c>
       <c r="AJ39" s="2">
-        <v>46532762.02</v>
+        <v>403386641.9</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
-        <v>3202777.56</v>
+        <v>38321515.1</v>
       </c>
       <c r="AM39" s="2">
-        <v>16013887.8</v>
+        <v>191607575.5</v>
       </c>
       <c r="AN39" s="2">
-        <v>0</v>
+        <v>38321515.1</v>
       </c>
       <c r="AO39" s="2"/>
-      <c r="AP39" s="3"/>
+      <c r="AP39" s="3">
+        <v>0.01</v>
+      </c>
       <c r="AQ39" s="2" t="s">
         <v>87</v>
       </c>

--- a/tests/Feature/config/salary_tenpercent.xlsx
+++ b/tests/Feature/config/salary_tenpercent.xlsx
@@ -183,10 +183,7 @@
     <t>salary</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fellesskatt: 22% gir 0 skatt, Trygdeavgift 7.8% gir 0 skatt  Trinnskatt:0 snitt 0%,  Bracket0 (0&lt;)208050)0%=0</t>
-  </si>
-  <si>
-    <t>Income Fellesskatt: 22% gir 368554 skatt, Trygdeavgift 7.7% gir 139755 skatt  Trinnskatt:200516 snitt 4%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=71552</t>
+    <t>IncomeExpences Fellesskatt: 22% gir 368155 skatt, Trygdeavgift 7.8% gir 141570 skatt  Trinnskatt:203211 snitt 5%,  Bracket0 (208050)0%=0, Bracket1 (292851)1.7%=1442, Bracket2 (670000)4%=15086, Bracket3 (937900)13.6%=36434, Bracket4 (1350000)16.6%=68409, Bracket5 (&gt;1350000)17.6%=81840</t>
   </si>
   <si>
     <t xml:space="preserve"> Fellesskatt: 22% gir 405409 skatt, Trygdeavgift 7.7% gir 153731 skatt  Trinnskatt:232642 snitt 5%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=103678</t>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Fellesskatt: 22% gir 7781567 skatt, Trygdeavgift 7.7% gir 2950757 skatt  Trinnskatt:6662169 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=6533205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fellesskatt: 22% gir 8559723 skatt, Trygdeavgift 7.7% gir 3245832 skatt  Trinnskatt:7340460 snitt 17%,  Bracket0 (217400)0%=0, Bracket1 (306050)1.7%=1507, Bracket2 (697150)4%=15644, Bracket3 (942400)13.7%=33599, Bracket4 (1410750)16.7%=78214, Bracket5 (&gt;1410750)17.7%=7211496</t>
   </si>
 </sst>
 </file>
@@ -735,9 +735,9 @@
     <col min="2" max="2" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -770,7 +770,8 @@
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="39" max="39" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="9.283" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -986,15 +987,15 @@
         <v>39</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>1815000.0</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>132000.0</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2">
-        <v>0.0</v>
+        <v>712936.0</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2">
@@ -1056,22 +1057,24 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="7">
-        <v>0</v>
+        <v>970064.0</v>
       </c>
       <c r="AJ6" s="2">
         <v>0</v>
       </c>
       <c r="AK6" s="3"/>
       <c r="AL6" s="2">
-        <v>0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AM6" s="2">
-        <v>0</v>
+        <v>9075000.0</v>
       </c>
       <c r="AN6" s="2">
         <v>0</v>
       </c>
-      <c r="AO6" s="2"/>
+      <c r="AO6" s="2">
+        <v>-132000.0</v>
+      </c>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="2"/>
     </row>
@@ -1083,15 +1086,19 @@
         <v>40</v>
       </c>
       <c r="C7" s="9">
-        <v>1815000.0</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>1996500.0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>145200.0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.1</v>
+      </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>791782.0</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="9">
@@ -1153,22 +1160,24 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1815000.0</v>
+        <v>1059518.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1815000.0</v>
+        <v>1059518.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
-        <v>1815000.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AM7" s="9">
-        <v>9075000.0</v>
+        <v>9982500.0</v>
       </c>
       <c r="AN7" s="9">
-        <v>1815000.0</v>
-      </c>
-      <c r="AO7" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>-145200.0</v>
+      </c>
       <c r="AP7" s="10"/>
       <c r="AQ7" s="9"/>
     </row>
@@ -1180,17 +1189,19 @@
         <v>41</v>
       </c>
       <c r="C8" s="5">
-        <v>1996500.0</v>
+        <v>2196150.0</v>
       </c>
       <c r="D8" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="6">
+        <v>159720.0</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.1</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>883034.0</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2">
@@ -1252,22 +1263,24 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1996500.0</v>
+        <v>1153396.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>3811500.0</v>
+        <v>2212914.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
-        <v>1996500.0</v>
+        <v>2196150.0</v>
       </c>
       <c r="AM8" s="2">
-        <v>9982500.0</v>
+        <v>10980750.0</v>
       </c>
       <c r="AN8" s="2">
-        <v>1996500.0</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>-159720.0</v>
+      </c>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="2"/>
     </row>
@@ -1279,17 +1292,19 @@
         <v>42</v>
       </c>
       <c r="C9" s="5">
-        <v>2196150.0</v>
+        <v>2415765.0</v>
       </c>
       <c r="D9" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>175692.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>983411.0</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2">
@@ -1351,22 +1366,24 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>2196150.0</v>
+        <v>1256662.0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>6007650.0</v>
+        <v>3469576.0</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
-        <v>2196150.0</v>
+        <v>2415765.0</v>
       </c>
       <c r="AM9" s="2">
-        <v>10980750.0</v>
+        <v>12078825.0</v>
       </c>
       <c r="AN9" s="2">
-        <v>2196150.0</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>-175692.0</v>
+      </c>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="2"/>
     </row>
@@ -1378,17 +1395,19 @@
         <v>43</v>
       </c>
       <c r="C10" s="5">
-        <v>2415765.0</v>
+        <v>2657341.5</v>
       </c>
       <c r="D10" s="3">
         <v>0.1</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>193261.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>1093826.0</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2">
@@ -1450,22 +1469,24 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>2415765.0</v>
+        <v>1370254.3</v>
       </c>
       <c r="AJ10" s="2">
-        <v>8423415.0</v>
+        <v>4839830.3</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
-        <v>2415765.0</v>
+        <v>2657341.5</v>
       </c>
       <c r="AM10" s="2">
-        <v>12078825.0</v>
+        <v>13286707.5</v>
       </c>
       <c r="AN10" s="2">
-        <v>2415765.0</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>-193261.2</v>
+      </c>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="2"/>
     </row>
@@ -1477,17 +1498,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>2657341.5</v>
+        <v>2923076.2</v>
       </c>
       <c r="D11" s="3">
         <v>0.1</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>212587.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1215283.0</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2">
@@ -1549,22 +1572,24 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>2657341.5</v>
+        <v>1495206.1</v>
       </c>
       <c r="AJ11" s="2">
-        <v>11080756.5</v>
+        <v>6335036.4</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
-        <v>2657341.5</v>
+        <v>2923076.2</v>
       </c>
       <c r="AM11" s="2">
-        <v>13286707.5</v>
+        <v>14615381.0</v>
       </c>
       <c r="AN11" s="2">
-        <v>2657341.5</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>-212587.1</v>
+      </c>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="2"/>
     </row>
@@ -1576,17 +1601,19 @@
         <v>45</v>
       </c>
       <c r="C12" s="5">
-        <v>2923076.2</v>
+        <v>3215383.6</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>233845.7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1348884.0</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2">
@@ -1648,22 +1675,24 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>2923076.2</v>
+        <v>1632653.9</v>
       </c>
       <c r="AJ12" s="2">
-        <v>14003832.7</v>
+        <v>7967690.3</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
-        <v>2923076.2</v>
+        <v>3215383.6</v>
       </c>
       <c r="AM12" s="2">
-        <v>14615381.0</v>
+        <v>16076918.0</v>
       </c>
       <c r="AN12" s="2">
-        <v>2923076.2</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>-233845.7</v>
+      </c>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="2"/>
     </row>
@@ -1675,17 +1704,19 @@
         <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>3215383.6</v>
+        <v>3536922.4</v>
       </c>
       <c r="D13" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>257230.6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1495846.0</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2">
@@ -1747,22 +1778,24 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>3215383.6</v>
+        <v>1783845.8</v>
       </c>
       <c r="AJ13" s="2">
-        <v>17219216.3</v>
+        <v>9751536.1</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
-        <v>3215383.6</v>
+        <v>3536922.4</v>
       </c>
       <c r="AM13" s="2">
-        <v>16076918.0</v>
+        <v>17684612.0</v>
       </c>
       <c r="AN13" s="2">
-        <v>3215383.6</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>-257230.6</v>
+      </c>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="2"/>
     </row>
@@ -1774,17 +1807,19 @@
         <v>47</v>
       </c>
       <c r="C14" s="5">
-        <v>3536922.4</v>
+        <v>3890614.2</v>
       </c>
       <c r="D14" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E14" s="6">
+        <v>282954.1</v>
+      </c>
+      <c r="F14" s="3">
         <v>0.1</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1657505.0</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2">
@@ -1846,22 +1881,24 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>3536922.4</v>
+        <v>1950155.1</v>
       </c>
       <c r="AJ14" s="2">
-        <v>20756138.7</v>
+        <v>11701691.2</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
-        <v>3536922.4</v>
+        <v>3890614.2</v>
       </c>
       <c r="AM14" s="2">
-        <v>17684612.0</v>
+        <v>19453071.0</v>
       </c>
       <c r="AN14" s="2">
-        <v>3536922.4</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>-282954.1</v>
+      </c>
       <c r="AP14" s="3"/>
       <c r="AQ14" s="2"/>
     </row>
@@ -1873,17 +1910,19 @@
         <v>48</v>
       </c>
       <c r="C15" s="5">
-        <v>3890614.2</v>
+        <v>4279675.4</v>
       </c>
       <c r="D15" s="3">
         <v>0.09</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>311249.4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1835330.0</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2">
@@ -1945,22 +1984,24 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>3890614.2</v>
+        <v>2133096.0</v>
       </c>
       <c r="AJ15" s="2">
-        <v>24646752.9</v>
+        <v>13834787.2</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
-        <v>3890614.2</v>
+        <v>4279675.4</v>
       </c>
       <c r="AM15" s="2">
-        <v>19453071.0</v>
+        <v>21398377.0</v>
       </c>
       <c r="AN15" s="2">
-        <v>3890614.2</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>-311249.4</v>
+      </c>
       <c r="AP15" s="3"/>
       <c r="AQ15" s="2"/>
     </row>
@@ -1972,17 +2013,19 @@
         <v>49</v>
       </c>
       <c r="C16" s="5">
-        <v>4279675.4</v>
+        <v>4707642.5</v>
       </c>
       <c r="D16" s="3">
         <v>0.09</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>342373.9</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>2030936.0</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="2">
@@ -2044,22 +2087,24 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>4279675.4</v>
+        <v>2334332.6</v>
       </c>
       <c r="AJ16" s="2">
-        <v>28926428.3</v>
+        <v>16169119.8</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
-        <v>4279675.4</v>
+        <v>4707642.5</v>
       </c>
       <c r="AM16" s="2">
-        <v>21398377.0</v>
+        <v>23538212.5</v>
       </c>
       <c r="AN16" s="2">
-        <v>4279675.4</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>-342373.9</v>
+      </c>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="2"/>
     </row>
@@ -2071,17 +2116,19 @@
         <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>4707642.5</v>
+        <v>5178407.3</v>
       </c>
       <c r="D17" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>376611.4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>2246103.0</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="2">
@@ -2143,22 +2190,24 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>4707642.5</v>
+        <v>2555692.9</v>
       </c>
       <c r="AJ17" s="2">
-        <v>33634070.8</v>
+        <v>18724812.7</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
-        <v>4707642.5</v>
+        <v>5178407.3</v>
       </c>
       <c r="AM17" s="2">
-        <v>23538212.5</v>
+        <v>25892036.5</v>
       </c>
       <c r="AN17" s="2">
-        <v>4707642.5</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>-376611.4</v>
+      </c>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="2"/>
     </row>
@@ -2170,17 +2219,19 @@
         <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>5178407.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="D18" s="3">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>414272.1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>2482788.0</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="2">
@@ -2242,22 +2293,24 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>5178407.3</v>
+        <v>2799187.6</v>
       </c>
       <c r="AJ18" s="2">
-        <v>38812478.1</v>
+        <v>21524000.3</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
-        <v>5178407.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="AM18" s="2">
-        <v>25892036.5</v>
+        <v>28481238.5</v>
       </c>
       <c r="AN18" s="2">
-        <v>5178407.3</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>-414272.1</v>
+      </c>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="2"/>
     </row>
@@ -2269,17 +2322,19 @@
         <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>5696247.7</v>
+        <v>6265872.8</v>
       </c>
       <c r="D19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>455699.2</v>
+      </c>
+      <c r="F19" s="3">
         <v>0.09</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>2743141.0</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="2">
@@ -2341,22 +2396,24 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>5696247.7</v>
+        <v>3067032.6</v>
       </c>
       <c r="AJ19" s="2">
-        <v>44508725.8</v>
+        <v>24591032.9</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
-        <v>5696247.7</v>
+        <v>6265872.8</v>
       </c>
       <c r="AM19" s="2">
-        <v>28481238.5</v>
+        <v>31329364.0</v>
       </c>
       <c r="AN19" s="2">
-        <v>5696247.7</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>-455699.2</v>
+      </c>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="2"/>
     </row>
@@ -2368,17 +2425,19 @@
         <v>53</v>
       </c>
       <c r="C20" s="5">
-        <v>6265872.8</v>
+        <v>6892460.3</v>
       </c>
       <c r="D20" s="3">
         <v>0.1</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>501268.9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>3029529.0</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="2">
@@ -2440,22 +2499,24 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>6265872.8</v>
+        <v>3361662.4</v>
       </c>
       <c r="AJ20" s="2">
-        <v>50774598.6</v>
+        <v>27952695.3</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
-        <v>6265872.8</v>
+        <v>6892460.3</v>
       </c>
       <c r="AM20" s="2">
-        <v>31329364.0</v>
+        <v>34462301.5</v>
       </c>
       <c r="AN20" s="2">
-        <v>6265872.8</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>-501268.9</v>
+      </c>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="2"/>
     </row>
@@ -2467,17 +2528,19 @@
         <v>54</v>
       </c>
       <c r="C21" s="5">
-        <v>6892460.3</v>
+        <v>7581706.0</v>
       </c>
       <c r="D21" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E21" s="6">
+        <v>551395.9</v>
+      </c>
+      <c r="F21" s="3">
         <v>0.1</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>3344555.0</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="2">
@@ -2539,22 +2602,24 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>6892460.3</v>
+        <v>3685755.1</v>
       </c>
       <c r="AJ21" s="2">
-        <v>57667058.9</v>
+        <v>31638450.4</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
-        <v>6892460.3</v>
+        <v>7581706.0</v>
       </c>
       <c r="AM21" s="2">
-        <v>34462301.5</v>
+        <v>37908530.0</v>
       </c>
       <c r="AN21" s="2">
-        <v>6892460.3</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>-551395.9</v>
+      </c>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="2"/>
     </row>
@@ -2566,17 +2631,19 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>7581706.0</v>
+        <v>8339876.6</v>
       </c>
       <c r="D22" s="14">
         <v>0.09</v>
       </c>
       <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14"/>
+        <v>606535.6</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.1</v>
+      </c>
       <c r="G22" s="13">
-        <v>0</v>
+        <v>3691084.0</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="13">
@@ -2638,22 +2705,24 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>7581706.0</v>
+        <v>4042257.0</v>
       </c>
       <c r="AJ22" s="13">
-        <v>65248764.9</v>
+        <v>35680707.4</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
-        <v>7581706.0</v>
+        <v>8339876.6</v>
       </c>
       <c r="AM22" s="13">
-        <v>37908530.0</v>
+        <v>41699383.0</v>
       </c>
       <c r="AN22" s="13">
-        <v>7581706.0</v>
-      </c>
-      <c r="AO22" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>-606535.6</v>
+      </c>
       <c r="AP22" s="14"/>
       <c r="AQ22" s="13"/>
     </row>
@@ -2665,17 +2734,19 @@
         <v>56</v>
       </c>
       <c r="C23" s="5">
-        <v>8339876.6</v>
+        <v>9173864.7</v>
       </c>
       <c r="D23" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>667189.6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>4072268.0</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="2">
@@ -2737,22 +2808,24 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>8339876.6</v>
+        <v>4434407.1</v>
       </c>
       <c r="AJ23" s="2">
-        <v>73588641.5</v>
+        <v>40115114.5</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
-        <v>8339876.6</v>
+        <v>9173864.7</v>
       </c>
       <c r="AM23" s="2">
-        <v>41699383.0</v>
+        <v>45869323.5</v>
       </c>
       <c r="AN23" s="2">
-        <v>8339876.6</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>-667189.6</v>
+      </c>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="2"/>
     </row>
@@ -2764,17 +2837,19 @@
         <v>57</v>
       </c>
       <c r="C24" s="5">
-        <v>9173864.7</v>
+        <v>10091251.5</v>
       </c>
       <c r="D24" s="3">
         <v>0.1</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>733909.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>4491569.0</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2">
@@ -2836,22 +2911,24 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>9173864.7</v>
+        <v>4865773.5</v>
       </c>
       <c r="AJ24" s="2">
-        <v>82762506.2</v>
+        <v>44980888.0</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
-        <v>9173864.7</v>
+        <v>10091251.5</v>
       </c>
       <c r="AM24" s="2">
-        <v>45869323.5</v>
+        <v>50456257.5</v>
       </c>
       <c r="AN24" s="2">
-        <v>9173864.7</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>-733909.0</v>
+      </c>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="2"/>
     </row>
@@ -2863,17 +2940,19 @@
         <v>58</v>
       </c>
       <c r="C25" s="5">
-        <v>10091251.5</v>
+        <v>11100377.2</v>
       </c>
       <c r="D25" s="3">
         <v>0.1</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>807299.9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>4952800.0</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="2">
@@ -2935,22 +3014,24 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>10091251.5</v>
+        <v>5340277.3</v>
       </c>
       <c r="AJ25" s="2">
-        <v>92853757.7</v>
+        <v>50321165.3</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
-        <v>10091251.5</v>
+        <v>11100377.2</v>
       </c>
       <c r="AM25" s="2">
-        <v>50456257.5</v>
+        <v>55501886.0</v>
       </c>
       <c r="AN25" s="2">
-        <v>10091251.5</v>
-      </c>
-      <c r="AO25" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>-807299.9</v>
+      </c>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="2"/>
     </row>
@@ -2962,17 +3043,19 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>11100377.2</v>
+        <v>12210414.7</v>
       </c>
       <c r="D26" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E26" s="6">
+        <v>888030.0</v>
+      </c>
+      <c r="F26" s="3">
         <v>0.1</v>
       </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>5460154.0</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="2">
@@ -3034,22 +3117,24 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>11100377.2</v>
+        <v>5862230.7</v>
       </c>
       <c r="AJ26" s="2">
-        <v>103954134.9</v>
+        <v>56183396.0</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
-        <v>11100377.2</v>
+        <v>12210414.7</v>
       </c>
       <c r="AM26" s="2">
-        <v>55501886.0</v>
+        <v>61052073.5</v>
       </c>
       <c r="AN26" s="2">
-        <v>11100377.2</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>-888030.0</v>
+      </c>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="2"/>
     </row>
@@ -3061,17 +3146,19 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>12210414.7</v>
+        <v>13431456.5</v>
       </c>
       <c r="D27" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>976833.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>6018242.0</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="2">
@@ -3133,22 +3220,24 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>12210414.7</v>
+        <v>6436381.5</v>
       </c>
       <c r="AJ27" s="2">
-        <v>116164549.6</v>
+        <v>62619777.5</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
-        <v>12210414.7</v>
+        <v>13431456.5</v>
       </c>
       <c r="AM27" s="2">
-        <v>61052073.5</v>
+        <v>67157282.5</v>
       </c>
       <c r="AN27" s="2">
-        <v>12210414.7</v>
-      </c>
-      <c r="AO27" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>-976833.0</v>
+      </c>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="2"/>
     </row>
@@ -3160,17 +3249,19 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>13431456.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="D28" s="3">
         <v>0.1</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>1074516.3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>6632141.0</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="2">
@@ -3232,22 +3323,24 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>13431456.5</v>
+        <v>7067945.4</v>
       </c>
       <c r="AJ28" s="2">
-        <v>129596006.1</v>
+        <v>69687722.9</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
-        <v>13431456.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="AM28" s="2">
-        <v>67157282.5</v>
+        <v>73873013.5</v>
       </c>
       <c r="AN28" s="2">
-        <v>13431456.5</v>
-      </c>
-      <c r="AO28" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>-1074516.3</v>
+      </c>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="2"/>
     </row>
@@ -3259,17 +3352,19 @@
         <v>62</v>
       </c>
       <c r="C29" s="5">
-        <v>14774602.7</v>
+        <v>16252063.3</v>
       </c>
       <c r="D29" s="3">
         <v>0.1</v>
       </c>
       <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>1181967.6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>7307429.0</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="2">
@@ -3331,22 +3426,24 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>14774602.7</v>
+        <v>7762666.7</v>
       </c>
       <c r="AJ29" s="2">
-        <v>144370608.8</v>
+        <v>77450389.6</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
-        <v>14774602.7</v>
+        <v>16252063.3</v>
       </c>
       <c r="AM29" s="2">
-        <v>73873013.5</v>
+        <v>81260316.5</v>
       </c>
       <c r="AN29" s="2">
-        <v>14774602.7</v>
-      </c>
-      <c r="AO29" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>-1181967.6</v>
+      </c>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="2"/>
     </row>
@@ -3358,17 +3455,19 @@
         <v>63</v>
       </c>
       <c r="C30" s="17">
-        <v>16252063.3</v>
+        <v>17877269.3</v>
       </c>
       <c r="D30" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1300164.8</v>
+      </c>
+      <c r="F30" s="18">
         <v>0.1</v>
       </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>0</v>
+        <v>8050246.0</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="17">
@@ -3430,22 +3529,24 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>16252063.3</v>
+        <v>8526858.5</v>
       </c>
       <c r="AJ30" s="17">
-        <v>160622672.1</v>
+        <v>85977248.1</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
-        <v>16252063.3</v>
+        <v>17877269.3</v>
       </c>
       <c r="AM30" s="17">
-        <v>81260316.5</v>
+        <v>89386346.5</v>
       </c>
       <c r="AN30" s="17">
-        <v>16252063.3</v>
-      </c>
-      <c r="AO30" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="17">
+        <v>-1300164.8</v>
+      </c>
       <c r="AP30" s="18"/>
       <c r="AQ30" s="17"/>
     </row>
@@ -3457,17 +3558,19 @@
         <v>64</v>
       </c>
       <c r="C31" s="5">
-        <v>17877269.3</v>
+        <v>19664995.9</v>
       </c>
       <c r="D31" s="3">
         <v>0.09</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>1430181.5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>8867344.0</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="2">
@@ -3529,22 +3632,24 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>17877269.3</v>
+        <v>9367470.4</v>
       </c>
       <c r="AJ31" s="2">
-        <v>178499941.4</v>
+        <v>95344718.5</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
-        <v>17877269.3</v>
+        <v>19664995.9</v>
       </c>
       <c r="AM31" s="2">
-        <v>89386346.5</v>
+        <v>98324979.5</v>
       </c>
       <c r="AN31" s="2">
-        <v>17877269.3</v>
-      </c>
-      <c r="AO31" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>-1430181.5</v>
+      </c>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="2"/>
     </row>
@@ -3556,17 +3661,19 @@
         <v>65</v>
       </c>
       <c r="C32" s="5">
-        <v>19664995.9</v>
+        <v>21631495.6</v>
       </c>
       <c r="D32" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>1573200.2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>9766152.0</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="2">
@@ -3628,22 +3735,24 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>19664995.9</v>
+        <v>10292143.4</v>
       </c>
       <c r="AJ32" s="2">
-        <v>198164937.3</v>
+        <v>105636861.9</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
-        <v>19664995.9</v>
+        <v>21631495.6</v>
       </c>
       <c r="AM32" s="2">
-        <v>98324979.5</v>
+        <v>108157478.0</v>
       </c>
       <c r="AN32" s="2">
-        <v>19664995.9</v>
-      </c>
-      <c r="AO32" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>-1573200.2</v>
+      </c>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="2"/>
     </row>
@@ -3655,17 +3764,19 @@
         <v>66</v>
       </c>
       <c r="C33" s="5">
-        <v>21631495.6</v>
+        <v>23794645.6</v>
       </c>
       <c r="D33" s="3">
         <v>0.1</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3"/>
+        <v>1730520.0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>10754842.0</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="2">
@@ -3727,22 +3838,24 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>21631495.6</v>
+        <v>11309283.6</v>
       </c>
       <c r="AJ33" s="2">
-        <v>219796432.9</v>
+        <v>116946145.5</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
-        <v>21631495.6</v>
+        <v>23794645.6</v>
       </c>
       <c r="AM33" s="2">
-        <v>108157478.0</v>
+        <v>118973228.0</v>
       </c>
       <c r="AN33" s="2">
-        <v>21631495.6</v>
-      </c>
-      <c r="AO33" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>-1730520.0</v>
+      </c>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="2"/>
     </row>
@@ -3754,17 +3867,19 @@
         <v>67</v>
       </c>
       <c r="C34" s="17">
-        <v>23794645.6</v>
+        <v>26174110.6</v>
       </c>
       <c r="D34" s="18">
         <v>0.1</v>
       </c>
       <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18"/>
+        <v>1903572.0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.1</v>
+      </c>
       <c r="G34" s="17">
-        <v>0</v>
+        <v>11842400.0</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="17">
@@ -3826,22 +3941,24 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>23794645.6</v>
+        <v>12428138.6</v>
       </c>
       <c r="AJ34" s="17">
-        <v>243591078.5</v>
+        <v>129374284.1</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
-        <v>23794645.6</v>
+        <v>26174110.6</v>
       </c>
       <c r="AM34" s="17">
-        <v>118973228.0</v>
+        <v>130870553.0</v>
       </c>
       <c r="AN34" s="17">
-        <v>23794645.6</v>
-      </c>
-      <c r="AO34" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="17">
+        <v>-1903572.0</v>
+      </c>
       <c r="AP34" s="18"/>
       <c r="AQ34" s="17"/>
     </row>
@@ -3853,17 +3970,19 @@
         <v>68</v>
       </c>
       <c r="C35" s="5">
-        <v>26174110.6</v>
+        <v>28791522.1</v>
       </c>
       <c r="D35" s="3">
         <v>0.1</v>
       </c>
       <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>2093929.2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>13038715.0</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="2">
@@ -3925,22 +4044,24 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>26174110.6</v>
+        <v>13658877.9</v>
       </c>
       <c r="AJ35" s="2">
-        <v>269765189.1</v>
+        <v>143033162.0</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
-        <v>26174110.6</v>
+        <v>28791522.1</v>
       </c>
       <c r="AM35" s="2">
-        <v>130870553.0</v>
+        <v>143957610.5</v>
       </c>
       <c r="AN35" s="2">
-        <v>26174110.6</v>
-      </c>
-      <c r="AO35" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>-2093929.2</v>
+      </c>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="2"/>
     </row>
@@ -3952,17 +4073,19 @@
         <v>69</v>
       </c>
       <c r="C36" s="5">
-        <v>28791522.1</v>
+        <v>31670674.2</v>
       </c>
       <c r="D36" s="3">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>2303321.9</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>14354660.0</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="2">
@@ -4024,22 +4147,24 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>28791522.1</v>
+        <v>15012692.3</v>
       </c>
       <c r="AJ36" s="2">
-        <v>298556711.2</v>
+        <v>158045854.3</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
-        <v>28791522.1</v>
+        <v>31670674.2</v>
       </c>
       <c r="AM36" s="2">
-        <v>143957610.5</v>
+        <v>158353371.0</v>
       </c>
       <c r="AN36" s="2">
-        <v>28791522.1</v>
-      </c>
-      <c r="AO36" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>-2303321.9</v>
+      </c>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="2"/>
     </row>
@@ -4051,17 +4176,19 @@
         <v>70</v>
       </c>
       <c r="C37" s="5">
-        <v>31670674.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="D37" s="3">
         <v>0.09</v>
       </c>
       <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>2533654.2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>15802199.0</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="2">
@@ -4123,22 +4250,24 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>31670674.2</v>
+        <v>16501888.2</v>
       </c>
       <c r="AJ37" s="2">
-        <v>330227385.4</v>
+        <v>174547742.5</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
-        <v>31670674.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="AM37" s="2">
-        <v>158353371.0</v>
+        <v>174188707.0</v>
       </c>
       <c r="AN37" s="2">
-        <v>31670674.2</v>
-      </c>
-      <c r="AO37" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>-2533654.2</v>
+      </c>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="2"/>
     </row>
@@ -4150,17 +4279,19 @@
         <v>71</v>
       </c>
       <c r="C38" s="5">
-        <v>34837741.4</v>
+        <v>38321515.1</v>
       </c>
       <c r="D38" s="3">
         <v>0.09</v>
       </c>
       <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>2787019.4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>17394493.0</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="2">
@@ -4222,22 +4353,24 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>34837741.4</v>
+        <v>18140002.7</v>
       </c>
       <c r="AJ38" s="2">
-        <v>365065126.8</v>
+        <v>192687745.2</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
-        <v>34837741.4</v>
+        <v>38321515.1</v>
       </c>
       <c r="AM38" s="2">
-        <v>174188707.0</v>
+        <v>191607575.5</v>
       </c>
       <c r="AN38" s="2">
-        <v>34837741.4</v>
-      </c>
-      <c r="AO38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>-2787019.4</v>
+      </c>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="2"/>
     </row>
@@ -4249,17 +4382,19 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>38321515.1</v>
+        <v>42153666.5</v>
       </c>
       <c r="D39" s="3">
         <v>0.09</v>
       </c>
       <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>3065720.9</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>19146015.0</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="2">
@@ -4321,22 +4456,24 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>38321515.1</v>
+        <v>19941930.6</v>
       </c>
       <c r="AJ39" s="2">
-        <v>403386641.9</v>
+        <v>212629675.8</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
-        <v>38321515.1</v>
+        <v>42153666.5</v>
       </c>
       <c r="AM39" s="2">
-        <v>191607575.5</v>
+        <v>210768332.5</v>
       </c>
       <c r="AN39" s="2">
-        <v>38321515.1</v>
-      </c>
-      <c r="AO39" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>-3065720.9</v>
+      </c>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="2"/>
     </row>
@@ -4499,9 +4636,9 @@
     <col min="2" max="2" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
@@ -4534,7 +4671,8 @@
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="39" max="39" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="9.283" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -4750,15 +4888,15 @@
         <v>39</v>
       </c>
       <c r="C6" s="5">
-        <v>0</v>
+        <v>1815000.0</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>132000.0</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="2">
-        <v>0.0</v>
+        <v>712936.0</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2">
@@ -4820,22 +4958,24 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="7">
-        <v>0</v>
+        <v>970064.0</v>
       </c>
       <c r="AJ6" s="2">
         <v>0</v>
       </c>
       <c r="AK6" s="3"/>
       <c r="AL6" s="2">
-        <v>0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AM6" s="2">
-        <v>0</v>
+        <v>9075000.0</v>
       </c>
       <c r="AN6" s="2">
         <v>0</v>
       </c>
-      <c r="AO6" s="2"/>
+      <c r="AO6" s="2">
+        <v>-132000.0</v>
+      </c>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="2"/>
     </row>
@@ -4847,15 +4987,19 @@
         <v>40</v>
       </c>
       <c r="C7" s="9">
-        <v>1815000.0</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>1996500.0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>145200.0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.1</v>
+      </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>791782.0</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="9">
@@ -4917,22 +5061,24 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1815000.0</v>
+        <v>1059518.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1815000.0</v>
+        <v>1059518.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
-        <v>1815000.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AM7" s="9">
-        <v>9075000.0</v>
+        <v>9982500.0</v>
       </c>
       <c r="AN7" s="9">
-        <v>1815000.0</v>
-      </c>
-      <c r="AO7" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>-145200.0</v>
+      </c>
       <c r="AP7" s="10"/>
       <c r="AQ7" s="9"/>
     </row>
@@ -4944,17 +5090,19 @@
         <v>41</v>
       </c>
       <c r="C8" s="5">
-        <v>1996500.0</v>
+        <v>2196150.0</v>
       </c>
       <c r="D8" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="6">
+        <v>159720.0</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.1</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3"/>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>883034.0</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2">
@@ -5016,22 +5164,24 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1996500.0</v>
+        <v>1153396.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>3811500.0</v>
+        <v>2212914.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
-        <v>1996500.0</v>
+        <v>2196150.0</v>
       </c>
       <c r="AM8" s="2">
-        <v>9982500.0</v>
+        <v>10980750.0</v>
       </c>
       <c r="AN8" s="2">
-        <v>1996500.0</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>-159720.0</v>
+      </c>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="2"/>
     </row>
@@ -5043,17 +5193,19 @@
         <v>42</v>
       </c>
       <c r="C9" s="5">
-        <v>2196150.0</v>
+        <v>2415765.0</v>
       </c>
       <c r="D9" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>175692.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>983411.0</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2">
@@ -5115,22 +5267,24 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>2196150.0</v>
+        <v>1256662.0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>6007650.0</v>
+        <v>3469576.0</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
-        <v>2196150.0</v>
+        <v>2415765.0</v>
       </c>
       <c r="AM9" s="2">
-        <v>10980750.0</v>
+        <v>12078825.0</v>
       </c>
       <c r="AN9" s="2">
-        <v>2196150.0</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>-175692.0</v>
+      </c>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="2"/>
     </row>
@@ -5142,17 +5296,19 @@
         <v>43</v>
       </c>
       <c r="C10" s="5">
-        <v>2415765.0</v>
+        <v>2657341.5</v>
       </c>
       <c r="D10" s="3">
         <v>0.1</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>193261.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>1093826.0</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2">
@@ -5214,22 +5370,24 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>2415765.0</v>
+        <v>1370254.3</v>
       </c>
       <c r="AJ10" s="2">
-        <v>8423415.0</v>
+        <v>4839830.3</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
-        <v>2415765.0</v>
+        <v>2657341.5</v>
       </c>
       <c r="AM10" s="2">
-        <v>12078825.0</v>
+        <v>13286707.5</v>
       </c>
       <c r="AN10" s="2">
-        <v>2415765.0</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>-193261.2</v>
+      </c>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="2"/>
     </row>
@@ -5241,17 +5399,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>2657341.5</v>
+        <v>2923076.2</v>
       </c>
       <c r="D11" s="3">
         <v>0.1</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>212587.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1215283.0</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2">
@@ -5313,22 +5473,24 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>2657341.5</v>
+        <v>1495206.1</v>
       </c>
       <c r="AJ11" s="2">
-        <v>11080756.5</v>
+        <v>6335036.4</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
-        <v>2657341.5</v>
+        <v>2923076.2</v>
       </c>
       <c r="AM11" s="2">
-        <v>13286707.5</v>
+        <v>14615381.0</v>
       </c>
       <c r="AN11" s="2">
-        <v>2657341.5</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>-212587.1</v>
+      </c>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="2"/>
     </row>
@@ -5340,17 +5502,19 @@
         <v>45</v>
       </c>
       <c r="C12" s="5">
-        <v>2923076.2</v>
+        <v>3215383.6</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>233845.7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1348884.0</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="2">
@@ -5412,22 +5576,24 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>2923076.2</v>
+        <v>1632653.9</v>
       </c>
       <c r="AJ12" s="2">
-        <v>14003832.7</v>
+        <v>7967690.3</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
-        <v>2923076.2</v>
+        <v>3215383.6</v>
       </c>
       <c r="AM12" s="2">
-        <v>14615381.0</v>
+        <v>16076918.0</v>
       </c>
       <c r="AN12" s="2">
-        <v>2923076.2</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>-233845.7</v>
+      </c>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="2"/>
     </row>
@@ -5439,17 +5605,19 @@
         <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>3215383.6</v>
+        <v>3536922.4</v>
       </c>
       <c r="D13" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>257230.6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1495846.0</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="2">
@@ -5511,22 +5679,24 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>3215383.6</v>
+        <v>1783845.8</v>
       </c>
       <c r="AJ13" s="2">
-        <v>17219216.3</v>
+        <v>9751536.1</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
-        <v>3215383.6</v>
+        <v>3536922.4</v>
       </c>
       <c r="AM13" s="2">
-        <v>16076918.0</v>
+        <v>17684612.0</v>
       </c>
       <c r="AN13" s="2">
-        <v>3215383.6</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>-257230.6</v>
+      </c>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="2"/>
     </row>
@@ -5538,17 +5708,19 @@
         <v>47</v>
       </c>
       <c r="C14" s="5">
-        <v>3536922.4</v>
+        <v>3890614.2</v>
       </c>
       <c r="D14" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E14" s="6">
+        <v>282954.1</v>
+      </c>
+      <c r="F14" s="3">
         <v>0.1</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3"/>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1657505.0</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="2">
@@ -5610,22 +5782,24 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>3536922.4</v>
+        <v>1950155.1</v>
       </c>
       <c r="AJ14" s="2">
-        <v>20756138.7</v>
+        <v>11701691.2</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
-        <v>3536922.4</v>
+        <v>3890614.2</v>
       </c>
       <c r="AM14" s="2">
-        <v>17684612.0</v>
+        <v>19453071.0</v>
       </c>
       <c r="AN14" s="2">
-        <v>3536922.4</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>-282954.1</v>
+      </c>
       <c r="AP14" s="3"/>
       <c r="AQ14" s="2"/>
     </row>
@@ -5637,17 +5811,19 @@
         <v>48</v>
       </c>
       <c r="C15" s="5">
-        <v>3890614.2</v>
+        <v>4279675.4</v>
       </c>
       <c r="D15" s="3">
         <v>0.09</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>311249.4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1835330.0</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="2">
@@ -5709,22 +5885,24 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>3890614.2</v>
+        <v>2133096.0</v>
       </c>
       <c r="AJ15" s="2">
-        <v>24646752.9</v>
+        <v>13834787.2</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
-        <v>3890614.2</v>
+        <v>4279675.4</v>
       </c>
       <c r="AM15" s="2">
-        <v>19453071.0</v>
+        <v>21398377.0</v>
       </c>
       <c r="AN15" s="2">
-        <v>3890614.2</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>-311249.4</v>
+      </c>
       <c r="AP15" s="3"/>
       <c r="AQ15" s="2"/>
     </row>
@@ -5736,17 +5914,19 @@
         <v>49</v>
       </c>
       <c r="C16" s="5">
-        <v>4279675.4</v>
+        <v>4707642.5</v>
       </c>
       <c r="D16" s="3">
         <v>0.09</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>342373.9</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>2030936.0</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="2">
@@ -5808,22 +5988,24 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>4279675.4</v>
+        <v>2334332.6</v>
       </c>
       <c r="AJ16" s="2">
-        <v>28926428.3</v>
+        <v>16169119.8</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
-        <v>4279675.4</v>
+        <v>4707642.5</v>
       </c>
       <c r="AM16" s="2">
-        <v>21398377.0</v>
+        <v>23538212.5</v>
       </c>
       <c r="AN16" s="2">
-        <v>4279675.4</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>-342373.9</v>
+      </c>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="2"/>
     </row>
@@ -5835,17 +6017,19 @@
         <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>4707642.5</v>
+        <v>5178407.3</v>
       </c>
       <c r="D17" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>376611.4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>2246103.0</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="2">
@@ -5907,22 +6091,24 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>4707642.5</v>
+        <v>2555692.9</v>
       </c>
       <c r="AJ17" s="2">
-        <v>33634070.8</v>
+        <v>18724812.7</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
-        <v>4707642.5</v>
+        <v>5178407.3</v>
       </c>
       <c r="AM17" s="2">
-        <v>23538212.5</v>
+        <v>25892036.5</v>
       </c>
       <c r="AN17" s="2">
-        <v>4707642.5</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>-376611.4</v>
+      </c>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="2"/>
     </row>
@@ -5934,17 +6120,19 @@
         <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>5178407.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="D18" s="3">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>414272.1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>2482788.0</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="2">
@@ -6006,22 +6194,24 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>5178407.3</v>
+        <v>2799187.6</v>
       </c>
       <c r="AJ18" s="2">
-        <v>38812478.1</v>
+        <v>21524000.3</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
-        <v>5178407.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="AM18" s="2">
-        <v>25892036.5</v>
+        <v>28481238.5</v>
       </c>
       <c r="AN18" s="2">
-        <v>5178407.3</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>-414272.1</v>
+      </c>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="2"/>
     </row>
@@ -6033,17 +6223,19 @@
         <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>5696247.7</v>
+        <v>6265872.8</v>
       </c>
       <c r="D19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>455699.2</v>
+      </c>
+      <c r="F19" s="3">
         <v>0.09</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>2743141.0</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="2">
@@ -6105,22 +6297,24 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>5696247.7</v>
+        <v>3067032.6</v>
       </c>
       <c r="AJ19" s="2">
-        <v>44508725.8</v>
+        <v>24591032.9</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
-        <v>5696247.7</v>
+        <v>6265872.8</v>
       </c>
       <c r="AM19" s="2">
-        <v>28481238.5</v>
+        <v>31329364.0</v>
       </c>
       <c r="AN19" s="2">
-        <v>5696247.7</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>-455699.2</v>
+      </c>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="2"/>
     </row>
@@ -6132,17 +6326,19 @@
         <v>53</v>
       </c>
       <c r="C20" s="5">
-        <v>6265872.8</v>
+        <v>6892460.3</v>
       </c>
       <c r="D20" s="3">
         <v>0.1</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>501268.9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>3029529.0</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="2">
@@ -6204,22 +6400,24 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>6265872.8</v>
+        <v>3361662.4</v>
       </c>
       <c r="AJ20" s="2">
-        <v>50774598.6</v>
+        <v>27952695.3</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
-        <v>6265872.8</v>
+        <v>6892460.3</v>
       </c>
       <c r="AM20" s="2">
-        <v>31329364.0</v>
+        <v>34462301.5</v>
       </c>
       <c r="AN20" s="2">
-        <v>6265872.8</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>-501268.9</v>
+      </c>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="2"/>
     </row>
@@ -6231,17 +6429,19 @@
         <v>54</v>
       </c>
       <c r="C21" s="5">
-        <v>6892460.3</v>
+        <v>7581706.0</v>
       </c>
       <c r="D21" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E21" s="6">
+        <v>551395.9</v>
+      </c>
+      <c r="F21" s="3">
         <v>0.1</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3"/>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>3344555.0</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="2">
@@ -6303,22 +6503,24 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>6892460.3</v>
+        <v>3685755.1</v>
       </c>
       <c r="AJ21" s="2">
-        <v>57667058.9</v>
+        <v>31638450.4</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
-        <v>6892460.3</v>
+        <v>7581706.0</v>
       </c>
       <c r="AM21" s="2">
-        <v>34462301.5</v>
+        <v>37908530.0</v>
       </c>
       <c r="AN21" s="2">
-        <v>6892460.3</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>-551395.9</v>
+      </c>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="2"/>
     </row>
@@ -6330,17 +6532,19 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>7581706.0</v>
+        <v>8339876.6</v>
       </c>
       <c r="D22" s="14">
         <v>0.09</v>
       </c>
       <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14"/>
+        <v>606535.6</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.1</v>
+      </c>
       <c r="G22" s="13">
-        <v>0</v>
+        <v>3691084.0</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="13">
@@ -6402,22 +6606,24 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>7581706.0</v>
+        <v>4042257.0</v>
       </c>
       <c r="AJ22" s="13">
-        <v>65248764.9</v>
+        <v>35680707.4</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
-        <v>7581706.0</v>
+        <v>8339876.6</v>
       </c>
       <c r="AM22" s="13">
-        <v>37908530.0</v>
+        <v>41699383.0</v>
       </c>
       <c r="AN22" s="13">
-        <v>7581706.0</v>
-      </c>
-      <c r="AO22" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>-606535.6</v>
+      </c>
       <c r="AP22" s="14"/>
       <c r="AQ22" s="13"/>
     </row>
@@ -6429,17 +6635,19 @@
         <v>56</v>
       </c>
       <c r="C23" s="5">
-        <v>8339876.6</v>
+        <v>9173864.7</v>
       </c>
       <c r="D23" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>667189.6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>4072268.0</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="2">
@@ -6501,22 +6709,24 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>8339876.6</v>
+        <v>4434407.1</v>
       </c>
       <c r="AJ23" s="2">
-        <v>73588641.5</v>
+        <v>40115114.5</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
-        <v>8339876.6</v>
+        <v>9173864.7</v>
       </c>
       <c r="AM23" s="2">
-        <v>41699383.0</v>
+        <v>45869323.5</v>
       </c>
       <c r="AN23" s="2">
-        <v>8339876.6</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>-667189.6</v>
+      </c>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="2"/>
     </row>
@@ -6528,17 +6738,19 @@
         <v>57</v>
       </c>
       <c r="C24" s="5">
-        <v>9173864.7</v>
+        <v>10091251.5</v>
       </c>
       <c r="D24" s="3">
         <v>0.1</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>733909.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>4491569.0</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2">
@@ -6600,22 +6812,24 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>9173864.7</v>
+        <v>4865773.5</v>
       </c>
       <c r="AJ24" s="2">
-        <v>82762506.2</v>
+        <v>44980888.0</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
-        <v>9173864.7</v>
+        <v>10091251.5</v>
       </c>
       <c r="AM24" s="2">
-        <v>45869323.5</v>
+        <v>50456257.5</v>
       </c>
       <c r="AN24" s="2">
-        <v>9173864.7</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>-733909.0</v>
+      </c>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="2"/>
     </row>
@@ -6627,17 +6841,19 @@
         <v>58</v>
       </c>
       <c r="C25" s="5">
-        <v>10091251.5</v>
+        <v>11100377.2</v>
       </c>
       <c r="D25" s="3">
         <v>0.1</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>807299.9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>4952800.0</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="2">
@@ -6699,22 +6915,24 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>10091251.5</v>
+        <v>5340277.3</v>
       </c>
       <c r="AJ25" s="2">
-        <v>92853757.7</v>
+        <v>50321165.3</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
-        <v>10091251.5</v>
+        <v>11100377.2</v>
       </c>
       <c r="AM25" s="2">
-        <v>50456257.5</v>
+        <v>55501886.0</v>
       </c>
       <c r="AN25" s="2">
-        <v>10091251.5</v>
-      </c>
-      <c r="AO25" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>-807299.9</v>
+      </c>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="2"/>
     </row>
@@ -6726,17 +6944,19 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>11100377.2</v>
+        <v>12210414.7</v>
       </c>
       <c r="D26" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="E26" s="6">
+        <v>888030.0</v>
+      </c>
+      <c r="F26" s="3">
         <v>0.1</v>
       </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3"/>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>5460154.0</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="2">
@@ -6798,22 +7018,24 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>11100377.2</v>
+        <v>5862230.7</v>
       </c>
       <c r="AJ26" s="2">
-        <v>103954134.9</v>
+        <v>56183396.0</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
-        <v>11100377.2</v>
+        <v>12210414.7</v>
       </c>
       <c r="AM26" s="2">
-        <v>55501886.0</v>
+        <v>61052073.5</v>
       </c>
       <c r="AN26" s="2">
-        <v>11100377.2</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>-888030.0</v>
+      </c>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="2"/>
     </row>
@@ -6825,17 +7047,19 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>12210414.7</v>
+        <v>13431456.5</v>
       </c>
       <c r="D27" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>976833.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>6018242.0</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="2">
@@ -6897,22 +7121,24 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>12210414.7</v>
+        <v>6436381.5</v>
       </c>
       <c r="AJ27" s="2">
-        <v>116164549.6</v>
+        <v>62619777.5</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
-        <v>12210414.7</v>
+        <v>13431456.5</v>
       </c>
       <c r="AM27" s="2">
-        <v>61052073.5</v>
+        <v>67157282.5</v>
       </c>
       <c r="AN27" s="2">
-        <v>12210414.7</v>
-      </c>
-      <c r="AO27" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>-976833.0</v>
+      </c>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="2"/>
     </row>
@@ -6924,17 +7150,19 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>13431456.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="D28" s="3">
         <v>0.1</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>1074516.3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>6632141.0</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="2">
@@ -6996,22 +7224,24 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>13431456.5</v>
+        <v>7067945.4</v>
       </c>
       <c r="AJ28" s="2">
-        <v>129596006.1</v>
+        <v>69687722.9</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
-        <v>13431456.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="AM28" s="2">
-        <v>67157282.5</v>
+        <v>73873013.5</v>
       </c>
       <c r="AN28" s="2">
-        <v>13431456.5</v>
-      </c>
-      <c r="AO28" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>-1074516.3</v>
+      </c>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="2"/>
     </row>
@@ -7023,17 +7253,19 @@
         <v>62</v>
       </c>
       <c r="C29" s="5">
-        <v>14774602.7</v>
+        <v>16252063.3</v>
       </c>
       <c r="D29" s="3">
         <v>0.1</v>
       </c>
       <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>1181967.6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>7307429.0</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="2">
@@ -7095,22 +7327,24 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>14774602.7</v>
+        <v>7762666.7</v>
       </c>
       <c r="AJ29" s="2">
-        <v>144370608.8</v>
+        <v>77450389.6</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
-        <v>14774602.7</v>
+        <v>16252063.3</v>
       </c>
       <c r="AM29" s="2">
-        <v>73873013.5</v>
+        <v>81260316.5</v>
       </c>
       <c r="AN29" s="2">
-        <v>14774602.7</v>
-      </c>
-      <c r="AO29" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>-1181967.6</v>
+      </c>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="2"/>
     </row>
@@ -7122,17 +7356,19 @@
         <v>63</v>
       </c>
       <c r="C30" s="17">
-        <v>16252063.3</v>
+        <v>17877269.3</v>
       </c>
       <c r="D30" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1300164.8</v>
+      </c>
+      <c r="F30" s="18">
         <v>0.1</v>
       </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18"/>
       <c r="G30" s="17">
-        <v>0</v>
+        <v>8050246.0</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="17">
@@ -7194,22 +7430,24 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>16252063.3</v>
+        <v>8526858.5</v>
       </c>
       <c r="AJ30" s="17">
-        <v>160622672.1</v>
+        <v>85977248.1</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
-        <v>16252063.3</v>
+        <v>17877269.3</v>
       </c>
       <c r="AM30" s="17">
-        <v>81260316.5</v>
+        <v>89386346.5</v>
       </c>
       <c r="AN30" s="17">
-        <v>16252063.3</v>
-      </c>
-      <c r="AO30" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="17">
+        <v>-1300164.8</v>
+      </c>
       <c r="AP30" s="18"/>
       <c r="AQ30" s="17"/>
     </row>
@@ -7221,17 +7459,19 @@
         <v>64</v>
       </c>
       <c r="C31" s="5">
-        <v>17877269.3</v>
+        <v>19664995.9</v>
       </c>
       <c r="D31" s="3">
         <v>0.09</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>1430181.5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>8867344.0</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="2">
@@ -7293,22 +7533,24 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>17877269.3</v>
+        <v>9367470.4</v>
       </c>
       <c r="AJ31" s="2">
-        <v>178499941.4</v>
+        <v>95344718.5</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
-        <v>17877269.3</v>
+        <v>19664995.9</v>
       </c>
       <c r="AM31" s="2">
-        <v>89386346.5</v>
+        <v>98324979.5</v>
       </c>
       <c r="AN31" s="2">
-        <v>17877269.3</v>
-      </c>
-      <c r="AO31" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>-1430181.5</v>
+      </c>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="2"/>
     </row>
@@ -7320,17 +7562,19 @@
         <v>65</v>
       </c>
       <c r="C32" s="5">
-        <v>19664995.9</v>
+        <v>21631495.6</v>
       </c>
       <c r="D32" s="3">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>1573200.2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>9766152.0</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="2">
@@ -7392,22 +7636,24 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>19664995.9</v>
+        <v>10292143.4</v>
       </c>
       <c r="AJ32" s="2">
-        <v>198164937.3</v>
+        <v>105636861.9</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
-        <v>19664995.9</v>
+        <v>21631495.6</v>
       </c>
       <c r="AM32" s="2">
-        <v>98324979.5</v>
+        <v>108157478.0</v>
       </c>
       <c r="AN32" s="2">
-        <v>19664995.9</v>
-      </c>
-      <c r="AO32" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>-1573200.2</v>
+      </c>
       <c r="AP32" s="3"/>
       <c r="AQ32" s="2"/>
     </row>
@@ -7419,17 +7665,19 @@
         <v>66</v>
       </c>
       <c r="C33" s="5">
-        <v>21631495.6</v>
+        <v>23794645.6</v>
       </c>
       <c r="D33" s="3">
         <v>0.1</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3"/>
+        <v>1730520.0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>10754842.0</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="2">
@@ -7491,22 +7739,24 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>21631495.6</v>
+        <v>11309283.6</v>
       </c>
       <c r="AJ33" s="2">
-        <v>219796432.9</v>
+        <v>116946145.5</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
-        <v>21631495.6</v>
+        <v>23794645.6</v>
       </c>
       <c r="AM33" s="2">
-        <v>108157478.0</v>
+        <v>118973228.0</v>
       </c>
       <c r="AN33" s="2">
-        <v>21631495.6</v>
-      </c>
-      <c r="AO33" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>-1730520.0</v>
+      </c>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="2"/>
     </row>
@@ -7518,17 +7768,19 @@
         <v>67</v>
       </c>
       <c r="C34" s="17">
-        <v>23794645.6</v>
+        <v>26174110.6</v>
       </c>
       <c r="D34" s="18">
         <v>0.1</v>
       </c>
       <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18"/>
+        <v>1903572.0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.1</v>
+      </c>
       <c r="G34" s="17">
-        <v>0</v>
+        <v>11842400.0</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="17">
@@ -7590,22 +7842,24 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>23794645.6</v>
+        <v>12428138.6</v>
       </c>
       <c r="AJ34" s="17">
-        <v>243591078.5</v>
+        <v>129374284.1</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
-        <v>23794645.6</v>
+        <v>26174110.6</v>
       </c>
       <c r="AM34" s="17">
-        <v>118973228.0</v>
+        <v>130870553.0</v>
       </c>
       <c r="AN34" s="17">
-        <v>23794645.6</v>
-      </c>
-      <c r="AO34" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="17">
+        <v>-1903572.0</v>
+      </c>
       <c r="AP34" s="18"/>
       <c r="AQ34" s="17"/>
     </row>
@@ -7617,17 +7871,19 @@
         <v>68</v>
       </c>
       <c r="C35" s="5">
-        <v>26174110.6</v>
+        <v>28791522.1</v>
       </c>
       <c r="D35" s="3">
         <v>0.1</v>
       </c>
       <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>2093929.2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>13038715.0</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="2">
@@ -7689,22 +7945,24 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>26174110.6</v>
+        <v>13658877.9</v>
       </c>
       <c r="AJ35" s="2">
-        <v>269765189.1</v>
+        <v>143033162.0</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
-        <v>26174110.6</v>
+        <v>28791522.1</v>
       </c>
       <c r="AM35" s="2">
-        <v>130870553.0</v>
+        <v>143957610.5</v>
       </c>
       <c r="AN35" s="2">
-        <v>26174110.6</v>
-      </c>
-      <c r="AO35" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>-2093929.2</v>
+      </c>
       <c r="AP35" s="3"/>
       <c r="AQ35" s="2"/>
     </row>
@@ -7716,17 +7974,19 @@
         <v>69</v>
       </c>
       <c r="C36" s="5">
-        <v>28791522.1</v>
+        <v>31670674.2</v>
       </c>
       <c r="D36" s="3">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>2303321.9</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>14354660.0</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="2">
@@ -7788,22 +8048,24 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>28791522.1</v>
+        <v>15012692.3</v>
       </c>
       <c r="AJ36" s="2">
-        <v>298556711.2</v>
+        <v>158045854.3</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
-        <v>28791522.1</v>
+        <v>31670674.2</v>
       </c>
       <c r="AM36" s="2">
-        <v>143957610.5</v>
+        <v>158353371.0</v>
       </c>
       <c r="AN36" s="2">
-        <v>28791522.1</v>
-      </c>
-      <c r="AO36" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>-2303321.9</v>
+      </c>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="2"/>
     </row>
@@ -7815,17 +8077,19 @@
         <v>70</v>
       </c>
       <c r="C37" s="5">
-        <v>31670674.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="D37" s="3">
         <v>0.09</v>
       </c>
       <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>2533654.2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>15802199.0</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="2">
@@ -7887,22 +8151,24 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>31670674.2</v>
+        <v>16501888.2</v>
       </c>
       <c r="AJ37" s="2">
-        <v>330227385.4</v>
+        <v>174547742.5</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
-        <v>31670674.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="AM37" s="2">
-        <v>158353371.0</v>
+        <v>174188707.0</v>
       </c>
       <c r="AN37" s="2">
-        <v>31670674.2</v>
-      </c>
-      <c r="AO37" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>-2533654.2</v>
+      </c>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="2"/>
     </row>
@@ -7914,17 +8180,19 @@
         <v>71</v>
       </c>
       <c r="C38" s="5">
-        <v>34837741.4</v>
+        <v>38321515.1</v>
       </c>
       <c r="D38" s="3">
         <v>0.09</v>
       </c>
       <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>2787019.4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>17394493.0</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="2">
@@ -7986,22 +8254,24 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>34837741.4</v>
+        <v>18140002.7</v>
       </c>
       <c r="AJ38" s="2">
-        <v>365065126.8</v>
+        <v>192687745.2</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
-        <v>34837741.4</v>
+        <v>38321515.1</v>
       </c>
       <c r="AM38" s="2">
-        <v>174188707.0</v>
+        <v>191607575.5</v>
       </c>
       <c r="AN38" s="2">
-        <v>34837741.4</v>
-      </c>
-      <c r="AO38" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>-2787019.4</v>
+      </c>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="2"/>
     </row>
@@ -8013,17 +8283,19 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>38321515.1</v>
+        <v>42153666.5</v>
       </c>
       <c r="D39" s="3">
         <v>0.09</v>
       </c>
       <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>3065720.9</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.09</v>
+      </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>19146015.0</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="2">
@@ -8085,22 +8357,24 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>38321515.1</v>
+        <v>19941930.6</v>
       </c>
       <c r="AJ39" s="2">
-        <v>403386641.9</v>
+        <v>212629675.8</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
-        <v>38321515.1</v>
+        <v>42153666.5</v>
       </c>
       <c r="AM39" s="2">
-        <v>191607575.5</v>
+        <v>210768332.5</v>
       </c>
       <c r="AN39" s="2">
-        <v>38321515.1</v>
-      </c>
-      <c r="AO39" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>-3065720.9</v>
+      </c>
       <c r="AP39" s="3"/>
       <c r="AQ39" s="2"/>
     </row>
@@ -8299,6 +8573,7 @@
     <col min="38" max="38" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="39" max="39" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="40" max="40" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="9.283" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -10603,9 +10878,9 @@
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -10638,7 +10913,8 @@
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="38" max="38" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="39" max="39" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="9.283" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -10857,14 +11133,24 @@
       <c r="B6" s="2">
         <v>39</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="5">
+        <v>1815000.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>132000.0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>712936.0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.39</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="2"/>
@@ -10904,20 +11190,22 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="7">
-        <v>0</v>
+        <v>970064.0</v>
       </c>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="2">
-        <v>0</v>
+        <v>1815000.0</v>
       </c>
       <c r="AM6" s="2">
-        <v>0</v>
+        <v>9075000.0</v>
       </c>
       <c r="AN6" s="2">
         <v>0</v>
       </c>
-      <c r="AO6" s="2"/>
+      <c r="AO6" s="2">
+        <v>-132000.0</v>
+      </c>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="2" t="s">
         <v>54</v>
@@ -10931,17 +11219,23 @@
         <v>40</v>
       </c>
       <c r="C7" s="9">
-        <v>1815000.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="D7" s="10">
         <v>0.1</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="9">
+        <v>145200.0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.1</v>
+      </c>
       <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>791782.0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.4</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="9"/>
@@ -10981,25 +11275,25 @@
       <c r="AG7" s="10"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="9">
-        <v>1815000.0</v>
+        <v>1059518.0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1815000.0</v>
+        <v>1059518.0</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="9">
-        <v>1815000.0</v>
+        <v>1996500.0</v>
       </c>
       <c r="AM7" s="9">
-        <v>9075000.0</v>
+        <v>9982500.0</v>
       </c>
       <c r="AN7" s="9">
-        <v>1815000.0</v>
-      </c>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="10">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="9">
+        <v>-145200.0</v>
+      </c>
+      <c r="AP7" s="10"/>
       <c r="AQ7" s="9" t="s">
         <v>55</v>
       </c>
@@ -11012,17 +11306,23 @@
         <v>41</v>
       </c>
       <c r="C8" s="5">
-        <v>1996500.0</v>
+        <v>2196150.0</v>
       </c>
       <c r="D8" s="3">
         <v>0.1</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="6">
+        <v>159720.0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>883034.0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.4</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
@@ -11062,25 +11362,25 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="7">
-        <v>1996500.0</v>
+        <v>1153396.0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>3811500.0</v>
+        <v>2212914.0</v>
       </c>
       <c r="AK8" s="3"/>
       <c r="AL8" s="2">
-        <v>1996500.0</v>
+        <v>2196150.0</v>
       </c>
       <c r="AM8" s="2">
-        <v>9982500.0</v>
+        <v>10980750.0</v>
       </c>
       <c r="AN8" s="2">
-        <v>1996500.0</v>
-      </c>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>-159720.0</v>
+      </c>
+      <c r="AP8" s="3"/>
       <c r="AQ8" s="2" t="s">
         <v>56</v>
       </c>
@@ -11093,17 +11393,23 @@
         <v>42</v>
       </c>
       <c r="C9" s="5">
-        <v>2196150.0</v>
+        <v>2415765.0</v>
       </c>
       <c r="D9" s="3">
         <v>0.1</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="6">
+        <v>175692.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>983411.0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.41</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
@@ -11143,25 +11449,25 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="7">
-        <v>2196150.0</v>
+        <v>1256662.0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>6007650.0</v>
+        <v>3469576.0</v>
       </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="2">
-        <v>2196150.0</v>
+        <v>2415765.0</v>
       </c>
       <c r="AM9" s="2">
-        <v>10980750.0</v>
+        <v>12078825.0</v>
       </c>
       <c r="AN9" s="2">
-        <v>2196150.0</v>
-      </c>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>-175692.0</v>
+      </c>
+      <c r="AP9" s="3"/>
       <c r="AQ9" s="2" t="s">
         <v>57</v>
       </c>
@@ -11174,17 +11480,23 @@
         <v>43</v>
       </c>
       <c r="C10" s="5">
-        <v>2415765.0</v>
+        <v>2657341.5</v>
       </c>
       <c r="D10" s="3">
         <v>0.1</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="6">
+        <v>193261.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>1093826.0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.41</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
@@ -11224,25 +11536,25 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="7">
-        <v>2415765.0</v>
+        <v>1370254.3</v>
       </c>
       <c r="AJ10" s="2">
-        <v>8423415.0</v>
+        <v>4839830.3</v>
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="2">
-        <v>2415765.0</v>
+        <v>2657341.5</v>
       </c>
       <c r="AM10" s="2">
-        <v>12078825.0</v>
+        <v>13286707.5</v>
       </c>
       <c r="AN10" s="2">
-        <v>2415765.0</v>
-      </c>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>-193261.2</v>
+      </c>
+      <c r="AP10" s="3"/>
       <c r="AQ10" s="2" t="s">
         <v>58</v>
       </c>
@@ -11255,17 +11567,23 @@
         <v>44</v>
       </c>
       <c r="C11" s="5">
-        <v>2657341.5</v>
+        <v>2923076.2</v>
       </c>
       <c r="D11" s="3">
         <v>0.1</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="6">
+        <v>212587.1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>1215283.0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.42</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
@@ -11305,25 +11623,25 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="7">
-        <v>2657341.5</v>
+        <v>1495206.1</v>
       </c>
       <c r="AJ11" s="2">
-        <v>11080756.5</v>
+        <v>6335036.4</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="2">
-        <v>2657341.5</v>
+        <v>2923076.2</v>
       </c>
       <c r="AM11" s="2">
-        <v>13286707.5</v>
+        <v>14615381.0</v>
       </c>
       <c r="AN11" s="2">
-        <v>2657341.5</v>
-      </c>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>-212587.1</v>
+      </c>
+      <c r="AP11" s="3"/>
       <c r="AQ11" s="2" t="s">
         <v>59</v>
       </c>
@@ -11336,17 +11654,23 @@
         <v>45</v>
       </c>
       <c r="C12" s="5">
-        <v>2923076.2</v>
+        <v>3215383.6</v>
       </c>
       <c r="D12" s="3">
         <v>0.1</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="6">
+        <v>233845.7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3"/>
+        <v>1348884.0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.42</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
@@ -11386,25 +11710,25 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="7">
-        <v>2923076.2</v>
+        <v>1632653.9</v>
       </c>
       <c r="AJ12" s="2">
-        <v>14003832.7</v>
+        <v>7967690.3</v>
       </c>
       <c r="AK12" s="3"/>
       <c r="AL12" s="2">
-        <v>2923076.2</v>
+        <v>3215383.6</v>
       </c>
       <c r="AM12" s="2">
-        <v>14615381.0</v>
+        <v>16076918.0</v>
       </c>
       <c r="AN12" s="2">
-        <v>2923076.2</v>
-      </c>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>-233845.7</v>
+      </c>
+      <c r="AP12" s="3"/>
       <c r="AQ12" s="2" t="s">
         <v>60</v>
       </c>
@@ -11417,17 +11741,23 @@
         <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>3215383.6</v>
+        <v>3536922.4</v>
       </c>
       <c r="D13" s="3">
         <v>0.1</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="6">
+        <v>257230.6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>1495846.0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.42</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
@@ -11467,25 +11797,25 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="7">
-        <v>3215383.6</v>
+        <v>1783845.8</v>
       </c>
       <c r="AJ13" s="2">
-        <v>17219216.3</v>
+        <v>9751536.1</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AL13" s="2">
-        <v>3215383.6</v>
+        <v>3536922.4</v>
       </c>
       <c r="AM13" s="2">
-        <v>16076918.0</v>
+        <v>17684612.0</v>
       </c>
       <c r="AN13" s="2">
-        <v>3215383.6</v>
-      </c>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>-257230.6</v>
+      </c>
+      <c r="AP13" s="3"/>
       <c r="AQ13" s="2" t="s">
         <v>61</v>
       </c>
@@ -11498,17 +11828,23 @@
         <v>47</v>
       </c>
       <c r="C14" s="5">
-        <v>3536922.4</v>
+        <v>3890614.2</v>
       </c>
       <c r="D14" s="3">
         <v>0.1</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="6">
+        <v>282954.1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3"/>
+        <v>1657505.0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.43</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
@@ -11548,25 +11884,25 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="7">
-        <v>3536922.4</v>
+        <v>1950155.1</v>
       </c>
       <c r="AJ14" s="2">
-        <v>20756138.7</v>
+        <v>11701691.2</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AL14" s="2">
-        <v>3536922.4</v>
+        <v>3890614.2</v>
       </c>
       <c r="AM14" s="2">
-        <v>17684612.0</v>
+        <v>19453071.0</v>
       </c>
       <c r="AN14" s="2">
-        <v>3536922.4</v>
-      </c>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>-282954.1</v>
+      </c>
+      <c r="AP14" s="3"/>
       <c r="AQ14" s="2" t="s">
         <v>62</v>
       </c>
@@ -11579,17 +11915,23 @@
         <v>48</v>
       </c>
       <c r="C15" s="5">
-        <v>3890614.2</v>
+        <v>4279675.4</v>
       </c>
       <c r="D15" s="3">
         <v>0.1</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="6">
+        <v>311249.4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>1835330.0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.43</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
@@ -11629,25 +11971,25 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="7">
-        <v>3890614.2</v>
+        <v>2133096.0</v>
       </c>
       <c r="AJ15" s="2">
-        <v>24646752.9</v>
+        <v>13834787.2</v>
       </c>
       <c r="AK15" s="3"/>
       <c r="AL15" s="2">
-        <v>3890614.2</v>
+        <v>4279675.4</v>
       </c>
       <c r="AM15" s="2">
-        <v>19453071.0</v>
+        <v>21398377.0</v>
       </c>
       <c r="AN15" s="2">
-        <v>3890614.2</v>
-      </c>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>-311249.4</v>
+      </c>
+      <c r="AP15" s="3"/>
       <c r="AQ15" s="2" t="s">
         <v>63</v>
       </c>
@@ -11660,17 +12002,23 @@
         <v>49</v>
       </c>
       <c r="C16" s="5">
-        <v>4279675.4</v>
+        <v>4707642.5</v>
       </c>
       <c r="D16" s="3">
         <v>0.1</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="6">
+        <v>342373.9</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>2030936.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.43</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
@@ -11710,25 +12058,25 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="7">
-        <v>4279675.4</v>
+        <v>2334332.6</v>
       </c>
       <c r="AJ16" s="2">
-        <v>28926428.3</v>
+        <v>16169119.8</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="2">
-        <v>4279675.4</v>
+        <v>4707642.5</v>
       </c>
       <c r="AM16" s="2">
-        <v>21398377.0</v>
+        <v>23538212.5</v>
       </c>
       <c r="AN16" s="2">
-        <v>4279675.4</v>
-      </c>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>-342373.9</v>
+      </c>
+      <c r="AP16" s="3"/>
       <c r="AQ16" s="2" t="s">
         <v>64</v>
       </c>
@@ -11741,17 +12089,23 @@
         <v>50</v>
       </c>
       <c r="C17" s="5">
-        <v>4707642.5</v>
+        <v>5178407.3</v>
       </c>
       <c r="D17" s="3">
         <v>0.1</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="6">
+        <v>376611.4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>2246103.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.43</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
@@ -11791,25 +12145,25 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="7">
-        <v>4707642.5</v>
+        <v>2555692.9</v>
       </c>
       <c r="AJ17" s="2">
-        <v>33634070.8</v>
+        <v>18724812.7</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AL17" s="2">
-        <v>4707642.5</v>
+        <v>5178407.3</v>
       </c>
       <c r="AM17" s="2">
-        <v>23538212.5</v>
+        <v>25892036.5</v>
       </c>
       <c r="AN17" s="2">
-        <v>4707642.5</v>
-      </c>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>-376611.4</v>
+      </c>
+      <c r="AP17" s="3"/>
       <c r="AQ17" s="2" t="s">
         <v>65</v>
       </c>
@@ -11822,17 +12176,23 @@
         <v>51</v>
       </c>
       <c r="C18" s="5">
-        <v>5178407.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="D18" s="3">
         <v>0.1</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="6">
+        <v>414272.1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>2482788.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.44</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
@@ -11872,25 +12232,25 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="7">
-        <v>5178407.3</v>
+        <v>2799187.6</v>
       </c>
       <c r="AJ18" s="2">
-        <v>38812478.1</v>
+        <v>21524000.3</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AL18" s="2">
-        <v>5178407.3</v>
+        <v>5696247.7</v>
       </c>
       <c r="AM18" s="2">
-        <v>25892036.5</v>
+        <v>28481238.5</v>
       </c>
       <c r="AN18" s="2">
-        <v>5178407.3</v>
-      </c>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>-414272.1</v>
+      </c>
+      <c r="AP18" s="3"/>
       <c r="AQ18" s="2" t="s">
         <v>66</v>
       </c>
@@ -11903,17 +12263,23 @@
         <v>52</v>
       </c>
       <c r="C19" s="5">
-        <v>5696247.7</v>
+        <v>6265872.8</v>
       </c>
       <c r="D19" s="3">
         <v>0.1</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="6">
+        <v>455699.2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>2743141.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.44</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
@@ -11953,25 +12319,25 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="7">
-        <v>5696247.7</v>
+        <v>3067032.6</v>
       </c>
       <c r="AJ19" s="2">
-        <v>44508725.8</v>
+        <v>24591032.9</v>
       </c>
       <c r="AK19" s="3"/>
       <c r="AL19" s="2">
-        <v>5696247.7</v>
+        <v>6265872.8</v>
       </c>
       <c r="AM19" s="2">
-        <v>28481238.5</v>
+        <v>31329364.0</v>
       </c>
       <c r="AN19" s="2">
-        <v>5696247.7</v>
-      </c>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>-455699.2</v>
+      </c>
+      <c r="AP19" s="3"/>
       <c r="AQ19" s="2" t="s">
         <v>67</v>
       </c>
@@ -11984,17 +12350,23 @@
         <v>53</v>
       </c>
       <c r="C20" s="5">
-        <v>6265872.8</v>
+        <v>6892460.3</v>
       </c>
       <c r="D20" s="3">
         <v>0.1</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="6">
+        <v>501268.9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>3029529.0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.44</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
@@ -12034,25 +12406,25 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="7">
-        <v>6265872.8</v>
+        <v>3361662.4</v>
       </c>
       <c r="AJ20" s="2">
-        <v>50774598.6</v>
+        <v>27952695.3</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AL20" s="2">
-        <v>6265872.8</v>
+        <v>6892460.3</v>
       </c>
       <c r="AM20" s="2">
-        <v>31329364.0</v>
+        <v>34462301.5</v>
       </c>
       <c r="AN20" s="2">
-        <v>6265872.8</v>
-      </c>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>-501268.9</v>
+      </c>
+      <c r="AP20" s="3"/>
       <c r="AQ20" s="2" t="s">
         <v>68</v>
       </c>
@@ -12065,17 +12437,23 @@
         <v>54</v>
       </c>
       <c r="C21" s="5">
-        <v>6892460.3</v>
+        <v>7581706.0</v>
       </c>
       <c r="D21" s="3">
         <v>0.1</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="6">
+        <v>551395.9</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>3344555.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.44</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
@@ -12115,25 +12493,25 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="7">
-        <v>6892460.3</v>
+        <v>3685755.1</v>
       </c>
       <c r="AJ21" s="2">
-        <v>57667058.9</v>
+        <v>31638450.4</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AL21" s="2">
-        <v>6892460.3</v>
+        <v>7581706.0</v>
       </c>
       <c r="AM21" s="2">
-        <v>34462301.5</v>
+        <v>37908530.0</v>
       </c>
       <c r="AN21" s="2">
-        <v>6892460.3</v>
-      </c>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>-551395.9</v>
+      </c>
+      <c r="AP21" s="3"/>
       <c r="AQ21" s="2" t="s">
         <v>69</v>
       </c>
@@ -12146,17 +12524,23 @@
         <v>55</v>
       </c>
       <c r="C22" s="13">
-        <v>7581706.0</v>
+        <v>8339876.6</v>
       </c>
       <c r="D22" s="14">
         <v>0.1</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="13">
+        <v>606535.6</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.1</v>
+      </c>
       <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14"/>
+        <v>3691084.0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.44</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="14"/>
       <c r="K22" s="13"/>
@@ -12196,25 +12580,25 @@
       <c r="AG22" s="14"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="13">
-        <v>7581706.0</v>
+        <v>4042257.0</v>
       </c>
       <c r="AJ22" s="13">
-        <v>65248764.9</v>
+        <v>35680707.4</v>
       </c>
       <c r="AK22" s="14"/>
       <c r="AL22" s="13">
-        <v>7581706.0</v>
+        <v>8339876.6</v>
       </c>
       <c r="AM22" s="13">
-        <v>37908530.0</v>
+        <v>41699383.0</v>
       </c>
       <c r="AN22" s="13">
-        <v>7581706.0</v>
-      </c>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="14">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>-606535.6</v>
+      </c>
+      <c r="AP22" s="14"/>
       <c r="AQ22" s="13" t="s">
         <v>70</v>
       </c>
@@ -12227,17 +12611,23 @@
         <v>56</v>
       </c>
       <c r="C23" s="5">
-        <v>8339876.6</v>
+        <v>9173864.7</v>
       </c>
       <c r="D23" s="3">
         <v>0.1</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="6">
+        <v>667189.6</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3"/>
+        <v>4072268.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.44</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2"/>
@@ -12277,25 +12667,25 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="7">
-        <v>8339876.6</v>
+        <v>4434407.1</v>
       </c>
       <c r="AJ23" s="2">
-        <v>73588641.5</v>
+        <v>40115114.5</v>
       </c>
       <c r="AK23" s="3"/>
       <c r="AL23" s="2">
-        <v>8339876.6</v>
+        <v>9173864.7</v>
       </c>
       <c r="AM23" s="2">
-        <v>41699383.0</v>
+        <v>45869323.5</v>
       </c>
       <c r="AN23" s="2">
-        <v>8339876.6</v>
-      </c>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>-667189.6</v>
+      </c>
+      <c r="AP23" s="3"/>
       <c r="AQ23" s="2" t="s">
         <v>71</v>
       </c>
@@ -12308,17 +12698,23 @@
         <v>57</v>
       </c>
       <c r="C24" s="5">
-        <v>9173864.7</v>
+        <v>10091251.5</v>
       </c>
       <c r="D24" s="3">
         <v>0.1</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="6">
+        <v>733909.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>4491569.0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="2"/>
@@ -12358,25 +12754,25 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="7">
-        <v>9173864.7</v>
+        <v>4865773.5</v>
       </c>
       <c r="AJ24" s="2">
-        <v>82762506.2</v>
+        <v>44980888.0</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="2">
-        <v>9173864.7</v>
+        <v>10091251.5</v>
       </c>
       <c r="AM24" s="2">
-        <v>45869323.5</v>
+        <v>50456257.5</v>
       </c>
       <c r="AN24" s="2">
-        <v>9173864.7</v>
-      </c>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>-733909.0</v>
+      </c>
+      <c r="AP24" s="3"/>
       <c r="AQ24" s="2" t="s">
         <v>72</v>
       </c>
@@ -12389,17 +12785,23 @@
         <v>58</v>
       </c>
       <c r="C25" s="5">
-        <v>10091251.5</v>
+        <v>11100377.2</v>
       </c>
       <c r="D25" s="3">
         <v>0.1</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="6">
+        <v>807299.9</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>4952800.0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
       <c r="K25" s="2"/>
@@ -12439,25 +12841,25 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="7">
-        <v>10091251.5</v>
+        <v>5340277.3</v>
       </c>
       <c r="AJ25" s="2">
-        <v>92853757.7</v>
+        <v>50321165.3</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AL25" s="2">
-        <v>10091251.5</v>
+        <v>11100377.2</v>
       </c>
       <c r="AM25" s="2">
-        <v>50456257.5</v>
+        <v>55501886.0</v>
       </c>
       <c r="AN25" s="2">
-        <v>10091251.5</v>
-      </c>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>-807299.9</v>
+      </c>
+      <c r="AP25" s="3"/>
       <c r="AQ25" s="2" t="s">
         <v>73</v>
       </c>
@@ -12470,17 +12872,23 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>11100377.2</v>
+        <v>12210414.7</v>
       </c>
       <c r="D26" s="3">
         <v>0.1</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="6">
+        <v>888030.0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>5460154.0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
@@ -12520,25 +12928,25 @@
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="7">
-        <v>11100377.2</v>
+        <v>5862230.7</v>
       </c>
       <c r="AJ26" s="2">
-        <v>103954134.9</v>
+        <v>56183396.0</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AL26" s="2">
-        <v>11100377.2</v>
+        <v>12210414.7</v>
       </c>
       <c r="AM26" s="2">
-        <v>55501886.0</v>
+        <v>61052073.5</v>
       </c>
       <c r="AN26" s="2">
-        <v>11100377.2</v>
-      </c>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>-888030.0</v>
+      </c>
+      <c r="AP26" s="3"/>
       <c r="AQ26" s="2" t="s">
         <v>74</v>
       </c>
@@ -12551,17 +12959,23 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>12210414.7</v>
+        <v>13431456.5</v>
       </c>
       <c r="D27" s="3">
         <v>0.1</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="6">
+        <v>976833.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>6018242.0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
       <c r="K27" s="2"/>
@@ -12601,25 +13015,25 @@
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="7">
-        <v>12210414.7</v>
+        <v>6436381.5</v>
       </c>
       <c r="AJ27" s="2">
-        <v>116164549.6</v>
+        <v>62619777.5</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AL27" s="2">
-        <v>12210414.7</v>
+        <v>13431456.5</v>
       </c>
       <c r="AM27" s="2">
-        <v>61052073.5</v>
+        <v>67157282.5</v>
       </c>
       <c r="AN27" s="2">
-        <v>12210414.7</v>
-      </c>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>-976833.0</v>
+      </c>
+      <c r="AP27" s="3"/>
       <c r="AQ27" s="2" t="s">
         <v>75</v>
       </c>
@@ -12632,17 +13046,23 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>13431456.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="D28" s="3">
         <v>0.1</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="6">
+        <v>1074516.3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>6632141.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="3"/>
       <c r="K28" s="2"/>
@@ -12682,25 +13102,25 @@
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
       <c r="AI28" s="7">
-        <v>13431456.5</v>
+        <v>7067945.4</v>
       </c>
       <c r="AJ28" s="2">
-        <v>129596006.1</v>
+        <v>69687722.9</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AL28" s="2">
-        <v>13431456.5</v>
+        <v>14774602.7</v>
       </c>
       <c r="AM28" s="2">
-        <v>67157282.5</v>
+        <v>73873013.5</v>
       </c>
       <c r="AN28" s="2">
-        <v>13431456.5</v>
-      </c>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>-1074516.3</v>
+      </c>
+      <c r="AP28" s="3"/>
       <c r="AQ28" s="2" t="s">
         <v>76</v>
       </c>
@@ -12713,17 +13133,23 @@
         <v>62</v>
       </c>
       <c r="C29" s="5">
-        <v>14774602.7</v>
+        <v>16252063.3</v>
       </c>
       <c r="D29" s="3">
         <v>0.1</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="6">
+        <v>1181967.6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>7307429.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
       <c r="K29" s="2"/>
@@ -12763,25 +13189,25 @@
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
       <c r="AI29" s="7">
-        <v>14774602.7</v>
+        <v>7762666.7</v>
       </c>
       <c r="AJ29" s="2">
-        <v>144370608.8</v>
+        <v>77450389.6</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="2">
-        <v>14774602.7</v>
+        <v>16252063.3</v>
       </c>
       <c r="AM29" s="2">
-        <v>73873013.5</v>
+        <v>81260316.5</v>
       </c>
       <c r="AN29" s="2">
-        <v>14774602.7</v>
-      </c>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>-1181967.6</v>
+      </c>
+      <c r="AP29" s="3"/>
       <c r="AQ29" s="2" t="s">
         <v>77</v>
       </c>
@@ -12794,17 +13220,23 @@
         <v>63</v>
       </c>
       <c r="C30" s="17">
-        <v>16252063.3</v>
+        <v>17877269.3</v>
       </c>
       <c r="D30" s="18">
         <v>0.1</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="17">
+        <v>1300164.8</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0.1</v>
+      </c>
       <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="18"/>
+        <v>8050246.0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0.45</v>
+      </c>
       <c r="I30" s="17"/>
       <c r="J30" s="18"/>
       <c r="K30" s="17"/>
@@ -12844,25 +13276,25 @@
       <c r="AG30" s="18"/>
       <c r="AH30" s="18"/>
       <c r="AI30" s="17">
-        <v>16252063.3</v>
+        <v>8526858.5</v>
       </c>
       <c r="AJ30" s="17">
-        <v>160622672.1</v>
+        <v>85977248.1</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="17">
-        <v>16252063.3</v>
+        <v>17877269.3</v>
       </c>
       <c r="AM30" s="17">
-        <v>81260316.5</v>
+        <v>89386346.5</v>
       </c>
       <c r="AN30" s="17">
-        <v>16252063.3</v>
-      </c>
-      <c r="AO30" s="17"/>
-      <c r="AP30" s="18">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="17">
+        <v>-1300164.8</v>
+      </c>
+      <c r="AP30" s="18"/>
       <c r="AQ30" s="17" t="s">
         <v>78</v>
       </c>
@@ -12875,17 +13307,23 @@
         <v>64</v>
       </c>
       <c r="C31" s="5">
-        <v>17877269.3</v>
+        <v>19664995.9</v>
       </c>
       <c r="D31" s="3">
         <v>0.1</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="6">
+        <v>1430181.5</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>8867344.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
       <c r="K31" s="2"/>
@@ -12925,25 +13363,25 @@
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
       <c r="AI31" s="7">
-        <v>17877269.3</v>
+        <v>9367470.4</v>
       </c>
       <c r="AJ31" s="2">
-        <v>178499941.4</v>
+        <v>95344718.5</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="2">
-        <v>17877269.3</v>
+        <v>19664995.9</v>
       </c>
       <c r="AM31" s="2">
-        <v>89386346.5</v>
+        <v>98324979.5</v>
       </c>
       <c r="AN31" s="2">
-        <v>17877269.3</v>
-      </c>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>-1430181.5</v>
+      </c>
+      <c r="AP31" s="3"/>
       <c r="AQ31" s="2" t="s">
         <v>79</v>
       </c>
@@ -12956,17 +13394,23 @@
         <v>65</v>
       </c>
       <c r="C32" s="5">
-        <v>19664995.9</v>
+        <v>21631495.6</v>
       </c>
       <c r="D32" s="3">
         <v>0.1</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="3"/>
+      <c r="E32" s="6">
+        <v>1573200.2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>9766152.0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="3"/>
       <c r="K32" s="2"/>
@@ -13006,25 +13450,25 @@
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
       <c r="AI32" s="7">
-        <v>19664995.9</v>
+        <v>10292143.4</v>
       </c>
       <c r="AJ32" s="2">
-        <v>198164937.3</v>
+        <v>105636861.9</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="2">
-        <v>19664995.9</v>
+        <v>21631495.6</v>
       </c>
       <c r="AM32" s="2">
-        <v>98324979.5</v>
+        <v>108157478.0</v>
       </c>
       <c r="AN32" s="2">
-        <v>19664995.9</v>
-      </c>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>-1573200.2</v>
+      </c>
+      <c r="AP32" s="3"/>
       <c r="AQ32" s="2" t="s">
         <v>80</v>
       </c>
@@ -13037,17 +13481,23 @@
         <v>66</v>
       </c>
       <c r="C33" s="5">
-        <v>21631495.6</v>
+        <v>23794645.6</v>
       </c>
       <c r="D33" s="3">
         <v>0.1</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="3"/>
+      <c r="E33" s="6">
+        <v>1730520.0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>10754842.0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="3"/>
       <c r="K33" s="2"/>
@@ -13087,25 +13537,25 @@
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="7">
-        <v>21631495.6</v>
+        <v>11309283.6</v>
       </c>
       <c r="AJ33" s="2">
-        <v>219796432.9</v>
+        <v>116946145.5</v>
       </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="2">
-        <v>21631495.6</v>
+        <v>23794645.6</v>
       </c>
       <c r="AM33" s="2">
-        <v>108157478.0</v>
+        <v>118973228.0</v>
       </c>
       <c r="AN33" s="2">
-        <v>21631495.6</v>
-      </c>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>-1730520.0</v>
+      </c>
+      <c r="AP33" s="3"/>
       <c r="AQ33" s="2" t="s">
         <v>81</v>
       </c>
@@ -13118,17 +13568,23 @@
         <v>67</v>
       </c>
       <c r="C34" s="17">
-        <v>23794645.6</v>
+        <v>26174110.6</v>
       </c>
       <c r="D34" s="18">
         <v>0.1</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
+      <c r="E34" s="17">
+        <v>1903572.0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0.1</v>
+      </c>
       <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="18"/>
+        <v>11842400.0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.45</v>
+      </c>
       <c r="I34" s="17"/>
       <c r="J34" s="18"/>
       <c r="K34" s="17"/>
@@ -13168,25 +13624,25 @@
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
       <c r="AI34" s="17">
-        <v>23794645.6</v>
+        <v>12428138.6</v>
       </c>
       <c r="AJ34" s="17">
-        <v>243591078.5</v>
+        <v>129374284.1</v>
       </c>
       <c r="AK34" s="18"/>
       <c r="AL34" s="17">
-        <v>23794645.6</v>
+        <v>26174110.6</v>
       </c>
       <c r="AM34" s="17">
-        <v>118973228.0</v>
+        <v>130870553.0</v>
       </c>
       <c r="AN34" s="17">
-        <v>23794645.6</v>
-      </c>
-      <c r="AO34" s="17"/>
-      <c r="AP34" s="18">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="17">
+        <v>-1903572.0</v>
+      </c>
+      <c r="AP34" s="18"/>
       <c r="AQ34" s="17" t="s">
         <v>82</v>
       </c>
@@ -13199,17 +13655,23 @@
         <v>68</v>
       </c>
       <c r="C35" s="5">
-        <v>26174110.6</v>
+        <v>28791522.1</v>
       </c>
       <c r="D35" s="3">
         <v>0.1</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="6">
+        <v>2093929.2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>13038715.0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="3"/>
       <c r="K35" s="2"/>
@@ -13249,25 +13711,25 @@
       <c r="AG35" s="3"/>
       <c r="AH35" s="3"/>
       <c r="AI35" s="7">
-        <v>26174110.6</v>
+        <v>13658877.9</v>
       </c>
       <c r="AJ35" s="2">
-        <v>269765189.1</v>
+        <v>143033162.0</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="2">
-        <v>26174110.6</v>
+        <v>28791522.1</v>
       </c>
       <c r="AM35" s="2">
-        <v>130870553.0</v>
+        <v>143957610.5</v>
       </c>
       <c r="AN35" s="2">
-        <v>26174110.6</v>
-      </c>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>-2093929.2</v>
+      </c>
+      <c r="AP35" s="3"/>
       <c r="AQ35" s="2" t="s">
         <v>83</v>
       </c>
@@ -13280,17 +13742,23 @@
         <v>69</v>
       </c>
       <c r="C36" s="5">
-        <v>28791522.1</v>
+        <v>31670674.2</v>
       </c>
       <c r="D36" s="3">
         <v>0.1</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="6">
+        <v>2303321.9</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3"/>
+        <v>14354660.0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="3"/>
       <c r="K36" s="2"/>
@@ -13330,25 +13798,25 @@
       <c r="AG36" s="3"/>
       <c r="AH36" s="3"/>
       <c r="AI36" s="7">
-        <v>28791522.1</v>
+        <v>15012692.3</v>
       </c>
       <c r="AJ36" s="2">
-        <v>298556711.2</v>
+        <v>158045854.3</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="2">
-        <v>28791522.1</v>
+        <v>31670674.2</v>
       </c>
       <c r="AM36" s="2">
-        <v>143957610.5</v>
+        <v>158353371.0</v>
       </c>
       <c r="AN36" s="2">
-        <v>28791522.1</v>
-      </c>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>-2303321.9</v>
+      </c>
+      <c r="AP36" s="3"/>
       <c r="AQ36" s="2" t="s">
         <v>84</v>
       </c>
@@ -13361,17 +13829,23 @@
         <v>70</v>
       </c>
       <c r="C37" s="5">
-        <v>31670674.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="D37" s="3">
         <v>0.1</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="6">
+        <v>2533654.2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3"/>
+        <v>15802199.0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
       <c r="K37" s="2"/>
@@ -13411,25 +13885,25 @@
       <c r="AG37" s="3"/>
       <c r="AH37" s="3"/>
       <c r="AI37" s="7">
-        <v>31670674.2</v>
+        <v>16501888.2</v>
       </c>
       <c r="AJ37" s="2">
-        <v>330227385.4</v>
+        <v>174547742.5</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="2">
-        <v>31670674.2</v>
+        <v>34837741.4</v>
       </c>
       <c r="AM37" s="2">
-        <v>158353371.0</v>
+        <v>174188707.0</v>
       </c>
       <c r="AN37" s="2">
-        <v>31670674.2</v>
-      </c>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>-2533654.2</v>
+      </c>
+      <c r="AP37" s="3"/>
       <c r="AQ37" s="2" t="s">
         <v>85</v>
       </c>
@@ -13442,17 +13916,23 @@
         <v>71</v>
       </c>
       <c r="C38" s="5">
-        <v>34837741.4</v>
+        <v>38321515.1</v>
       </c>
       <c r="D38" s="3">
         <v>0.1</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="3"/>
+      <c r="E38" s="6">
+        <v>2787019.4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3"/>
+        <v>17394493.0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="3"/>
       <c r="K38" s="2"/>
@@ -13492,25 +13972,25 @@
       <c r="AG38" s="3"/>
       <c r="AH38" s="3"/>
       <c r="AI38" s="7">
-        <v>34837741.4</v>
+        <v>18140002.7</v>
       </c>
       <c r="AJ38" s="2">
-        <v>365065126.8</v>
+        <v>192687745.2</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="2">
-        <v>34837741.4</v>
+        <v>38321515.1</v>
       </c>
       <c r="AM38" s="2">
-        <v>174188707.0</v>
+        <v>191607575.5</v>
       </c>
       <c r="AN38" s="2">
-        <v>34837741.4</v>
-      </c>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>-2787019.4</v>
+      </c>
+      <c r="AP38" s="3"/>
       <c r="AQ38" s="2" t="s">
         <v>86</v>
       </c>
@@ -13523,17 +14003,23 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <v>38321515.1</v>
+        <v>42153666.5</v>
       </c>
       <c r="D39" s="3">
         <v>0.1</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="3"/>
+      <c r="E39" s="6">
+        <v>3065720.9</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.1</v>
+      </c>
       <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3"/>
+        <v>19146015.0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.45</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="3"/>
       <c r="K39" s="2"/>
@@ -13573,25 +14059,25 @@
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="7">
-        <v>38321515.1</v>
+        <v>19941930.6</v>
       </c>
       <c r="AJ39" s="2">
-        <v>403386641.9</v>
+        <v>212629675.8</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="2">
-        <v>38321515.1</v>
+        <v>42153666.5</v>
       </c>
       <c r="AM39" s="2">
-        <v>191607575.5</v>
+        <v>210768332.5</v>
       </c>
       <c r="AN39" s="2">
-        <v>38321515.1</v>
-      </c>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="3">
-        <v>0.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>-3065720.9</v>
+      </c>
+      <c r="AP39" s="3"/>
       <c r="AQ39" s="2" t="s">
         <v>87</v>
       </c>
@@ -13743,300 +14229,14 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
-        <v>2057</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
